--- a/inputs/es/demo_region2_input.xlsx
+++ b/inputs/es/demo_region2_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\es\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\es\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33824803-3CB9-4E31-856D-399E06DFA1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BF52D9-F40E-4450-A7A9-9872C24F6246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entradas de población-año base" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Causas de muerte" sheetId="4" r:id="rId3"/>
     <sheet name="Distribución estado nutricional" sheetId="5" r:id="rId4"/>
     <sheet name="Distribución de lactancia" sheetId="50" r:id="rId5"/>
-    <sheet name="Tendencias temporales" sheetId="51" r:id="rId6"/>
+    <sheet name="Tendencias temporales" sheetId="51" state="hidden" r:id="rId6"/>
     <sheet name="Pérdida económica" sheetId="74" r:id="rId7"/>
     <sheet name="Paquetes de IYCF" sheetId="55" r:id="rId8"/>
     <sheet name="Tratamiento de la MAS" sheetId="60" r:id="rId9"/>
@@ -97,7 +97,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -588,7 +593,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="341">
   <si>
     <t>Meningitis</t>
   </si>
@@ -2656,7 +2661,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2923,9 +2928,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -2933,8 +2935,8 @@
     <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="728">
@@ -5110,18 +5112,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="27.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -5132,14 +5134,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>18</v>
@@ -5148,7 +5150,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>26</v>
@@ -5157,7 +5159,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -5226,7 +5228,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>28</v>
       </c>
@@ -5269,7 +5271,7 @@
       <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="116">
+      <c r="C20" s="115">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
         <v>0</v>
       </c>
@@ -5357,17 +5359,17 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="117">
+      <c r="C33" s="116">
         <f>SUM(C29:C32)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>20</v>
       </c>
@@ -5471,7 +5473,7 @@
       <c r="B48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="116">
+      <c r="C48" s="115">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
         <v>0.495</v>
       </c>
@@ -5573,7 +5575,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5595,19 +5597,19 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="40" customWidth="1"/>
     <col min="2" max="2" width="20" style="28" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="28" customWidth="1"/>
-    <col min="5" max="5" width="36.36328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="28" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="14.453125" style="28"/>
+    <col min="7" max="7" width="22.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>163</v>
       </c>
@@ -6535,19 +6537,19 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="47.88671875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>163</v>
       </c>
@@ -6688,13 +6690,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="28" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="30.109375" style="28" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>163</v>
       </c>
@@ -6787,7 +6789,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -6902,19 +6904,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>209</v>
       </c>
@@ -6961,7 +6963,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>83</v>
       </c>
@@ -7522,7 +7524,7 @@
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>104</v>
       </c>
@@ -7573,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>166</v>
@@ -7618,7 +7620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>178</v>
@@ -7667,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>179</v>
@@ -7903,7 +7905,7 @@
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>211</v>
       </c>
@@ -8153,7 +8155,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>210</v>
       </c>
@@ -8661,7 +8663,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -8700,16 +8702,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="28" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="28"/>
-    <col min="5" max="5" width="17.453125" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="33.6640625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="28" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="28"/>
+    <col min="5" max="5" width="17.44140625" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>223</v>
       </c>
@@ -8726,7 +8728,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>215</v>
       </c>
@@ -8744,7 +8746,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>222</v>
       </c>
@@ -8762,7 +8764,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>217</v>
       </c>
@@ -8780,7 +8782,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>221</v>
       </c>
@@ -8798,7 +8800,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>220</v>
       </c>
@@ -8816,7 +8818,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>224</v>
       </c>
@@ -8834,7 +8836,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>226</v>
       </c>
@@ -8852,7 +8854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>218</v>
       </c>
@@ -8870,7 +8872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>219</v>
       </c>
@@ -8907,20 +8909,20 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="43" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="43"/>
+    <col min="6" max="7" width="13.109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.109375" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>209</v>
       </c>
@@ -8967,7 +8969,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>83</v>
       </c>
@@ -9014,7 +9016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="40" t="s">
         <v>169</v>
       </c>
@@ -9058,7 +9060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
         <v>151</v>
       </c>
@@ -9102,7 +9104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="40" t="s">
         <v>152</v>
       </c>
@@ -9146,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="40" t="s">
         <v>153</v>
       </c>
@@ -9190,7 +9192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="40" t="s">
         <v>182</v>
       </c>
@@ -9234,7 +9236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="40" t="s">
         <v>184</v>
       </c>
@@ -9278,7 +9280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="40" t="s">
         <v>190</v>
       </c>
@@ -9322,7 +9324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="40" t="s">
         <v>192</v>
       </c>
@@ -9366,7 +9368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="40" t="s">
         <v>193</v>
       </c>
@@ -9410,7 +9412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
         <v>204</v>
       </c>
@@ -9454,7 +9456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="40" t="s">
         <v>164</v>
       </c>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="40" t="s">
         <v>196</v>
       </c>
@@ -9542,7 +9544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="40" t="s">
         <v>202</v>
       </c>
@@ -9586,7 +9588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="40" t="s">
         <v>203</v>
       </c>
@@ -9630,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="40"/>
       <c r="C17" s="100"/>
       <c r="D17" s="100"/>
@@ -9646,7 +9648,7 @@
       <c r="N17" s="100"/>
       <c r="O17" s="100"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>104</v>
       </c>
@@ -9693,7 +9695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="40" t="s">
         <v>166</v>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="74" t="s">
         <v>178</v>
       </c>
@@ -9782,7 +9784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="74" t="s">
         <v>179</v>
       </c>
@@ -9826,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="75" t="s">
         <v>180</v>
       </c>
@@ -9870,7 +9872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="40" t="s">
         <v>188</v>
       </c>
@@ -9914,7 +9916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="40" t="s">
         <v>189</v>
       </c>
@@ -9958,7 +9960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="40" t="s">
         <v>191</v>
       </c>
@@ -10002,7 +10004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="40"/>
       <c r="C26" s="100"/>
       <c r="D26" s="100"/>
@@ -10018,7 +10020,7 @@
       <c r="N26" s="100"/>
       <c r="O26" s="100"/>
     </row>
-    <row r="27" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>211</v>
       </c>
@@ -10066,7 +10068,7 @@
       </c>
       <c r="P27" s="76"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="46" t="s">
         <v>174</v>
       </c>
@@ -10110,7 +10112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="46" t="s">
         <v>175</v>
@@ -10155,7 +10157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="46" t="s">
         <v>176</v>
       </c>
@@ -10199,7 +10201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="46" t="s">
         <v>177</v>
       </c>
@@ -10243,7 +10245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="40"/>
       <c r="C32" s="101"/>
       <c r="D32" s="101"/>
@@ -10259,7 +10261,7 @@
       <c r="N32" s="100"/>
       <c r="O32" s="100"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>210</v>
       </c>
@@ -10306,7 +10308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="40" t="s">
         <v>172</v>
       </c>
@@ -10350,7 +10352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="40" t="s">
         <v>173</v>
       </c>
@@ -10394,7 +10396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="40" t="s">
         <v>181</v>
       </c>
@@ -10438,7 +10440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="40" t="s">
         <v>185</v>
       </c>
@@ -10482,7 +10484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="40" t="s">
         <v>197</v>
       </c>
@@ -10526,7 +10528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="40" t="s">
         <v>198</v>
       </c>
@@ -10570,7 +10572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="40" t="s">
         <v>199</v>
       </c>
@@ -10614,7 +10616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="40" t="s">
         <v>200</v>
       </c>
@@ -10658,7 +10660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="40" t="s">
         <v>201</v>
       </c>
@@ -10719,22 +10721,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="28"/>
+    <col min="1" max="1" width="58.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>163</v>
       </c>
@@ -11486,22 +11488,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="28"/>
+    <col min="1" max="1" width="16.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>233</v>
       </c>
@@ -11860,14 +11862,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="8" customWidth="1"/>
-    <col min="2" max="9" width="16.90625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="8.44140625" style="8" customWidth="1"/>
+    <col min="2" max="9" width="16.88671875" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>73</v>
       </c>
@@ -12955,15 +12957,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="28" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="28" customWidth="1"/>
     <col min="2" max="2" width="15" style="28" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="28"/>
+    <col min="3" max="3" width="14.6640625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>234</v>
       </c>
@@ -12989,11 +12991,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="118" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -13016,7 +13018,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="115"/>
+      <c r="B3" s="118"/>
       <c r="C3" s="28" t="s">
         <v>149</v>
       </c>
@@ -13038,7 +13040,7 @@
       <c r="J3" s="77"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="115"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="28" t="s">
         <v>155</v>
       </c>
@@ -13060,7 +13062,7 @@
       <c r="J4" s="77"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="118" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="28" t="s">
@@ -13084,7 +13086,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="115"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="28" t="s">
         <v>149</v>
       </c>
@@ -13105,7 +13107,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="115"/>
+      <c r="B7" s="118"/>
       <c r="C7" s="28" t="s">
         <v>155</v>
       </c>
@@ -13126,7 +13128,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="118" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="28" t="s">
@@ -13149,7 +13151,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="115"/>
+      <c r="B9" s="118"/>
       <c r="C9" s="28" t="s">
         <v>149</v>
       </c>
@@ -13170,7 +13172,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="115"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="28" t="s">
         <v>155</v>
       </c>
@@ -13191,7 +13193,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="118" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -13214,7 +13216,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="115"/>
+      <c r="B12" s="118"/>
       <c r="C12" s="28" t="s">
         <v>149</v>
       </c>
@@ -13235,7 +13237,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="115"/>
+      <c r="B13" s="118"/>
       <c r="C13" s="28" t="s">
         <v>155</v>
       </c>
@@ -13256,7 +13258,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="118" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -13279,7 +13281,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="115"/>
+      <c r="B15" s="118"/>
       <c r="C15" s="28" t="s">
         <v>149</v>
       </c>
@@ -13300,7 +13302,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="115"/>
+      <c r="B16" s="118"/>
       <c r="C16" s="28" t="s">
         <v>155</v>
       </c>
@@ -13320,7 +13322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="78" t="s">
         <v>148</v>
       </c>
@@ -13350,11 +13352,11 @@
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="118" t="s">
         <v>104</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -13377,7 +13379,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="115"/>
+      <c r="B20" s="118"/>
       <c r="C20" s="28" t="s">
         <v>149</v>
       </c>
@@ -13398,7 +13400,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="115"/>
+      <c r="B21" s="118"/>
       <c r="C21" s="28" t="s">
         <v>155</v>
       </c>
@@ -13419,7 +13421,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="118" t="s">
         <v>78</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -13442,7 +13444,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="115"/>
+      <c r="B23" s="118"/>
       <c r="C23" s="28" t="s">
         <v>149</v>
       </c>
@@ -13463,7 +13465,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="115"/>
+      <c r="B24" s="118"/>
       <c r="C24" s="28" t="s">
         <v>155</v>
       </c>
@@ -13484,7 +13486,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="118" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -13507,7 +13509,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="115"/>
+      <c r="B26" s="118"/>
       <c r="C26" s="28" t="s">
         <v>149</v>
       </c>
@@ -13528,7 +13530,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="115"/>
+      <c r="B27" s="118"/>
       <c r="C27" s="28" t="s">
         <v>155</v>
       </c>
@@ -13549,7 +13551,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="118" t="s">
         <v>77</v>
       </c>
       <c r="C28" s="28" t="s">
@@ -13572,7 +13574,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="115"/>
+      <c r="B29" s="118"/>
       <c r="C29" s="28" t="s">
         <v>149</v>
       </c>
@@ -13593,7 +13595,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="115"/>
+      <c r="B30" s="118"/>
       <c r="C30" s="28" t="s">
         <v>155</v>
       </c>
@@ -13614,7 +13616,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="118" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -13637,7 +13639,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="115"/>
+      <c r="B32" s="118"/>
       <c r="C32" s="28" t="s">
         <v>149</v>
       </c>
@@ -13658,7 +13660,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="115"/>
+      <c r="B33" s="118"/>
       <c r="C33" s="28" t="s">
         <v>155</v>
       </c>
@@ -13678,7 +13680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="78" t="s">
         <v>148</v>
       </c>
@@ -13708,11 +13710,11 @@
       <c r="G35" s="102"/>
       <c r="H35" s="102"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="79" t="s">
         <v>239</v>
       </c>
-      <c r="B36" s="115" t="s">
+      <c r="B36" s="118" t="s">
         <v>104</v>
       </c>
       <c r="C36" s="28" t="s">
@@ -13735,7 +13737,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="115"/>
+      <c r="B37" s="118"/>
       <c r="C37" s="28" t="s">
         <v>149</v>
       </c>
@@ -13756,7 +13758,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="115"/>
+      <c r="B38" s="118"/>
       <c r="C38" s="28" t="s">
         <v>155</v>
       </c>
@@ -13777,7 +13779,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="115" t="s">
+      <c r="B39" s="118" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -13800,7 +13802,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="115"/>
+      <c r="B40" s="118"/>
       <c r="C40" s="28" t="s">
         <v>149</v>
       </c>
@@ -13821,7 +13823,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="115"/>
+      <c r="B41" s="118"/>
       <c r="C41" s="28" t="s">
         <v>155</v>
       </c>
@@ -13842,7 +13844,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="115" t="s">
+      <c r="B42" s="118" t="s">
         <v>74</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -13865,7 +13867,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="115"/>
+      <c r="B43" s="118"/>
       <c r="C43" s="28" t="s">
         <v>149</v>
       </c>
@@ -13886,7 +13888,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="115"/>
+      <c r="B44" s="118"/>
       <c r="C44" s="28" t="s">
         <v>155</v>
       </c>
@@ -13907,7 +13909,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="115" t="s">
+      <c r="B45" s="118" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="28" t="s">
@@ -13930,7 +13932,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="115"/>
+      <c r="B46" s="118"/>
       <c r="C46" s="28" t="s">
         <v>149</v>
       </c>
@@ -13951,7 +13953,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="115"/>
+      <c r="B47" s="118"/>
       <c r="C47" s="28" t="s">
         <v>155</v>
       </c>
@@ -13972,7 +13974,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="115" t="s">
+      <c r="B48" s="118" t="s">
         <v>75</v>
       </c>
       <c r="C48" s="28" t="s">
@@ -13995,7 +13997,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="115"/>
+      <c r="B49" s="118"/>
       <c r="C49" s="28" t="s">
         <v>149</v>
       </c>
@@ -14016,7 +14018,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="115"/>
+      <c r="B50" s="118"/>
       <c r="C50" s="28" t="s">
         <v>155</v>
       </c>
@@ -14036,7 +14038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="78" t="s">
         <v>148</v>
       </c>
@@ -14059,7 +14061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="108" t="s">
         <v>235</v>
       </c>
@@ -14071,7 +14073,7 @@
       <c r="G53" s="108"/>
       <c r="H53" s="108"/>
     </row>
-    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>234</v>
       </c>
@@ -14097,11 +14099,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="B55" s="115" t="s">
+      <c r="B55" s="118" t="s">
         <v>104</v>
       </c>
       <c r="C55" s="28" t="s">
@@ -14129,7 +14131,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="115"/>
+      <c r="B56" s="118"/>
       <c r="C56" s="28" t="s">
         <v>149</v>
       </c>
@@ -14155,7 +14157,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="115"/>
+      <c r="B57" s="118"/>
       <c r="C57" s="28" t="s">
         <v>155</v>
       </c>
@@ -14181,7 +14183,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="115" t="s">
+      <c r="B58" s="118" t="s">
         <v>78</v>
       </c>
       <c r="C58" s="28" t="s">
@@ -14209,7 +14211,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="115"/>
+      <c r="B59" s="118"/>
       <c r="C59" s="28" t="s">
         <v>149</v>
       </c>
@@ -14235,7 +14237,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="115"/>
+      <c r="B60" s="118"/>
       <c r="C60" s="28" t="s">
         <v>155</v>
       </c>
@@ -14261,7 +14263,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="115" t="s">
+      <c r="B61" s="118" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="28" t="s">
@@ -14289,7 +14291,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="115"/>
+      <c r="B62" s="118"/>
       <c r="C62" s="28" t="s">
         <v>149</v>
       </c>
@@ -14315,7 +14317,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="115"/>
+      <c r="B63" s="118"/>
       <c r="C63" s="28" t="s">
         <v>155</v>
       </c>
@@ -14341,7 +14343,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="115" t="s">
+      <c r="B64" s="118" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="28" t="s">
@@ -14369,7 +14371,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="115"/>
+      <c r="B65" s="118"/>
       <c r="C65" s="28" t="s">
         <v>149</v>
       </c>
@@ -14395,7 +14397,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="115"/>
+      <c r="B66" s="118"/>
       <c r="C66" s="28" t="s">
         <v>155</v>
       </c>
@@ -14421,7 +14423,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="115" t="s">
+      <c r="B67" s="118" t="s">
         <v>75</v>
       </c>
       <c r="C67" s="28" t="s">
@@ -14449,7 +14451,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="115"/>
+      <c r="B68" s="118"/>
       <c r="C68" s="28" t="s">
         <v>149</v>
       </c>
@@ -14475,7 +14477,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="115"/>
+      <c r="B69" s="118"/>
       <c r="C69" s="28" t="s">
         <v>155</v>
       </c>
@@ -14500,7 +14502,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="78" t="s">
         <v>148</v>
       </c>
@@ -14535,11 +14537,11 @@
       <c r="G71" s="102"/>
       <c r="H71" s="102"/>
     </row>
-    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="B72" s="115" t="s">
+      <c r="B72" s="118" t="s">
         <v>104</v>
       </c>
       <c r="C72" s="28" t="s">
@@ -14567,7 +14569,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="115"/>
+      <c r="B73" s="118"/>
       <c r="C73" s="28" t="s">
         <v>149</v>
       </c>
@@ -14593,7 +14595,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="115"/>
+      <c r="B74" s="118"/>
       <c r="C74" s="28" t="s">
         <v>155</v>
       </c>
@@ -14619,7 +14621,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="115" t="s">
+      <c r="B75" s="118" t="s">
         <v>78</v>
       </c>
       <c r="C75" s="28" t="s">
@@ -14647,7 +14649,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="115"/>
+      <c r="B76" s="118"/>
       <c r="C76" s="28" t="s">
         <v>149</v>
       </c>
@@ -14673,7 +14675,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="115"/>
+      <c r="B77" s="118"/>
       <c r="C77" s="28" t="s">
         <v>155</v>
       </c>
@@ -14699,7 +14701,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="115" t="s">
+      <c r="B78" s="118" t="s">
         <v>74</v>
       </c>
       <c r="C78" s="28" t="s">
@@ -14727,7 +14729,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="115"/>
+      <c r="B79" s="118"/>
       <c r="C79" s="28" t="s">
         <v>149</v>
       </c>
@@ -14753,7 +14755,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="115"/>
+      <c r="B80" s="118"/>
       <c r="C80" s="28" t="s">
         <v>155</v>
       </c>
@@ -14779,7 +14781,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="115" t="s">
+      <c r="B81" s="118" t="s">
         <v>77</v>
       </c>
       <c r="C81" s="28" t="s">
@@ -14807,7 +14809,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="115"/>
+      <c r="B82" s="118"/>
       <c r="C82" s="28" t="s">
         <v>149</v>
       </c>
@@ -14833,7 +14835,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="115"/>
+      <c r="B83" s="118"/>
       <c r="C83" s="28" t="s">
         <v>155</v>
       </c>
@@ -14859,7 +14861,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="115" t="s">
+      <c r="B84" s="118" t="s">
         <v>75</v>
       </c>
       <c r="C84" s="28" t="s">
@@ -14887,7 +14889,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="115"/>
+      <c r="B85" s="118"/>
       <c r="C85" s="28" t="s">
         <v>149</v>
       </c>
@@ -14913,7 +14915,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="115"/>
+      <c r="B86" s="118"/>
       <c r="C86" s="28" t="s">
         <v>155</v>
       </c>
@@ -14938,7 +14940,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="78" t="s">
         <v>148</v>
       </c>
@@ -14973,11 +14975,11 @@
       <c r="G88" s="102"/>
       <c r="H88" s="102"/>
     </row>
-    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="B89" s="115" t="s">
+      <c r="B89" s="118" t="s">
         <v>104</v>
       </c>
       <c r="C89" s="28" t="s">
@@ -15005,7 +15007,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="115"/>
+      <c r="B90" s="118"/>
       <c r="C90" s="28" t="s">
         <v>149</v>
       </c>
@@ -15031,7 +15033,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="115"/>
+      <c r="B91" s="118"/>
       <c r="C91" s="28" t="s">
         <v>155</v>
       </c>
@@ -15057,7 +15059,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="115" t="s">
+      <c r="B92" s="118" t="s">
         <v>78</v>
       </c>
       <c r="C92" s="28" t="s">
@@ -15085,7 +15087,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="115"/>
+      <c r="B93" s="118"/>
       <c r="C93" s="28" t="s">
         <v>149</v>
       </c>
@@ -15111,7 +15113,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="115"/>
+      <c r="B94" s="118"/>
       <c r="C94" s="28" t="s">
         <v>155</v>
       </c>
@@ -15137,7 +15139,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="115" t="s">
+      <c r="B95" s="118" t="s">
         <v>74</v>
       </c>
       <c r="C95" s="28" t="s">
@@ -15165,7 +15167,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="115"/>
+      <c r="B96" s="118"/>
       <c r="C96" s="28" t="s">
         <v>149</v>
       </c>
@@ -15191,7 +15193,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="115"/>
+      <c r="B97" s="118"/>
       <c r="C97" s="28" t="s">
         <v>155</v>
       </c>
@@ -15217,7 +15219,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="115" t="s">
+      <c r="B98" s="118" t="s">
         <v>77</v>
       </c>
       <c r="C98" s="28" t="s">
@@ -15245,7 +15247,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="115"/>
+      <c r="B99" s="118"/>
       <c r="C99" s="28" t="s">
         <v>149</v>
       </c>
@@ -15271,7 +15273,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="115"/>
+      <c r="B100" s="118"/>
       <c r="C100" s="28" t="s">
         <v>155</v>
       </c>
@@ -15297,7 +15299,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="115" t="s">
+      <c r="B101" s="118" t="s">
         <v>75</v>
       </c>
       <c r="C101" s="28" t="s">
@@ -15325,7 +15327,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="115"/>
+      <c r="B102" s="118"/>
       <c r="C102" s="28" t="s">
         <v>149</v>
       </c>
@@ -15351,7 +15353,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="115"/>
+      <c r="B103" s="118"/>
       <c r="C103" s="28" t="s">
         <v>155</v>
       </c>
@@ -15376,7 +15378,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="78" t="s">
         <v>148</v>
       </c>
@@ -15404,7 +15406,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="108" t="s">
         <v>245</v>
       </c>
@@ -15416,7 +15418,7 @@
       <c r="G106" s="108"/>
       <c r="H106" s="108"/>
     </row>
-    <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>234</v>
       </c>
@@ -15442,11 +15444,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="B108" s="115" t="s">
+      <c r="B108" s="118" t="s">
         <v>104</v>
       </c>
       <c r="C108" s="28" t="s">
@@ -15474,7 +15476,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="115"/>
+      <c r="B109" s="118"/>
       <c r="C109" s="28" t="s">
         <v>149</v>
       </c>
@@ -15500,7 +15502,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="115"/>
+      <c r="B110" s="118"/>
       <c r="C110" s="28" t="s">
         <v>155</v>
       </c>
@@ -15526,7 +15528,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="115" t="s">
+      <c r="B111" s="118" t="s">
         <v>78</v>
       </c>
       <c r="C111" s="28" t="s">
@@ -15554,7 +15556,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="115"/>
+      <c r="B112" s="118"/>
       <c r="C112" s="28" t="s">
         <v>149</v>
       </c>
@@ -15580,7 +15582,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="115"/>
+      <c r="B113" s="118"/>
       <c r="C113" s="28" t="s">
         <v>155</v>
       </c>
@@ -15606,7 +15608,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="115" t="s">
+      <c r="B114" s="118" t="s">
         <v>74</v>
       </c>
       <c r="C114" s="28" t="s">
@@ -15634,7 +15636,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="115"/>
+      <c r="B115" s="118"/>
       <c r="C115" s="28" t="s">
         <v>149</v>
       </c>
@@ -15660,7 +15662,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="115"/>
+      <c r="B116" s="118"/>
       <c r="C116" s="28" t="s">
         <v>155</v>
       </c>
@@ -15686,7 +15688,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="115" t="s">
+      <c r="B117" s="118" t="s">
         <v>77</v>
       </c>
       <c r="C117" s="28" t="s">
@@ -15714,7 +15716,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="115"/>
+      <c r="B118" s="118"/>
       <c r="C118" s="28" t="s">
         <v>149</v>
       </c>
@@ -15740,7 +15742,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="115"/>
+      <c r="B119" s="118"/>
       <c r="C119" s="28" t="s">
         <v>155</v>
       </c>
@@ -15766,7 +15768,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="115" t="s">
+      <c r="B120" s="118" t="s">
         <v>75</v>
       </c>
       <c r="C120" s="28" t="s">
@@ -15794,7 +15796,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="115"/>
+      <c r="B121" s="118"/>
       <c r="C121" s="28" t="s">
         <v>149</v>
       </c>
@@ -15820,7 +15822,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="115"/>
+      <c r="B122" s="118"/>
       <c r="C122" s="28" t="s">
         <v>155</v>
       </c>
@@ -15845,7 +15847,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" s="78" t="s">
         <v>148</v>
       </c>
@@ -15880,11 +15882,11 @@
       <c r="G124" s="102"/>
       <c r="H124" s="102"/>
     </row>
-    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="B125" s="115" t="s">
+      <c r="B125" s="118" t="s">
         <v>104</v>
       </c>
       <c r="C125" s="28" t="s">
@@ -15912,7 +15914,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="115"/>
+      <c r="B126" s="118"/>
       <c r="C126" s="28" t="s">
         <v>149</v>
       </c>
@@ -15938,7 +15940,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="115"/>
+      <c r="B127" s="118"/>
       <c r="C127" s="28" t="s">
         <v>155</v>
       </c>
@@ -15964,7 +15966,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="115" t="s">
+      <c r="B128" s="118" t="s">
         <v>78</v>
       </c>
       <c r="C128" s="28" t="s">
@@ -15992,7 +15994,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="115"/>
+      <c r="B129" s="118"/>
       <c r="C129" s="28" t="s">
         <v>149</v>
       </c>
@@ -16018,7 +16020,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="115"/>
+      <c r="B130" s="118"/>
       <c r="C130" s="28" t="s">
         <v>155</v>
       </c>
@@ -16044,7 +16046,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="115" t="s">
+      <c r="B131" s="118" t="s">
         <v>74</v>
       </c>
       <c r="C131" s="28" t="s">
@@ -16072,7 +16074,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="115"/>
+      <c r="B132" s="118"/>
       <c r="C132" s="28" t="s">
         <v>149</v>
       </c>
@@ -16098,7 +16100,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="115"/>
+      <c r="B133" s="118"/>
       <c r="C133" s="28" t="s">
         <v>155</v>
       </c>
@@ -16124,7 +16126,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="115" t="s">
+      <c r="B134" s="118" t="s">
         <v>77</v>
       </c>
       <c r="C134" s="28" t="s">
@@ -16152,7 +16154,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="115"/>
+      <c r="B135" s="118"/>
       <c r="C135" s="28" t="s">
         <v>149</v>
       </c>
@@ -16178,7 +16180,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="115"/>
+      <c r="B136" s="118"/>
       <c r="C136" s="28" t="s">
         <v>155</v>
       </c>
@@ -16204,7 +16206,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="115" t="s">
+      <c r="B137" s="118" t="s">
         <v>75</v>
       </c>
       <c r="C137" s="28" t="s">
@@ -16232,7 +16234,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="115"/>
+      <c r="B138" s="118"/>
       <c r="C138" s="28" t="s">
         <v>149</v>
       </c>
@@ -16258,7 +16260,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="115"/>
+      <c r="B139" s="118"/>
       <c r="C139" s="28" t="s">
         <v>155</v>
       </c>
@@ -16283,7 +16285,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" s="78" t="s">
         <v>148</v>
       </c>
@@ -16318,11 +16320,11 @@
       <c r="G141" s="102"/>
       <c r="H141" s="102"/>
     </row>
-    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="79" t="s">
         <v>241</v>
       </c>
-      <c r="B142" s="115" t="s">
+      <c r="B142" s="118" t="s">
         <v>104</v>
       </c>
       <c r="C142" s="28" t="s">
@@ -16350,7 +16352,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="115"/>
+      <c r="B143" s="118"/>
       <c r="C143" s="28" t="s">
         <v>149</v>
       </c>
@@ -16376,7 +16378,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="115"/>
+      <c r="B144" s="118"/>
       <c r="C144" s="28" t="s">
         <v>155</v>
       </c>
@@ -16402,7 +16404,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="115" t="s">
+      <c r="B145" s="118" t="s">
         <v>78</v>
       </c>
       <c r="C145" s="28" t="s">
@@ -16430,7 +16432,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="115"/>
+      <c r="B146" s="118"/>
       <c r="C146" s="28" t="s">
         <v>149</v>
       </c>
@@ -16456,7 +16458,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="115"/>
+      <c r="B147" s="118"/>
       <c r="C147" s="28" t="s">
         <v>155</v>
       </c>
@@ -16482,7 +16484,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="115" t="s">
+      <c r="B148" s="118" t="s">
         <v>74</v>
       </c>
       <c r="C148" s="28" t="s">
@@ -16510,7 +16512,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="115"/>
+      <c r="B149" s="118"/>
       <c r="C149" s="28" t="s">
         <v>149</v>
       </c>
@@ -16536,7 +16538,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="115"/>
+      <c r="B150" s="118"/>
       <c r="C150" s="28" t="s">
         <v>155</v>
       </c>
@@ -16562,7 +16564,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="115" t="s">
+      <c r="B151" s="118" t="s">
         <v>77</v>
       </c>
       <c r="C151" s="28" t="s">
@@ -16590,7 +16592,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="115"/>
+      <c r="B152" s="118"/>
       <c r="C152" s="28" t="s">
         <v>149</v>
       </c>
@@ -16616,7 +16618,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="115"/>
+      <c r="B153" s="118"/>
       <c r="C153" s="28" t="s">
         <v>155</v>
       </c>
@@ -16642,7 +16644,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="115" t="s">
+      <c r="B154" s="118" t="s">
         <v>75</v>
       </c>
       <c r="C154" s="28" t="s">
@@ -16670,7 +16672,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="115"/>
+      <c r="B155" s="118"/>
       <c r="C155" s="28" t="s">
         <v>149</v>
       </c>
@@ -16696,7 +16698,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="115"/>
+      <c r="B156" s="118"/>
       <c r="C156" s="28" t="s">
         <v>155</v>
       </c>
@@ -16721,7 +16723,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="78" t="s">
         <v>148</v>
       </c>
@@ -16752,6 +16754,42 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VYDq6AFxA4hzcHmtFBATaTDPC+TXznzTACY/V1QwKY9FOOloTFWfivfwlnc+EvDa0UzcN9wuKruxzOLx6BQLaw==" saltValue="CPu3gA0jo/LN2k3Jsy62bg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -16761,42 +16799,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -16817,22 +16819,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="28" customWidth="1"/>
     <col min="5" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="28"/>
+    <col min="7" max="16384" width="16.109375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="81" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="81" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="80" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="82"/>
       <c r="C2" s="83" t="s">
         <v>58</v>
@@ -16847,7 +16849,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>255</v>
       </c>
@@ -16931,7 +16933,7 @@
       <c r="E8" s="77"/>
       <c r="F8" s="77"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>252</v>
       </c>
@@ -16954,7 +16956,7 @@
       <c r="E10" s="77"/>
       <c r="F10" s="77"/>
     </row>
-    <row r="11" spans="1:6" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="80" t="s">
         <v>261</v>
       </c>
@@ -16963,7 +16965,7 @@
       <c r="E11" s="90"/>
       <c r="F11" s="90"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>249</v>
       </c>
@@ -17023,7 +17025,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="46"/>
       <c r="C16" s="91"/>
@@ -17031,7 +17033,7 @@
       <c r="E16" s="77"/>
       <c r="F16" s="77"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>258</v>
       </c>
@@ -17180,7 +17182,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="46"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="108" t="s">
         <v>235</v>
       </c>
@@ -17190,12 +17192,12 @@
       <c r="E27" s="111"/>
       <c r="F27" s="111"/>
     </row>
-    <row r="28" spans="1:6" s="81" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="81" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="80" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="82"/>
       <c r="C29" s="83" t="s">
         <v>58</v>
@@ -17210,7 +17212,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>256</v>
       </c>
@@ -17310,7 +17312,7 @@
       <c r="E35" s="77"/>
       <c r="F35" s="77"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>253</v>
       </c>
@@ -17331,7 +17333,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="80" t="s">
         <v>261</v>
       </c>
@@ -17341,7 +17343,7 @@
       <c r="E38" s="90"/>
       <c r="F38" s="90"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>250</v>
       </c>
@@ -17413,7 +17415,7 @@
         <v>2.9330000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="B43" s="46"/>
       <c r="C43" s="91"/>
@@ -17421,7 +17423,7 @@
       <c r="E43" s="77"/>
       <c r="F43" s="77"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>259</v>
       </c>
@@ -17599,7 +17601,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="108" t="s">
         <v>245</v>
       </c>
@@ -17609,12 +17611,12 @@
       <c r="E54" s="111"/>
       <c r="F54" s="111"/>
     </row>
-    <row r="55" spans="1:6" s="81" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="81" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="80" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="82"/>
       <c r="C56" s="83" t="s">
         <v>58</v>
@@ -17629,7 +17631,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>257</v>
       </c>
@@ -17729,7 +17731,7 @@
       <c r="E62" s="77"/>
       <c r="F62" s="77"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>254</v>
       </c>
@@ -17750,7 +17752,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="80" t="s">
         <v>261</v>
       </c>
@@ -17760,7 +17762,7 @@
       <c r="E65" s="90"/>
       <c r="F65" s="90"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>251</v>
       </c>
@@ -17832,7 +17834,7 @@
         <v>5.447000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
       <c r="B70" s="46"/>
       <c r="C70" s="91"/>
@@ -17840,7 +17842,7 @@
       <c r="E70" s="77"/>
       <c r="F70" s="77"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>260</v>
       </c>
@@ -18039,23 +18041,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="28" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="28" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="28"/>
+    <col min="1" max="1" width="27.21875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="28" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="28" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="81" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="80" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="94" t="s">
         <v>230</v>
       </c>
@@ -18089,7 +18091,7 @@
       <c r="O2" s="95"/>
       <c r="P2" s="95"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="28" t="s">
         <v>84</v>
@@ -18522,7 +18524,7 @@
       <c r="O17" s="94"/>
       <c r="P17" s="94"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="32" t="s">
         <v>272</v>
       </c>
@@ -18780,12 +18782,12 @@
       <c r="O26" s="94"/>
       <c r="P26" s="94"/>
     </row>
-    <row r="28" spans="1:16" s="81" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="80" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="94" t="s">
         <v>282</v>
       </c>
@@ -18819,7 +18821,7 @@
       <c r="O29" s="95"/>
       <c r="P29" s="95"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="28" t="s">
         <v>84</v>
@@ -19514,12 +19516,12 @@
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
     </row>
-    <row r="55" spans="1:16" s="81" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="80" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="94" t="s">
         <v>105</v>
       </c>
@@ -19547,7 +19549,7 @@
       <c r="O56" s="95"/>
       <c r="P56" s="95"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="B57" s="28" t="s">
         <v>81</v>
@@ -19693,12 +19695,12 @@
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
     </row>
-    <row r="64" spans="1:16" s="81" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="80" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="94" t="s">
         <v>123</v>
       </c>
@@ -19732,7 +19734,7 @@
       <c r="O65" s="95"/>
       <c r="P65" s="95"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="98"/>
       <c r="B66" s="28" t="s">
         <v>93</v>
@@ -20768,12 +20770,12 @@
       <c r="O101" s="94"/>
       <c r="P101" s="94"/>
     </row>
-    <row r="103" spans="1:16" s="81" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="80" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="94" t="s">
         <v>84</v>
       </c>
@@ -20807,7 +20809,7 @@
       <c r="O104" s="95"/>
       <c r="P104" s="95"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
       <c r="C105" s="32" t="s">
         <v>124</v>
@@ -20920,13 +20922,13 @@
       <c r="O108" s="94"/>
       <c r="P108" s="94"/>
     </row>
-    <row r="110" spans="1:16" s="109" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" s="109" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="108" t="s">
         <v>235</v>
       </c>
       <c r="H110" s="108"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="80" t="s">
         <v>278</v>
       </c>
@@ -20938,7 +20940,7 @@
       <c r="G111" s="81"/>
       <c r="H111" s="81"/>
     </row>
-    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="94" t="s">
         <v>230</v>
       </c>
@@ -20964,7 +20966,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="30"/>
       <c r="B113" s="28" t="s">
         <v>84</v>
@@ -21583,7 +21585,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="80" t="s">
         <v>279</v>
       </c>
@@ -21595,7 +21597,7 @@
       <c r="G138" s="81"/>
       <c r="H138" s="81"/>
     </row>
-    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="94" t="s">
         <v>282</v>
       </c>
@@ -21621,7 +21623,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
       <c r="B140" s="28" t="s">
         <v>84</v>
@@ -22244,7 +22246,7 @@
       <c r="C164" s="32"/>
       <c r="D164" s="32"/>
     </row>
-    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="80" t="s">
         <v>276</v>
       </c>
@@ -22256,7 +22258,7 @@
       <c r="G165" s="81"/>
       <c r="H165" s="81"/>
     </row>
-    <row r="166" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A166" s="94" t="s">
         <v>105</v>
       </c>
@@ -22280,7 +22282,7 @@
       </c>
       <c r="H166" s="95"/>
     </row>
-    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="30"/>
       <c r="B167" s="28" t="s">
         <v>81</v>
@@ -22426,7 +22428,7 @@
       <c r="C173" s="32"/>
       <c r="D173" s="32"/>
     </row>
-    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="80" t="s">
         <v>277</v>
       </c>
@@ -22438,7 +22440,7 @@
       <c r="G174" s="81"/>
       <c r="H174" s="81"/>
     </row>
-    <row r="175" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A175" s="94" t="s">
         <v>123</v>
       </c>
@@ -22464,7 +22466,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="98"/>
       <c r="B176" s="28" t="s">
         <v>93</v>
@@ -23356,7 +23358,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="80" t="s">
         <v>280</v>
       </c>
@@ -23368,7 +23370,7 @@
       <c r="G213" s="81"/>
       <c r="H213" s="81"/>
     </row>
-    <row r="214" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A214" s="94" t="s">
         <v>84</v>
       </c>
@@ -23394,7 +23396,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="30"/>
       <c r="C215" s="32" t="s">
         <v>124</v>
@@ -23491,13 +23493,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="109" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="109" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="108" t="s">
         <v>245</v>
       </c>
       <c r="H220" s="108"/>
     </row>
-    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="80" t="s">
         <v>278</v>
       </c>
@@ -23510,7 +23512,7 @@
       <c r="H221" s="81"/>
       <c r="I221" s="81"/>
     </row>
-    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="94" t="s">
         <v>230</v>
       </c>
@@ -23537,7 +23539,7 @@
       </c>
       <c r="I222" s="95"/>
     </row>
-    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="30"/>
       <c r="B223" s="28" t="s">
         <v>84</v>
@@ -24180,7 +24182,7 @@
       </c>
       <c r="I246" s="94"/>
     </row>
-    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="80" t="s">
         <v>279</v>
       </c>
@@ -24193,7 +24195,7 @@
       <c r="H248" s="81"/>
       <c r="I248" s="81"/>
     </row>
-    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="94" t="s">
         <v>282</v>
       </c>
@@ -24220,7 +24222,7 @@
       </c>
       <c r="I249" s="95"/>
     </row>
-    <row r="250" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="30"/>
       <c r="B250" s="28" t="s">
         <v>84</v>
@@ -24867,7 +24869,7 @@
       <c r="C274" s="32"/>
       <c r="D274" s="32"/>
     </row>
-    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="80" t="s">
         <v>276</v>
       </c>
@@ -24880,7 +24882,7 @@
       <c r="H275" s="81"/>
       <c r="I275" s="81"/>
     </row>
-    <row r="276" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A276" s="94" t="s">
         <v>105</v>
       </c>
@@ -24904,7 +24906,7 @@
       </c>
       <c r="H276" s="95"/>
     </row>
-    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="30"/>
       <c r="B277" s="28" t="s">
         <v>81</v>
@@ -25050,7 +25052,7 @@
       <c r="C283" s="32"/>
       <c r="D283" s="32"/>
     </row>
-    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="80" t="s">
         <v>277</v>
       </c>
@@ -25063,7 +25065,7 @@
       <c r="H284" s="81"/>
       <c r="I284" s="81"/>
     </row>
-    <row r="285" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A285" s="94" t="s">
         <v>123</v>
       </c>
@@ -25090,7 +25092,7 @@
       </c>
       <c r="I285" s="95"/>
     </row>
-    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="98"/>
       <c r="B286" s="28" t="s">
         <v>93</v>
@@ -26018,7 +26020,7 @@
       </c>
       <c r="I321" s="94"/>
     </row>
-    <row r="323" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="80" t="s">
         <v>280</v>
       </c>
@@ -26031,7 +26033,7 @@
       <c r="H323" s="81"/>
       <c r="I323" s="81"/>
     </row>
-    <row r="324" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A324" s="94" t="s">
         <v>84</v>
       </c>
@@ -26058,7 +26060,7 @@
       </c>
       <c r="I324" s="95"/>
     </row>
-    <row r="325" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="30"/>
       <c r="C325" s="32" t="s">
         <v>124</v>
@@ -26180,24 +26182,24 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.90625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="44.88671875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="28" customWidth="1"/>
     <col min="6" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="28"/>
+    <col min="7" max="7" width="13.6640625" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="80" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="98" t="s">
         <v>208</v>
       </c>
@@ -26238,7 +26240,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="74" t="s">
         <v>286</v>
@@ -26259,7 +26261,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="85" t="s">
         <v>283</v>
       </c>
@@ -26352,12 +26354,12 @@
       <c r="F10" s="74"/>
       <c r="G10" s="74"/>
     </row>
-    <row r="11" spans="1:7" s="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="80" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="85"/>
       <c r="B12" s="46" t="s">
         <v>182</v>
@@ -26378,16 +26380,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="85"/>
       <c r="B13" s="46"/>
     </row>
-    <row r="14" spans="1:7" s="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="80" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="98" t="s">
         <v>282</v>
       </c>
@@ -26410,7 +26412,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="74" t="s">
         <v>291</v>
@@ -26431,7 +26433,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="98" t="s">
         <v>105</v>
       </c>
@@ -26455,12 +26457,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" s="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="80" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="85" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="85" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="44" t="s">
         <v>68</v>
       </c>
@@ -26491,12 +26493,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="108" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="80" t="s">
         <v>313</v>
       </c>
@@ -26507,7 +26509,7 @@
       <c r="F24" s="81"/>
       <c r="G24" s="81"/>
     </row>
-    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="98" t="s">
         <v>208</v>
       </c>
@@ -26552,7 +26554,7 @@
         <v>157.22999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="74" t="s">
         <v>287</v>
@@ -26578,7 +26580,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="85" t="s">
         <v>284</v>
       </c>
@@ -26691,7 +26693,7 @@
       <c r="F33" s="74"/>
       <c r="G33" s="74"/>
     </row>
-    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="80" t="s">
         <v>308</v>
       </c>
@@ -26702,7 +26704,7 @@
       <c r="F34" s="81"/>
       <c r="G34" s="81"/>
     </row>
-    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="85"/>
       <c r="B35" s="46" t="s">
         <v>303</v>
@@ -26725,11 +26727,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="85"/>
       <c r="B36" s="46"/>
     </row>
-    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="80" t="s">
         <v>314</v>
       </c>
@@ -26740,7 +26742,7 @@
       <c r="F37" s="81"/>
       <c r="G37" s="81"/>
     </row>
-    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="98" t="s">
         <v>282</v>
       </c>
@@ -26768,7 +26770,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
       <c r="B39" s="74" t="s">
         <v>292</v>
@@ -26794,7 +26796,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="98" t="s">
         <v>105</v>
       </c>
@@ -26822,7 +26824,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="80" t="s">
         <v>311</v>
       </c>
@@ -26833,7 +26835,7 @@
       <c r="F42" s="81"/>
       <c r="G42" s="81"/>
     </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="85"/>
       <c r="B43" s="85"/>
       <c r="C43" s="44" t="s">
@@ -26871,12 +26873,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="108" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="80" t="s">
         <v>313</v>
       </c>
@@ -26887,7 +26889,7 @@
       <c r="F47" s="81"/>
       <c r="G47" s="81"/>
     </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="98" t="s">
         <v>208</v>
       </c>
@@ -26932,7 +26934,7 @@
         <v>183.435</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
       <c r="B50" s="74" t="s">
         <v>288</v>
@@ -26958,7 +26960,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="85" t="s">
         <v>285</v>
       </c>
@@ -27071,7 +27073,7 @@
       <c r="F56" s="74"/>
       <c r="G56" s="74"/>
     </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="80" t="s">
         <v>309</v>
       </c>
@@ -27082,7 +27084,7 @@
       <c r="F57" s="81"/>
       <c r="G57" s="81"/>
     </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="85"/>
       <c r="B58" s="46" t="s">
         <v>304</v>
@@ -27105,11 +27107,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="85"/>
       <c r="B59" s="46"/>
     </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="80" t="s">
         <v>314</v>
       </c>
@@ -27120,7 +27122,7 @@
       <c r="F60" s="81"/>
       <c r="G60" s="81"/>
     </row>
-    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="98" t="s">
         <v>282</v>
       </c>
@@ -27148,7 +27150,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="74" t="s">
         <v>293</v>
@@ -27174,7 +27176,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="98" t="s">
         <v>105</v>
       </c>
@@ -27202,7 +27204,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="80" t="s">
         <v>312</v>
       </c>
@@ -27213,7 +27215,7 @@
       <c r="F65" s="81"/>
       <c r="G65" s="81"/>
     </row>
-    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="85"/>
       <c r="B66" s="85"/>
       <c r="C66" s="44" t="s">
@@ -27273,16 +27275,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="28" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="28"/>
-    <col min="7" max="7" width="17.1796875" style="28" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="28"/>
+    <col min="1" max="1" width="52.21875" style="28" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="28"/>
+    <col min="7" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="16.109375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>163</v>
       </c>
@@ -27528,12 +27530,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="108" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="108" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="108" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>163</v>
       </c>
@@ -27827,12 +27829,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="108" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="108" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="108" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>163</v>
       </c>
@@ -28147,15 +28149,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="28" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="28"/>
+    <col min="16" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="84" t="s">
@@ -28198,7 +28200,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>326</v>
       </c>
@@ -28643,7 +28645,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46" t="s">
         <v>190</v>
       </c>
@@ -28775,7 +28777,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>323</v>
       </c>
@@ -28957,12 +28959,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="108" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="52" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="84" t="s">
@@ -29005,7 +29007,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>327</v>
       </c>
@@ -29751,7 +29753,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>324</v>
       </c>
@@ -29985,12 +29987,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="108" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="52" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="84" t="s">
@@ -30033,7 +30035,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>328</v>
       </c>
@@ -30779,7 +30781,7 @@
         <v>0.34650000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>325</v>
       </c>
@@ -31034,15 +31036,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="28" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="28"/>
+    <col min="1" max="1" width="21.33203125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="28" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="42"/>
       <c r="C1" s="30" t="s">
@@ -31061,7 +31063,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>333</v>
       </c>
@@ -31086,7 +31088,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>330</v>
       </c>
@@ -31117,12 +31119,12 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="108" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="42"/>
       <c r="C8" s="30" t="s">
@@ -31141,7 +31143,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>334</v>
       </c>
@@ -31171,7 +31173,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>331</v>
       </c>
@@ -31207,12 +31209,12 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="108" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="42"/>
       <c r="C15" s="30" t="s">
@@ -31231,7 +31233,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>335</v>
       </c>
@@ -31261,7 +31263,7 @@
         <v>0.2205</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>332</v>
       </c>
@@ -31318,20 +31320,20 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="40" customWidth="1"/>
     <col min="4" max="4" width="15" style="28" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="28"/>
-    <col min="8" max="8" width="17.54296875" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="28"/>
+    <col min="5" max="5" width="13.6640625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="28"/>
+    <col min="8" max="8" width="17.5546875" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>163</v>
       </c>
@@ -32514,14 +32516,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="109" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="109" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="112" t="s">
         <v>329</v>
       </c>
       <c r="B55" s="113"/>
       <c r="C55" s="113"/>
     </row>
-    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>163</v>
       </c>
@@ -33964,14 +33966,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="109" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="109" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="112" t="s">
         <v>336</v>
       </c>
       <c r="B110" s="113"/>
       <c r="C110" s="113"/>
     </row>
-    <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
         <v>163</v>
       </c>
@@ -35435,16 +35437,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="28" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="28"/>
+    <col min="2" max="2" width="27.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="28" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>163</v>
       </c>
@@ -35592,12 +35594,12 @@
       </c>
       <c r="H7" s="32"/>
     </row>
-    <row r="9" spans="1:8" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="108" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>163</v>
       </c>
@@ -35762,12 +35764,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="108" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>163</v>
       </c>
@@ -35952,14 +35954,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Porcentaje de muertes en el año de referencia ("&amp;start_year&amp;") atribuible a la causa"</f>
         <v>Porcentaje de muertes en el año de referencia (2017) atribuible a la causa</v>
@@ -35970,7 +35972,7 @@
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -36053,7 +36055,7 @@
       <c r="B11" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="117">
+      <c r="C11" s="116">
         <f>SUM(C3:C10)</f>
         <v>1</v>
       </c>
@@ -36069,7 +36071,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>83</v>
       </c>
@@ -36247,19 +36249,19 @@
       <c r="B23" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="117">
+      <c r="C23" s="116">
         <f>SUM(C14:C22)</f>
         <v>1</v>
       </c>
-      <c r="D23" s="117">
+      <c r="D23" s="116">
         <f t="shared" ref="D23:F23" si="0">SUM(D14:D22)</f>
         <v>1</v>
       </c>
-      <c r="E23" s="117">
+      <c r="E23" s="116">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F23" s="117">
+      <c r="F23" s="116">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -36275,7 +36277,7 @@
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -36367,7 +36369,7 @@
       <c r="B35" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="117">
+      <c r="C35" s="116">
         <f>SUM(C26:C34)</f>
         <v>1</v>
       </c>
@@ -36391,13 +36393,13 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Porcentaje de población en cada categoría en el año de referencia ("&amp;start_year&amp;")"</f>
         <v>Porcentaje de población en cada categoría en el año de referencia (2017)</v>
@@ -36537,7 +36539,7 @@
       <c r="B8" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="118">
+      <c r="C8" s="117">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.6241955901533508</v>
       </c>
@@ -36815,13 +36817,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Porcentaje de niños en cada categoría en el año de referencia ("&amp;start_year&amp;")"</f>
         <v>Porcentaje de niños en cada categoría en el año de referencia (2017)</v>
@@ -36861,7 +36863,7 @@
       <c r="E2" s="61">
         <v>1.36244579358196E-2</v>
       </c>
-      <c r="F2" s="119">
+      <c r="F2" s="23">
         <v>0</v>
       </c>
       <c r="G2" s="61">
@@ -36951,13 +36953,13 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>135</v>
       </c>
@@ -37155,13 +37157,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>147</v>
       </c>
@@ -37234,15 +37236,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="28" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="19.109375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>154</v>
       </c>
@@ -37259,7 +37261,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>151</v>
       </c>
@@ -37277,8 +37279,8 @@
       <c r="B3" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="64" t="b">
-        <v>1</v>
+      <c r="C3" s="64" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="64"/>
       <c r="E3" s="45" t="str">
@@ -37290,8 +37292,8 @@
       <c r="B4" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="64" t="b">
-        <v>1</v>
+      <c r="C4" s="64" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="64"/>
       <c r="E4" s="45" t="str">
@@ -37303,8 +37305,8 @@
       <c r="B5" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="64" t="b">
-        <v>1</v>
+      <c r="C5" s="64" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="64"/>
       <c r="E5" s="45" t="str">
@@ -37316,8 +37318,8 @@
       <c r="B6" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="64" t="b">
-        <v>1</v>
+      <c r="C6" s="64" t="s">
+        <v>5</v>
       </c>
       <c r="D6" s="64"/>
       <c r="E6" s="45" t="str">
@@ -37333,7 +37335,7 @@
       <c r="D7" s="33"/>
       <c r="E7" s="64"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>152</v>
       </c>
@@ -37341,9 +37343,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="64"/>
-      <c r="D9" s="64" t="b">
-        <v>0</v>
-      </c>
+      <c r="D9" s="64"/>
       <c r="E9" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37354,7 +37354,9 @@
         <v>78</v>
       </c>
       <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
+      <c r="D10" s="64" t="s">
+        <v>5</v>
+      </c>
       <c r="E10" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37365,7 +37367,9 @@
         <v>74</v>
       </c>
       <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
+      <c r="D11" s="64" t="s">
+        <v>5</v>
+      </c>
       <c r="E11" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37376,7 +37380,9 @@
         <v>77</v>
       </c>
       <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
+      <c r="D12" s="64" t="s">
+        <v>5</v>
+      </c>
       <c r="E12" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37387,7 +37393,9 @@
         <v>75</v>
       </c>
       <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
+      <c r="D13" s="64" t="s">
+        <v>5</v>
+      </c>
       <c r="E13" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37399,11 +37407,9 @@
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E14" s="64"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>153</v>
       </c>
@@ -37411,9 +37417,7 @@
         <v>104</v>
       </c>
       <c r="C16" s="64"/>
-      <c r="D16" s="64" t="s">
-        <v>5</v>
-      </c>
+      <c r="D16" s="64"/>
       <c r="E16" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37450,9 +37454,7 @@
         <v>77</v>
       </c>
       <c r="C19" s="64"/>
-      <c r="D19" s="64" t="s">
-        <v>5</v>
-      </c>
+      <c r="D19" s="64"/>
       <c r="E19" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37463,9 +37465,7 @@
         <v>75</v>
       </c>
       <c r="C20" s="64"/>
-      <c r="D20" s="64" t="s">
-        <v>5</v>
-      </c>
+      <c r="D20" s="64"/>
       <c r="E20" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37497,15 +37497,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>4</v>
       </c>
@@ -37519,7 +37519,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>163</v>
       </c>
@@ -37531,7 +37531,7 @@
       </c>
       <c r="D2" s="64"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>160</v>
       </c>

--- a/inputs/es/demo_region2_input.xlsx
+++ b/inputs/es/demo_region2_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\es\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\es\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BF52D9-F40E-4450-A7A9-9872C24F6246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98340A70-BB0B-4D51-8240-45DDCEB9E825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entradas de población-año base" sheetId="1" r:id="rId1"/>
@@ -5112,7 +5112,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -6537,7 +6537,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -16754,12 +16754,36 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VYDq6AFxA4hzcHmtFBATaTDPC+TXznzTACY/V1QwKY9FOOloTFWfivfwlnc+EvDa0UzcN9wuKruxzOLx6BQLaw==" saltValue="CPu3gA0jo/LN2k3Jsy62bg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -16769,36 +16793,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -31316,8 +31316,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31376,13 +31376,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="106">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="G2" s="106">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="H2" s="106">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -31396,13 +31396,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="106">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="G3" s="106">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="H3" s="106">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -31729,7 +31729,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="106">
-        <v>0.33500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="106">
         <v>0.62</v>
@@ -31772,7 +31772,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="106">
-        <v>0.33500000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G20" s="106">
         <v>0.62</v>
@@ -31792,13 +31792,13 @@
         <v>337</v>
       </c>
       <c r="D21" s="106">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E21" s="106">
         <v>0</v>
       </c>
       <c r="F21" s="106">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G21" s="106">
         <v>0</v>
@@ -31818,7 +31818,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="106">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22" s="106">
         <v>0</v>
@@ -31838,13 +31838,13 @@
         <v>337</v>
       </c>
       <c r="D23" s="106">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E23" s="106">
         <v>0</v>
       </c>
       <c r="F23" s="106">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G23" s="106">
         <v>0</v>
@@ -31864,7 +31864,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="106">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G24" s="106">
         <v>0</v>
@@ -31884,13 +31884,13 @@
         <v>337</v>
       </c>
       <c r="D25" s="106">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E25" s="106">
         <v>0</v>
       </c>
       <c r="F25" s="106">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" s="106">
         <v>0</v>
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="106">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G26" s="106">
         <v>0</v>
@@ -31936,7 +31936,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="106">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G27" s="106">
         <v>1</v>
@@ -31956,7 +31956,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="106">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="106">
         <v>0</v>
@@ -31976,7 +31976,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="106">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G29" s="106">
         <v>0</v>
@@ -32002,7 +32002,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="106">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G30" s="106">
         <v>1</v>
@@ -32022,7 +32022,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="106">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G31" s="106">
         <v>0</v>
@@ -32042,7 +32042,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="106">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G32" s="106">
         <v>0</v>
@@ -32068,7 +32068,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="106">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G33" s="106">
         <v>1</v>
@@ -32088,7 +32088,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="106">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G34" s="106">
         <v>0</v>
@@ -32108,7 +32108,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="106">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="106">
         <v>0</v>
@@ -32134,7 +32134,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="106">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G36" s="106">
         <v>1</v>
@@ -32154,7 +32154,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="106">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G37" s="106">
         <v>0</v>
@@ -32174,7 +32174,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="106">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G38" s="106">
         <v>0</v>
@@ -32200,7 +32200,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="106">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G39" s="106">
         <v>1</v>
@@ -32220,7 +32220,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="106">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G40" s="106">
         <v>0</v>
@@ -32240,7 +32240,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="106">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G41" s="106">
         <v>0</v>
@@ -32266,7 +32266,7 @@
         <v>0.3</v>
       </c>
       <c r="F42" s="106">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G42" s="106">
         <v>0.3</v>
@@ -32286,7 +32286,7 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="106">
-        <v>0.33500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="106">
         <v>0.5</v>
@@ -32306,7 +32306,7 @@
         <v>0.65</v>
       </c>
       <c r="F44" s="106">
-        <v>0.33500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G44" s="106">
         <v>0.65</v>
@@ -32329,7 +32329,7 @@
         <v>0.3</v>
       </c>
       <c r="F45" s="106">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G45" s="106">
         <v>0.3</v>
@@ -32349,7 +32349,7 @@
         <v>0.49</v>
       </c>
       <c r="F46" s="106">
-        <v>0.33500000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="G46" s="106">
         <v>0.49</v>
@@ -32369,7 +32369,7 @@
         <v>0.52</v>
       </c>
       <c r="F47" s="106">
-        <v>0.33500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="G47" s="106">
         <v>0.52</v>
@@ -32395,7 +32395,7 @@
         <v>0.88</v>
       </c>
       <c r="F48" s="106">
-        <v>0.33500000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="106">
         <v>0.88</v>
@@ -32409,19 +32409,19 @@
         <v>339</v>
       </c>
       <c r="D49" s="106">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="E49" s="106">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="F49" s="106">
-        <v>0.33500000000000002</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="G49" s="106">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="H49" s="106">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -32435,19 +32435,19 @@
         <v>337</v>
       </c>
       <c r="D50" s="106">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="E50" s="106">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="F50" s="106">
-        <v>0.33500000000000002</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="G50" s="106">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="H50" s="106">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -32461,7 +32461,7 @@
         <v>0.86</v>
       </c>
       <c r="F51" s="106">
-        <v>0.33500000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G51" s="106">
         <v>0.86</v>
@@ -32487,7 +32487,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F52" s="106">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="106">
         <v>0</v>
@@ -32507,7 +32507,7 @@
         <v>0.51</v>
       </c>
       <c r="F53" s="106">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G53" s="106">
         <v>0</v>
@@ -32569,15 +32569,15 @@
       </c>
       <c r="F57" s="106">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="G57" s="106">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="H57" s="106">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -32594,15 +32594,15 @@
       </c>
       <c r="F58" s="106">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G58" s="106">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="H58" s="106">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -33002,7 +33002,7 @@
       </c>
       <c r="F73" s="106">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G73" s="106">
         <f t="shared" si="5"/>
@@ -33055,7 +33055,7 @@
       </c>
       <c r="F75" s="106">
         <f t="shared" si="7"/>
-        <v>0.30150000000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G75" s="106">
         <f t="shared" si="7"/>
@@ -33078,7 +33078,7 @@
       </c>
       <c r="D76" s="106">
         <f t="shared" ref="D76:H76" si="8">D21*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E76" s="106">
         <f t="shared" si="8"/>
@@ -33086,7 +33086,7 @@
       </c>
       <c r="F76" s="106">
         <f t="shared" si="8"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G76" s="106">
         <f t="shared" si="8"/>
@@ -33111,7 +33111,7 @@
       </c>
       <c r="F77" s="106">
         <f t="shared" si="9"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G77" s="106">
         <f t="shared" si="9"/>
@@ -33134,7 +33134,7 @@
       </c>
       <c r="D78" s="106">
         <f t="shared" ref="D78:H78" si="10">D23*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E78" s="106">
         <f t="shared" si="10"/>
@@ -33142,7 +33142,7 @@
       </c>
       <c r="F78" s="106">
         <f t="shared" si="10"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G78" s="106">
         <f t="shared" si="10"/>
@@ -33167,7 +33167,7 @@
       </c>
       <c r="F79" s="106">
         <f t="shared" si="11"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G79" s="106">
         <f t="shared" si="11"/>
@@ -33190,7 +33190,7 @@
       </c>
       <c r="D80" s="106">
         <f t="shared" ref="D80:H80" si="12">D25*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E80" s="106">
         <f t="shared" si="12"/>
@@ -33198,7 +33198,7 @@
       </c>
       <c r="F80" s="106">
         <f t="shared" si="12"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G80" s="106">
         <f t="shared" si="12"/>
@@ -33223,7 +33223,7 @@
       </c>
       <c r="F81" s="106">
         <f t="shared" si="13"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G81" s="106">
         <f t="shared" si="13"/>
@@ -33254,7 +33254,7 @@
       </c>
       <c r="F82" s="106">
         <f t="shared" si="14"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G82" s="106">
         <f t="shared" si="14"/>
@@ -33279,7 +33279,7 @@
       </c>
       <c r="F83" s="106">
         <f t="shared" si="15"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G83" s="106">
         <f t="shared" si="15"/>
@@ -33304,7 +33304,7 @@
       </c>
       <c r="F84" s="106">
         <f t="shared" si="16"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G84" s="106">
         <f t="shared" si="16"/>
@@ -33335,7 +33335,7 @@
       </c>
       <c r="F85" s="106">
         <f t="shared" si="17"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G85" s="106">
         <f t="shared" si="17"/>
@@ -33360,7 +33360,7 @@
       </c>
       <c r="F86" s="106">
         <f t="shared" si="18"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G86" s="106">
         <f t="shared" si="18"/>
@@ -33385,7 +33385,7 @@
       </c>
       <c r="F87" s="106">
         <f t="shared" si="19"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G87" s="106">
         <f t="shared" si="19"/>
@@ -33416,7 +33416,7 @@
       </c>
       <c r="F88" s="106">
         <f t="shared" si="20"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G88" s="106">
         <f t="shared" si="20"/>
@@ -33441,7 +33441,7 @@
       </c>
       <c r="F89" s="106">
         <f t="shared" si="21"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G89" s="106">
         <f t="shared" si="21"/>
@@ -33466,7 +33466,7 @@
       </c>
       <c r="F90" s="106">
         <f t="shared" si="22"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G90" s="106">
         <f t="shared" si="22"/>
@@ -33497,7 +33497,7 @@
       </c>
       <c r="F91" s="106">
         <f t="shared" si="23"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G91" s="106">
         <f t="shared" si="23"/>
@@ -33522,7 +33522,7 @@
       </c>
       <c r="F92" s="106">
         <f t="shared" si="24"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G92" s="106">
         <f t="shared" si="24"/>
@@ -33547,7 +33547,7 @@
       </c>
       <c r="F93" s="106">
         <f t="shared" si="25"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G93" s="106">
         <f t="shared" si="25"/>
@@ -33578,7 +33578,7 @@
       </c>
       <c r="F94" s="106">
         <f t="shared" si="26"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G94" s="106">
         <f t="shared" si="26"/>
@@ -33603,7 +33603,7 @@
       </c>
       <c r="F95" s="106">
         <f t="shared" si="27"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G95" s="106">
         <f t="shared" si="27"/>
@@ -33628,7 +33628,7 @@
       </c>
       <c r="F96" s="106">
         <f t="shared" si="28"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G96" s="106">
         <f t="shared" si="28"/>
@@ -33659,7 +33659,7 @@
       </c>
       <c r="F97" s="106">
         <f t="shared" si="29"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G97" s="106">
         <f t="shared" si="29"/>
@@ -33684,7 +33684,7 @@
       </c>
       <c r="F98" s="106">
         <f t="shared" si="30"/>
-        <v>0.30150000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="G98" s="106">
         <f t="shared" si="30"/>
@@ -33709,7 +33709,7 @@
       </c>
       <c r="F99" s="106">
         <f t="shared" si="31"/>
-        <v>0.30150000000000005</v>
+        <v>0.58500000000000008</v>
       </c>
       <c r="G99" s="106">
         <f t="shared" si="31"/>
@@ -33737,7 +33737,7 @@
       </c>
       <c r="F100" s="106">
         <f t="shared" si="32"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G100" s="106">
         <f t="shared" si="32"/>
@@ -33762,7 +33762,7 @@
       </c>
       <c r="F101" s="106">
         <f t="shared" si="33"/>
-        <v>0.30150000000000005</v>
+        <v>0.441</v>
       </c>
       <c r="G101" s="106">
         <f t="shared" si="33"/>
@@ -33787,7 +33787,7 @@
       </c>
       <c r="F102" s="106">
         <f t="shared" si="34"/>
-        <v>0.30150000000000005</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G102" s="106">
         <f t="shared" si="34"/>
@@ -33818,7 +33818,7 @@
       </c>
       <c r="F103" s="106">
         <f t="shared" si="35"/>
-        <v>0.30150000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G103" s="106">
         <f t="shared" si="35"/>
@@ -33835,23 +33835,23 @@
       </c>
       <c r="D104" s="106">
         <f t="shared" ref="D104:H104" si="36">D49*0.9</f>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="E104" s="106">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="F104" s="106">
         <f t="shared" si="36"/>
-        <v>0.30150000000000005</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="G104" s="106">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="H104" s="106">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -33866,23 +33866,23 @@
       </c>
       <c r="D105" s="106">
         <f t="shared" ref="D105:H105" si="37">D50*0.9</f>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="E105" s="106">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="F105" s="106">
         <f t="shared" si="37"/>
-        <v>0.30150000000000005</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="G105" s="106">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="H105" s="106">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -33899,7 +33899,7 @@
       </c>
       <c r="F106" s="106">
         <f t="shared" si="38"/>
-        <v>0.30150000000000005</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="G106" s="106">
         <f t="shared" si="38"/>
@@ -33930,7 +33930,7 @@
       </c>
       <c r="F107" s="106">
         <f t="shared" si="39"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G107" s="106">
         <f t="shared" si="39"/>
@@ -33955,7 +33955,7 @@
       </c>
       <c r="F108" s="106">
         <f t="shared" si="40"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G108" s="106">
         <f t="shared" si="40"/>
@@ -34019,15 +34019,15 @@
       </c>
       <c r="F112" s="106">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="G112" s="106">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="H112" s="106">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -34044,15 +34044,15 @@
       </c>
       <c r="F113" s="106">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="G113" s="106">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="H113" s="106">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -34452,7 +34452,7 @@
       </c>
       <c r="F128" s="106">
         <f t="shared" si="46"/>
-        <v>0.35175000000000006</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G128" s="106">
         <f t="shared" si="46"/>
@@ -34505,7 +34505,7 @@
       </c>
       <c r="F130" s="106">
         <f t="shared" si="48"/>
-        <v>0.35175000000000006</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="G130" s="106">
         <f t="shared" si="48"/>
@@ -34528,7 +34528,7 @@
       </c>
       <c r="D131" s="106">
         <f t="shared" ref="D131:H131" si="49">D21*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E131" s="106">
         <f t="shared" si="49"/>
@@ -34536,7 +34536,7 @@
       </c>
       <c r="F131" s="106">
         <f t="shared" si="49"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G131" s="106">
         <f t="shared" si="49"/>
@@ -34561,7 +34561,7 @@
       </c>
       <c r="F132" s="106">
         <f t="shared" si="50"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G132" s="106">
         <f t="shared" si="50"/>
@@ -34584,7 +34584,7 @@
       </c>
       <c r="D133" s="106">
         <f t="shared" ref="D133:H133" si="51">D23*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E133" s="106">
         <f t="shared" si="51"/>
@@ -34592,7 +34592,7 @@
       </c>
       <c r="F133" s="106">
         <f t="shared" si="51"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G133" s="106">
         <f t="shared" si="51"/>
@@ -34617,7 +34617,7 @@
       </c>
       <c r="F134" s="106">
         <f t="shared" si="52"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G134" s="106">
         <f t="shared" si="52"/>
@@ -34640,7 +34640,7 @@
       </c>
       <c r="D135" s="106">
         <f t="shared" ref="D135:H135" si="53">D25*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E135" s="106">
         <f t="shared" si="53"/>
@@ -34648,7 +34648,7 @@
       </c>
       <c r="F135" s="106">
         <f t="shared" si="53"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G135" s="106">
         <f t="shared" si="53"/>
@@ -34673,7 +34673,7 @@
       </c>
       <c r="F136" s="106">
         <f t="shared" si="54"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G136" s="106">
         <f t="shared" si="54"/>
@@ -34704,7 +34704,7 @@
       </c>
       <c r="F137" s="106">
         <f t="shared" si="55"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G137" s="106">
         <f t="shared" si="55"/>
@@ -34729,7 +34729,7 @@
       </c>
       <c r="F138" s="106">
         <f t="shared" si="56"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G138" s="106">
         <f t="shared" si="56"/>
@@ -34754,7 +34754,7 @@
       </c>
       <c r="F139" s="106">
         <f t="shared" si="57"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G139" s="106">
         <f t="shared" si="57"/>
@@ -34785,7 +34785,7 @@
       </c>
       <c r="F140" s="106">
         <f t="shared" si="58"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G140" s="106">
         <f t="shared" si="58"/>
@@ -34810,7 +34810,7 @@
       </c>
       <c r="F141" s="106">
         <f t="shared" si="59"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G141" s="106">
         <f t="shared" si="59"/>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="F142" s="106">
         <f t="shared" si="60"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G142" s="106">
         <f t="shared" si="60"/>
@@ -34866,7 +34866,7 @@
       </c>
       <c r="F143" s="106">
         <f t="shared" si="61"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G143" s="106">
         <f t="shared" si="61"/>
@@ -34891,7 +34891,7 @@
       </c>
       <c r="F144" s="106">
         <f t="shared" si="62"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G144" s="106">
         <f t="shared" si="62"/>
@@ -34916,7 +34916,7 @@
       </c>
       <c r="F145" s="106">
         <f t="shared" si="63"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G145" s="106">
         <f t="shared" si="63"/>
@@ -34947,7 +34947,7 @@
       </c>
       <c r="F146" s="106">
         <f t="shared" si="64"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G146" s="106">
         <f t="shared" si="64"/>
@@ -34972,7 +34972,7 @@
       </c>
       <c r="F147" s="106">
         <f t="shared" si="65"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G147" s="106">
         <f t="shared" si="65"/>
@@ -34997,7 +34997,7 @@
       </c>
       <c r="F148" s="106">
         <f t="shared" si="66"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G148" s="106">
         <f t="shared" si="66"/>
@@ -35028,7 +35028,7 @@
       </c>
       <c r="F149" s="106">
         <f t="shared" si="67"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G149" s="106">
         <f t="shared" si="67"/>
@@ -35053,7 +35053,7 @@
       </c>
       <c r="F150" s="106">
         <f t="shared" si="68"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G150" s="106">
         <f t="shared" si="68"/>
@@ -35078,7 +35078,7 @@
       </c>
       <c r="F151" s="106">
         <f t="shared" si="69"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G151" s="106">
         <f t="shared" si="69"/>
@@ -35109,7 +35109,7 @@
       </c>
       <c r="F152" s="106">
         <f t="shared" si="70"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G152" s="106">
         <f t="shared" si="70"/>
@@ -35134,7 +35134,7 @@
       </c>
       <c r="F153" s="106">
         <f t="shared" si="71"/>
-        <v>0.35175000000000006</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G153" s="106">
         <f t="shared" si="71"/>
@@ -35159,7 +35159,7 @@
       </c>
       <c r="F154" s="106">
         <f t="shared" si="72"/>
-        <v>0.35175000000000006</v>
+        <v>0.68250000000000011</v>
       </c>
       <c r="G154" s="106">
         <f t="shared" si="72"/>
@@ -35187,7 +35187,7 @@
       </c>
       <c r="F155" s="106">
         <f t="shared" si="73"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G155" s="106">
         <f t="shared" si="73"/>
@@ -35212,7 +35212,7 @@
       </c>
       <c r="F156" s="106">
         <f t="shared" si="74"/>
-        <v>0.35175000000000006</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="G156" s="106">
         <f t="shared" si="74"/>
@@ -35237,7 +35237,7 @@
       </c>
       <c r="F157" s="106">
         <f t="shared" si="75"/>
-        <v>0.35175000000000006</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G157" s="106">
         <f t="shared" si="75"/>
@@ -35268,7 +35268,7 @@
       </c>
       <c r="F158" s="106">
         <f t="shared" si="76"/>
-        <v>0.35175000000000006</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G158" s="106">
         <f t="shared" si="76"/>
@@ -35285,23 +35285,23 @@
       </c>
       <c r="D159" s="106">
         <f t="shared" ref="D159:H159" si="77">D49*1.05</f>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="E159" s="106">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="F159" s="106">
         <f t="shared" si="77"/>
-        <v>0.35175000000000006</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="G159" s="106">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="H159" s="106">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -35316,23 +35316,23 @@
       </c>
       <c r="D160" s="106">
         <f t="shared" ref="D160:H160" si="78">D50*1.05</f>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="E160" s="106">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="F160" s="106">
         <f t="shared" si="78"/>
-        <v>0.35175000000000006</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="G160" s="106">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="H160" s="106">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -35349,7 +35349,7 @@
       </c>
       <c r="F161" s="106">
         <f t="shared" si="79"/>
-        <v>0.35175000000000006</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="G161" s="106">
         <f t="shared" si="79"/>
@@ -35380,7 +35380,7 @@
       </c>
       <c r="F162" s="106">
         <f t="shared" si="80"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G162" s="106">
         <f t="shared" si="80"/>
@@ -35405,7 +35405,7 @@
       </c>
       <c r="F163" s="106">
         <f t="shared" si="81"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G163" s="106">
         <f t="shared" si="81"/>

--- a/inputs/es/demo_region2_input.xlsx
+++ b/inputs/es/demo_region2_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\es\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE547EE7-0F40-4B2A-86EA-3E940411A659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{654B1CC4-A85C-46C7-A1E6-2EC3A936AD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="31920" windowHeight="14040" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="6840" windowWidth="31920" windowHeight="14040" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entradas de población-año base" sheetId="1" r:id="rId1"/>
@@ -590,7 +590,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="341">
   <si>
     <t>Meningitis</t>
   </si>
@@ -790,9 +790,6 @@
     <t>Estimación de mujeres embarazadas</t>
   </si>
   <si>
-    <t>Mujeres en edad reproductiva no embarazadas</t>
-  </si>
-  <si>
     <t>Número de nacimientos</t>
   </si>
   <si>
@@ -811,7 +808,10 @@
     <t>WRA: 40-49 años (mujeres en edad reproductiva)</t>
   </si>
   <si>
-    <t>Año</t>
+    <t>mujeres en edad reproductiva no embarazadas</t>
+  </si>
+  <si>
+    <t>año</t>
   </si>
   <si>
     <t>1-5 meses</t>
@@ -1225,6 +1225,9 @@
     <t>Población general</t>
   </si>
   <si>
+    <t>Mujeres en edad reproductiva no embarazadas</t>
+  </si>
+  <si>
     <t>Curva con costo marginal decreciente</t>
   </si>
   <si>
@@ -1552,7 +1555,10 @@
     <t>Suplementos nutricionales a base de lípidos en pequeñas cantidades - superior</t>
   </si>
   <si>
-    <t>Fracción afectada</t>
+    <t>fracción afectada</t>
+  </si>
+  <si>
+    <t>efectividad</t>
   </si>
   <si>
     <t>Razón de momios de ser anémico cuando está cubierto por la intervención</t>
@@ -1597,6 +1603,9 @@
     <t>Límite superior</t>
   </si>
   <si>
+    <t>Fracción afectada</t>
+  </si>
+  <si>
     <t>Efectividad en incidencia</t>
   </si>
   <si>
@@ -1617,7 +1626,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1787,12 +1796,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2655,7 +2658,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2926,9 +2929,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="725" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5574,7 +5574,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mR8P3lcF+07XSvnDtHlefNix4BAW0IyQpee5D0B+zOGTfst6bt8HyetKYEw8Rbz5/CHHibAepTMz7+1ghCdF6g==" saltValue="FfE5hULaTIdmEfXfZAAz6g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BaEayyV/HKtRkJEfjcOXKaXHulGdpGWTXu36kMt6hn6yEFfp13BZp8BnEbx/3qJxCKU8nGX5cKZtjzsWmRidqQ==" saltValue="fusTRXG1rbjsO/EvP+ueDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6503,7 +6503,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rZIkzWllcj64lFRYhhxqFDXTZwC9lzV/6wHr0KAZUMNniyItaKzrOBRxXmYectcWqoULn/g41BvHI4nlz9x/ww==" saltValue="OknW7tyinvgTYQAWt/71kA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="phQEDwHVDQvUoIPnhG5WWVWkaggVLW+Bxr/wEDxmOyQCtFcDjqzwpmka1TNzSN6XDREsWXIvE5roMO6b3feBxw==" saltValue="Iba4fFnLtuJ1RFmdJtsuBw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6667,7 +6667,7 @@
       <c r="C20" s="67"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+Bbg40FlgUB8AyllOJxRnDKpW8SYCWYy0aTWdmAlE0/IxR9HAkl7arxM+dvWmyEaWqupM9e2EU8iWqC89Q/HMw==" saltValue="j4kYKTZDjcvkVJBpGrpsvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dpmvQYG4qqkwTcQRVi/cYN+zvBT3ESHzAKgt3Nk1p4Cf2CRu1FXTPwS7Wpvt3rvVkn452JN+sVU81zyxMk14IQ==" saltValue="nDE0j7ijfo3IzHtBl3wkXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6767,7 +6767,7 @@
       <c r="A19" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4CVEg60NiQT323XGj+1rjGdeq9E07VjSV8O/0qB5ADr8MEop7KYKnDpXZDOd0W5sc7WU4bDT+HdVDW6JWkJNvQ==" saltValue="S/64q1GZlzcJZM9cm0xPWg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d57GO2PWfWs4ffM4Xxg9d5+zfSOsiXwsHsBB4V6NIOgiu+6DFnjzF+y2GC3HCROGLI6Fb+TTgtf3W4PC7jiVtw==" saltValue="IDgmHT5OHbskB8x5KFEZug==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6882,7 +6882,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="l9Xr6QuiiDT1sUD8BKb0nltAbAx90P439WG4W8o66AYg5JiC3GH0xVpTT3Tpf/ama9s5+k4zpVfJr2NE0ClpXg==" saltValue="6cBIOWG/IyG1/ys9yLPuSg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IawMynxdEUmMDr5853ybsAfjO7Jvil9QRCk+1nWpgAn+r/JtDwK4HEav+CWH1tnLPzf/jRCJcEcpYIlQkeWc4g==" saltValue="1M1a/X7VoxDuBwEbfoWuIA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6946,16 +6946,16 @@
         <v>116</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7902,7 +7902,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="B24" s="45" t="s">
         <v>170</v>
@@ -8643,7 +8643,7 @@
       <c r="B40" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g/ksp5Bw3/EKxVmwIxAt2tUKo58yEjAoPEQU1NTRowuu0vIqDoPL/1J/MzvEZD2qwkfT5EUWlJ6OTwygWrbkGQ==" saltValue="Cm6p/gs0DTHhikVudNsrHA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MUVRVyYj2cHGykGk05h7P8eRS/18arpMi+EGwhA/LW9VjAB8vgaDI3dbZ1WbfLnNvupVatkUaOODOngwgNYEhw==" saltValue="GOeQxqw/aYJdhCfsBPVaew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8669,21 +8669,21 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="p4lgT40rSQ5kuO55scitxaENY+SC4Z3UksqqfGqVqS7d5gujiYBrtCL4uiLXtspPsQZ4Aacde/50mBFDPpgjHw==" saltValue="/FkS/fDXvaLwvRhKGPvADw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GgtwHEC2hKpipNOaQEtDVdSk/KNVegYl7TeMiZp402YSJ+XcyWAfPBkEiSa0nWbdIEN4O5yB9jbrL91d4kDVbA==" saltValue="zG6dlf78EaH2Ipqwf2dj6g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8710,24 +8710,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>145</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B2" s="28">
         <v>0.9</v>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B3" s="28">
         <v>1</v>
@@ -8763,7 +8763,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B4" s="28">
         <v>1</v>
@@ -8781,7 +8781,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B5" s="28">
         <v>1</v>
@@ -8799,7 +8799,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B6" s="28">
         <v>1</v>
@@ -8817,7 +8817,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B7" s="28">
         <v>0.93</v>
@@ -8835,7 +8835,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B8" s="28">
         <v>0.5</v>
@@ -8853,7 +8853,7 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B9" s="28">
         <v>0.5</v>
@@ -8871,7 +8871,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B10" s="28">
         <v>0.98</v>
@@ -8888,7 +8888,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tid8kcuNSZ1TV4uyuZOr7V8oP2lAdfc+U+u1ZiKxBI+7h86tN/ZCMFUIQifam+sqJfPAnoMluJkTR7wsa2GNDw==" saltValue="P30GnE1lShTOKE/okj6FlQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Q2eXMaisZ/ciVN4eypwpLe4qTCPjj4A8D0rbz+Oe/wXVHygB/yDRw8Ts9qlY37ady6VE3nvr+PYiI7ZrB/nrXw==" saltValue="VheOyiYQl2wIaRa+klthtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -8954,16 +8954,16 @@
         <v>116</v>
       </c>
       <c r="L1" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="N1" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="O1" s="43" t="s">
         <v>71</v>
-      </c>
-      <c r="O1" s="43" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10019,7 +10019,7 @@
     </row>
     <row r="27" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>170</v>
@@ -10702,7 +10702,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="drBedkhyy7/JqPws9fE7EHkCOJWAn2WaQO8pLEk2PAxoh5CkPsVQwBO95HxQGvvKq1G0rSFBtzFnBueNvkam6g==" saltValue="h2mgdgWgiTPiuqdNUrKwRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qlRxucWgh+MO/pXQSzKplUBMZOLpO2KBwK4smR40tQbje+ABbr+sGiN1DfikeZdWYKmPQzZ/42r2PzVAHfM9ow==" saltValue="4LqwiopzfFa8+kEr8hxBNg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10738,16 +10738,16 @@
         <v>163</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>105</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>123</v>
@@ -10759,13 +10759,13 @@
         <v>37</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -11469,7 +11469,7 @@
       <c r="K39" s="101"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0ZrJ3h5//WJNxdPI4IEAqDtzsPa4em4v/cbubZxN7+agQQchzSVqn5ojCI2NLu4bJsSzVNlSc+T28RY3nwKJ7Q==" saltValue="Nl3F5EEcpUNG6OcVpOYMsQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rnGDNzz0cI8mqRJrw4jm5idlIxbw4spP+4Ea7jjoYENKLmhAL+NXuo6PtH+cEKy+q8LkIfGtO58NVjRa1LbqCg==" saltValue="THxS4Cvn+SbVJ2wJ6aTEjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11502,19 +11502,19 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>105</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>123</v>
@@ -11526,13 +11526,13 @@
         <v>37</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -11766,7 +11766,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="101"/>
       <c r="C11" s="101" t="s">
@@ -11787,7 +11787,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="101"/>
       <c r="C12" s="101" t="s">
@@ -11806,7 +11806,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="101"/>
       <c r="C13" s="101" t="s">
@@ -11825,7 +11825,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="101"/>
       <c r="C14" s="101" t="s">
@@ -11843,7 +11843,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g0GVC66YSPz8gForZPebGKODb9uE2zfb7Hzmb+Fa+IJvIDGo0mMTCqSavOdFs2Hjx2XzLrVqEiVdmx1zcgz0uQ==" saltValue="Lp79Q9FTTGSdFszVG9sTuA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0X6NxCIzGKfx3HKPLXvjhuWxRd1J4RuoPKw5lt/KJskj1h5U6zrIxbjCP/34pTqwpdAg+emMo5W6GMQa+joqoA==" saltValue="E44Vj0z6S9Dc4asx1flpCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11871,28 +11871,28 @@
         <v>73</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>65</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12932,7 +12932,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="t4AOs6Q9M2Ct5rAyK1c0w1CPV63AQUjti3RySL3N85GT7pv7e2VoJB7v+XBC8EF3vCu6YLoPos/Na8djJtqOFw==" saltValue="5AEopgUmWLIqRk6ywg2x7A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DmcNiEIYhMC7ps7ZscQPEw34WEDJe7qh8iJ6uEpmOSJUEkjOWNKV0lSJ+knbcvcPPo/xzRclltClDooYYqVPrA==" saltValue="FWp7ToR1+7ZwoTXeNW0taw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12964,7 +12964,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>156</v>
@@ -12990,9 +12990,9 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="27" t="s">
@@ -13015,7 +13015,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="118"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="27" t="s">
         <v>149</v>
       </c>
@@ -13037,7 +13037,7 @@
       <c r="J3" s="75"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="118"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="27" t="s">
         <v>155</v>
       </c>
@@ -13059,7 +13059,7 @@
       <c r="J4" s="75"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="27" t="s">
@@ -13083,7 +13083,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="118"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="27" t="s">
         <v>149</v>
       </c>
@@ -13104,7 +13104,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="118"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="27" t="s">
         <v>155</v>
       </c>
@@ -13125,7 +13125,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -13148,7 +13148,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="118"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="27" t="s">
         <v>149</v>
       </c>
@@ -13169,7 +13169,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="118"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="27" t="s">
         <v>155</v>
       </c>
@@ -13190,7 +13190,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -13213,7 +13213,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="118"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="27" t="s">
         <v>149</v>
       </c>
@@ -13234,7 +13234,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="118"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="27" t="s">
         <v>155</v>
       </c>
@@ -13255,7 +13255,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="118" t="s">
+      <c r="B14" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -13278,7 +13278,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="118"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="27" t="s">
         <v>149</v>
       </c>
@@ -13299,7 +13299,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="118"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="27" t="s">
         <v>155</v>
       </c>
@@ -13351,9 +13351,9 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="B19" s="118" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -13376,7 +13376,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="118"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="27" t="s">
         <v>149</v>
       </c>
@@ -13397,7 +13397,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="118"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="27" t="s">
         <v>155</v>
       </c>
@@ -13418,7 +13418,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C22" s="27" t="s">
@@ -13441,7 +13441,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="118"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="27" t="s">
         <v>149</v>
       </c>
@@ -13462,7 +13462,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="118"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="27" t="s">
         <v>155</v>
       </c>
@@ -13483,7 +13483,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="27" t="s">
@@ -13506,7 +13506,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="118"/>
+      <c r="B26" s="117"/>
       <c r="C26" s="27" t="s">
         <v>149</v>
       </c>
@@ -13527,7 +13527,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="118"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="27" t="s">
         <v>155</v>
       </c>
@@ -13548,7 +13548,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C28" s="27" t="s">
@@ -13571,7 +13571,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="118"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="27" t="s">
         <v>149</v>
       </c>
@@ -13592,7 +13592,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="118"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="27" t="s">
         <v>155</v>
       </c>
@@ -13613,7 +13613,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="118" t="s">
+      <c r="B31" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="27" t="s">
@@ -13636,7 +13636,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="118"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="27" t="s">
         <v>149</v>
       </c>
@@ -13657,7 +13657,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="118"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="27" t="s">
         <v>155</v>
       </c>
@@ -13709,9 +13709,9 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="77" t="s">
-        <v>238</v>
-      </c>
-      <c r="B36" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="B36" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C36" s="27" t="s">
@@ -13734,7 +13734,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="118"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="27" t="s">
         <v>149</v>
       </c>
@@ -13755,7 +13755,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="118"/>
+      <c r="B38" s="117"/>
       <c r="C38" s="27" t="s">
         <v>155</v>
       </c>
@@ -13776,7 +13776,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="118" t="s">
+      <c r="B39" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -13799,7 +13799,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="118"/>
+      <c r="B40" s="117"/>
       <c r="C40" s="27" t="s">
         <v>149</v>
       </c>
@@ -13820,7 +13820,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="118"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="27" t="s">
         <v>155</v>
       </c>
@@ -13841,7 +13841,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="118" t="s">
+      <c r="B42" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C42" s="27" t="s">
@@ -13864,7 +13864,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="118"/>
+      <c r="B43" s="117"/>
       <c r="C43" s="27" t="s">
         <v>149</v>
       </c>
@@ -13885,7 +13885,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="118"/>
+      <c r="B44" s="117"/>
       <c r="C44" s="27" t="s">
         <v>155</v>
       </c>
@@ -13906,7 +13906,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="118" t="s">
+      <c r="B45" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="27" t="s">
@@ -13929,7 +13929,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="118"/>
+      <c r="B46" s="117"/>
       <c r="C46" s="27" t="s">
         <v>149</v>
       </c>
@@ -13950,7 +13950,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="118"/>
+      <c r="B47" s="117"/>
       <c r="C47" s="27" t="s">
         <v>155</v>
       </c>
@@ -13971,7 +13971,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="118" t="s">
+      <c r="B48" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C48" s="27" t="s">
@@ -13994,7 +13994,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="118"/>
+      <c r="B49" s="117"/>
       <c r="C49" s="27" t="s">
         <v>149</v>
       </c>
@@ -14015,7 +14015,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="118"/>
+      <c r="B50" s="117"/>
       <c r="C50" s="27" t="s">
         <v>155</v>
       </c>
@@ -14060,7 +14060,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B53" s="106"/>
       <c r="C53" s="106"/>
@@ -14072,7 +14072,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B54" s="29" t="s">
         <v>156</v>
@@ -14098,9 +14098,9 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="B55" s="118" t="s">
+        <v>237</v>
+      </c>
+      <c r="B55" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C55" s="27" t="s">
@@ -14128,7 +14128,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="118"/>
+      <c r="B56" s="117"/>
       <c r="C56" s="27" t="s">
         <v>149</v>
       </c>
@@ -14154,7 +14154,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="118"/>
+      <c r="B57" s="117"/>
       <c r="C57" s="27" t="s">
         <v>155</v>
       </c>
@@ -14180,7 +14180,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="118" t="s">
+      <c r="B58" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C58" s="27" t="s">
@@ -14208,7 +14208,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="118"/>
+      <c r="B59" s="117"/>
       <c r="C59" s="27" t="s">
         <v>149</v>
       </c>
@@ -14234,7 +14234,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="118"/>
+      <c r="B60" s="117"/>
       <c r="C60" s="27" t="s">
         <v>155</v>
       </c>
@@ -14260,7 +14260,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="118" t="s">
+      <c r="B61" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="27" t="s">
@@ -14288,7 +14288,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="118"/>
+      <c r="B62" s="117"/>
       <c r="C62" s="27" t="s">
         <v>149</v>
       </c>
@@ -14314,7 +14314,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="118"/>
+      <c r="B63" s="117"/>
       <c r="C63" s="27" t="s">
         <v>155</v>
       </c>
@@ -14340,7 +14340,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="118" t="s">
+      <c r="B64" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="27" t="s">
@@ -14368,7 +14368,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="118"/>
+      <c r="B65" s="117"/>
       <c r="C65" s="27" t="s">
         <v>149</v>
       </c>
@@ -14394,7 +14394,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="118"/>
+      <c r="B66" s="117"/>
       <c r="C66" s="27" t="s">
         <v>155</v>
       </c>
@@ -14420,7 +14420,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="118" t="s">
+      <c r="B67" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C67" s="27" t="s">
@@ -14448,7 +14448,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="118"/>
+      <c r="B68" s="117"/>
       <c r="C68" s="27" t="s">
         <v>149</v>
       </c>
@@ -14474,7 +14474,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="118"/>
+      <c r="B69" s="117"/>
       <c r="C69" s="27" t="s">
         <v>155</v>
       </c>
@@ -14536,9 +14536,9 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="B72" s="118" t="s">
+        <v>243</v>
+      </c>
+      <c r="B72" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C72" s="27" t="s">
@@ -14566,7 +14566,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B73" s="118"/>
+      <c r="B73" s="117"/>
       <c r="C73" s="27" t="s">
         <v>149</v>
       </c>
@@ -14592,7 +14592,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B74" s="118"/>
+      <c r="B74" s="117"/>
       <c r="C74" s="27" t="s">
         <v>155</v>
       </c>
@@ -14618,7 +14618,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="118" t="s">
+      <c r="B75" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C75" s="27" t="s">
@@ -14646,7 +14646,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="118"/>
+      <c r="B76" s="117"/>
       <c r="C76" s="27" t="s">
         <v>149</v>
       </c>
@@ -14672,7 +14672,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="118"/>
+      <c r="B77" s="117"/>
       <c r="C77" s="27" t="s">
         <v>155</v>
       </c>
@@ -14698,7 +14698,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B78" s="118" t="s">
+      <c r="B78" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C78" s="27" t="s">
@@ -14726,7 +14726,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B79" s="118"/>
+      <c r="B79" s="117"/>
       <c r="C79" s="27" t="s">
         <v>149</v>
       </c>
@@ -14752,7 +14752,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B80" s="118"/>
+      <c r="B80" s="117"/>
       <c r="C80" s="27" t="s">
         <v>155</v>
       </c>
@@ -14778,7 +14778,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="118" t="s">
+      <c r="B81" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C81" s="27" t="s">
@@ -14806,7 +14806,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B82" s="118"/>
+      <c r="B82" s="117"/>
       <c r="C82" s="27" t="s">
         <v>149</v>
       </c>
@@ -14832,7 +14832,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="118"/>
+      <c r="B83" s="117"/>
       <c r="C83" s="27" t="s">
         <v>155</v>
       </c>
@@ -14858,7 +14858,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B84" s="118" t="s">
+      <c r="B84" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C84" s="27" t="s">
@@ -14886,7 +14886,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="118"/>
+      <c r="B85" s="117"/>
       <c r="C85" s="27" t="s">
         <v>149</v>
       </c>
@@ -14912,7 +14912,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B86" s="118"/>
+      <c r="B86" s="117"/>
       <c r="C86" s="27" t="s">
         <v>155</v>
       </c>
@@ -14974,9 +14974,9 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="77" t="s">
-        <v>239</v>
-      </c>
-      <c r="B89" s="118" t="s">
+        <v>240</v>
+      </c>
+      <c r="B89" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C89" s="27" t="s">
@@ -15004,7 +15004,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B90" s="118"/>
+      <c r="B90" s="117"/>
       <c r="C90" s="27" t="s">
         <v>149</v>
       </c>
@@ -15030,7 +15030,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B91" s="118"/>
+      <c r="B91" s="117"/>
       <c r="C91" s="27" t="s">
         <v>155</v>
       </c>
@@ -15056,7 +15056,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B92" s="118" t="s">
+      <c r="B92" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C92" s="27" t="s">
@@ -15084,7 +15084,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B93" s="118"/>
+      <c r="B93" s="117"/>
       <c r="C93" s="27" t="s">
         <v>149</v>
       </c>
@@ -15110,7 +15110,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B94" s="118"/>
+      <c r="B94" s="117"/>
       <c r="C94" s="27" t="s">
         <v>155</v>
       </c>
@@ -15136,7 +15136,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B95" s="118" t="s">
+      <c r="B95" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C95" s="27" t="s">
@@ -15164,7 +15164,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B96" s="118"/>
+      <c r="B96" s="117"/>
       <c r="C96" s="27" t="s">
         <v>149</v>
       </c>
@@ -15190,7 +15190,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B97" s="118"/>
+      <c r="B97" s="117"/>
       <c r="C97" s="27" t="s">
         <v>155</v>
       </c>
@@ -15216,7 +15216,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B98" s="118" t="s">
+      <c r="B98" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C98" s="27" t="s">
@@ -15244,7 +15244,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B99" s="118"/>
+      <c r="B99" s="117"/>
       <c r="C99" s="27" t="s">
         <v>149</v>
       </c>
@@ -15270,7 +15270,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B100" s="118"/>
+      <c r="B100" s="117"/>
       <c r="C100" s="27" t="s">
         <v>155</v>
       </c>
@@ -15296,7 +15296,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B101" s="118" t="s">
+      <c r="B101" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C101" s="27" t="s">
@@ -15324,7 +15324,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B102" s="118"/>
+      <c r="B102" s="117"/>
       <c r="C102" s="27" t="s">
         <v>149</v>
       </c>
@@ -15350,7 +15350,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B103" s="118"/>
+      <c r="B103" s="117"/>
       <c r="C103" s="27" t="s">
         <v>155</v>
       </c>
@@ -15405,7 +15405,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B106" s="106"/>
       <c r="C106" s="106"/>
@@ -15417,7 +15417,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B107" s="29" t="s">
         <v>156</v>
@@ -15443,9 +15443,9 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="B108" s="118" t="s">
+        <v>238</v>
+      </c>
+      <c r="B108" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C108" s="27" t="s">
@@ -15473,7 +15473,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B109" s="118"/>
+      <c r="B109" s="117"/>
       <c r="C109" s="27" t="s">
         <v>149</v>
       </c>
@@ -15499,7 +15499,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B110" s="118"/>
+      <c r="B110" s="117"/>
       <c r="C110" s="27" t="s">
         <v>155</v>
       </c>
@@ -15525,7 +15525,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B111" s="118" t="s">
+      <c r="B111" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C111" s="27" t="s">
@@ -15553,7 +15553,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B112" s="118"/>
+      <c r="B112" s="117"/>
       <c r="C112" s="27" t="s">
         <v>149</v>
       </c>
@@ -15579,7 +15579,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B113" s="118"/>
+      <c r="B113" s="117"/>
       <c r="C113" s="27" t="s">
         <v>155</v>
       </c>
@@ -15605,7 +15605,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B114" s="118" t="s">
+      <c r="B114" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C114" s="27" t="s">
@@ -15633,7 +15633,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B115" s="118"/>
+      <c r="B115" s="117"/>
       <c r="C115" s="27" t="s">
         <v>149</v>
       </c>
@@ -15659,7 +15659,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B116" s="118"/>
+      <c r="B116" s="117"/>
       <c r="C116" s="27" t="s">
         <v>155</v>
       </c>
@@ -15685,7 +15685,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B117" s="118" t="s">
+      <c r="B117" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C117" s="27" t="s">
@@ -15713,7 +15713,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B118" s="118"/>
+      <c r="B118" s="117"/>
       <c r="C118" s="27" t="s">
         <v>149</v>
       </c>
@@ -15739,7 +15739,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B119" s="118"/>
+      <c r="B119" s="117"/>
       <c r="C119" s="27" t="s">
         <v>155</v>
       </c>
@@ -15765,7 +15765,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B120" s="118" t="s">
+      <c r="B120" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C120" s="27" t="s">
@@ -15793,7 +15793,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B121" s="118"/>
+      <c r="B121" s="117"/>
       <c r="C121" s="27" t="s">
         <v>149</v>
       </c>
@@ -15819,7 +15819,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B122" s="118"/>
+      <c r="B122" s="117"/>
       <c r="C122" s="27" t="s">
         <v>155</v>
       </c>
@@ -15881,9 +15881,9 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="B125" s="118" t="s">
+        <v>244</v>
+      </c>
+      <c r="B125" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C125" s="27" t="s">
@@ -15911,7 +15911,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B126" s="118"/>
+      <c r="B126" s="117"/>
       <c r="C126" s="27" t="s">
         <v>149</v>
       </c>
@@ -15937,7 +15937,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B127" s="118"/>
+      <c r="B127" s="117"/>
       <c r="C127" s="27" t="s">
         <v>155</v>
       </c>
@@ -15963,7 +15963,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B128" s="118" t="s">
+      <c r="B128" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C128" s="27" t="s">
@@ -15991,7 +15991,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B129" s="118"/>
+      <c r="B129" s="117"/>
       <c r="C129" s="27" t="s">
         <v>149</v>
       </c>
@@ -16017,7 +16017,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B130" s="118"/>
+      <c r="B130" s="117"/>
       <c r="C130" s="27" t="s">
         <v>155</v>
       </c>
@@ -16043,7 +16043,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B131" s="118" t="s">
+      <c r="B131" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C131" s="27" t="s">
@@ -16071,7 +16071,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B132" s="118"/>
+      <c r="B132" s="117"/>
       <c r="C132" s="27" t="s">
         <v>149</v>
       </c>
@@ -16097,7 +16097,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B133" s="118"/>
+      <c r="B133" s="117"/>
       <c r="C133" s="27" t="s">
         <v>155</v>
       </c>
@@ -16123,7 +16123,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B134" s="118" t="s">
+      <c r="B134" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C134" s="27" t="s">
@@ -16151,7 +16151,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B135" s="118"/>
+      <c r="B135" s="117"/>
       <c r="C135" s="27" t="s">
         <v>149</v>
       </c>
@@ -16177,7 +16177,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B136" s="118"/>
+      <c r="B136" s="117"/>
       <c r="C136" s="27" t="s">
         <v>155</v>
       </c>
@@ -16203,7 +16203,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B137" s="118" t="s">
+      <c r="B137" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C137" s="27" t="s">
@@ -16231,7 +16231,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B138" s="118"/>
+      <c r="B138" s="117"/>
       <c r="C138" s="27" t="s">
         <v>149</v>
       </c>
@@ -16257,7 +16257,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B139" s="118"/>
+      <c r="B139" s="117"/>
       <c r="C139" s="27" t="s">
         <v>155</v>
       </c>
@@ -16319,9 +16319,9 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="77" t="s">
-        <v>240</v>
-      </c>
-      <c r="B142" s="118" t="s">
+        <v>241</v>
+      </c>
+      <c r="B142" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C142" s="27" t="s">
@@ -16349,7 +16349,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B143" s="118"/>
+      <c r="B143" s="117"/>
       <c r="C143" s="27" t="s">
         <v>149</v>
       </c>
@@ -16375,7 +16375,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B144" s="118"/>
+      <c r="B144" s="117"/>
       <c r="C144" s="27" t="s">
         <v>155</v>
       </c>
@@ -16401,7 +16401,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B145" s="118" t="s">
+      <c r="B145" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C145" s="27" t="s">
@@ -16429,7 +16429,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B146" s="118"/>
+      <c r="B146" s="117"/>
       <c r="C146" s="27" t="s">
         <v>149</v>
       </c>
@@ -16455,7 +16455,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B147" s="118"/>
+      <c r="B147" s="117"/>
       <c r="C147" s="27" t="s">
         <v>155</v>
       </c>
@@ -16481,7 +16481,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B148" s="118" t="s">
+      <c r="B148" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C148" s="27" t="s">
@@ -16509,7 +16509,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B149" s="118"/>
+      <c r="B149" s="117"/>
       <c r="C149" s="27" t="s">
         <v>149</v>
       </c>
@@ -16535,7 +16535,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B150" s="118"/>
+      <c r="B150" s="117"/>
       <c r="C150" s="27" t="s">
         <v>155</v>
       </c>
@@ -16561,7 +16561,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B151" s="118" t="s">
+      <c r="B151" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C151" s="27" t="s">
@@ -16589,7 +16589,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B152" s="118"/>
+      <c r="B152" s="117"/>
       <c r="C152" s="27" t="s">
         <v>149</v>
       </c>
@@ -16615,7 +16615,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B153" s="118"/>
+      <c r="B153" s="117"/>
       <c r="C153" s="27" t="s">
         <v>155</v>
       </c>
@@ -16641,7 +16641,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B154" s="118" t="s">
+      <c r="B154" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C154" s="27" t="s">
@@ -16669,7 +16669,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B155" s="118"/>
+      <c r="B155" s="117"/>
       <c r="C155" s="27" t="s">
         <v>149</v>
       </c>
@@ -16695,7 +16695,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B156" s="118"/>
+      <c r="B156" s="117"/>
       <c r="C156" s="27" t="s">
         <v>155</v>
       </c>
@@ -16749,7 +16749,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="93BZoXvNVzVKDH+A3rnmTiig3fOLggP3n30/JC0P8HA+WM67KEd4ElklMS/ps+AbI1qzTEgaeY24H5AJEuJgsA==" saltValue="IdY7IL1OLeiLfjO3fTQT6w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="l2RQeDIlMx4gNtAicCdeF07YD26y3KjXjGyDyWcfCGyMey1tVhYZThLUkL4WtB+nCiaoCoD/hu8na9ZbKJo5BQ==" saltValue="LNUqN7eN0LtPgp4ltt6tww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -16828,7 +16828,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="79" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="78" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16848,7 +16848,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B3" s="83"/>
       <c r="C3" s="84"/>
@@ -16932,7 +16932,7 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C9" s="103">
         <v>1</v>
@@ -16955,7 +16955,7 @@
     </row>
     <row r="11" spans="1:6" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C11" s="87"/>
       <c r="D11" s="88"/>
@@ -16964,7 +16964,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C12" s="86"/>
       <c r="D12" s="75"/>
@@ -16973,7 +16973,7 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="45" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C13" s="103">
         <v>1</v>
@@ -17032,7 +17032,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B17" s="83"/>
       <c r="C17" s="90"/>
@@ -17181,7 +17181,7 @@
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B27" s="107"/>
       <c r="C27" s="108"/>
@@ -17191,7 +17191,7 @@
     </row>
     <row r="28" spans="1:6" s="79" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="78" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17211,7 +17211,7 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B30" s="83"/>
       <c r="C30" s="84"/>
@@ -17311,7 +17311,7 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C36" s="105">
         <f>C9*0.7</f>
@@ -17332,7 +17332,7 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="78" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B38" s="79"/>
       <c r="C38" s="87"/>
@@ -17342,7 +17342,7 @@
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C39" s="86"/>
       <c r="D39" s="75"/>
@@ -17351,7 +17351,7 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="45" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C40" s="105">
         <f>C13*0.7</f>
@@ -17372,7 +17372,7 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C41" s="105">
         <f t="shared" ref="C41:F41" si="6">C14*0.7</f>
@@ -17393,7 +17393,7 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="45" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C42" s="105">
         <f t="shared" ref="C42:F42" si="7">C15*0.7</f>
@@ -17422,7 +17422,7 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B44" s="83"/>
       <c r="C44" s="90"/>
@@ -17600,7 +17600,7 @@
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B54" s="107"/>
       <c r="C54" s="108"/>
@@ -17610,7 +17610,7 @@
     </row>
     <row r="55" spans="1:6" s="79" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="78" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17630,7 +17630,7 @@
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B57" s="83"/>
       <c r="C57" s="84"/>
@@ -17730,7 +17730,7 @@
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C63" s="105">
         <f>C9*1.3</f>
@@ -17751,7 +17751,7 @@
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="78" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B65" s="79"/>
       <c r="C65" s="87"/>
@@ -17761,7 +17761,7 @@
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C66" s="86"/>
       <c r="D66" s="75"/>
@@ -17770,7 +17770,7 @@
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="45" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C67" s="105">
         <f>C13*1.3</f>
@@ -17791,7 +17791,7 @@
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C68" s="105">
         <f t="shared" ref="C68:F68" si="22">C14*1.3</f>
@@ -17812,7 +17812,7 @@
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="45" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C69" s="105">
         <f t="shared" ref="C69:F69" si="23">C15*1.3</f>
@@ -17841,7 +17841,7 @@
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="29" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B71" s="83"/>
       <c r="C71" s="90"/>
@@ -18018,7 +18018,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xSnnexkEomw+7eq7LBLmoBtq9bXjnY3j2QNpbVJQw4z5kSRDp+GOkBH5t7rdLGTiKhPnnykJllq/V7mwon085g==" saltValue="IU93739+VyFgCe3+teAbKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7tJjj7C2B+irX+kXKxX6YsS1AO02BMhouJ4Ur1s7G/rnO7WTTtprfOUdRXGehpbfu6F3gxX5/narCHgGyGkCHA==" saltValue="u5ib2CNgf0ZuVkCk10ea6g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -18051,18 +18051,18 @@
   <sheetData>
     <row r="1" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D2" s="82" t="s">
         <v>78</v>
@@ -18122,7 +18122,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D4" s="104">
         <v>1</v>
@@ -18150,7 +18150,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D5" s="104">
         <v>1</v>
@@ -18178,7 +18178,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D6" s="104">
         <v>1</v>
@@ -18237,7 +18237,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D8" s="104">
         <v>1</v>
@@ -18265,7 +18265,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D9" s="104">
         <v>1</v>
@@ -18293,7 +18293,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D10" s="104">
         <v>1</v>
@@ -18352,7 +18352,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D12" s="104">
         <v>1</v>
@@ -18380,7 +18380,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D13" s="104">
         <v>1</v>
@@ -18408,7 +18408,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D14" s="104">
         <v>1</v>
@@ -18467,7 +18467,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D16" s="104">
         <v>1</v>
@@ -18495,7 +18495,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D17" s="104">
         <v>1</v>
@@ -18523,7 +18523,7 @@
     </row>
     <row r="18" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D18" s="104">
         <v>1</v>
@@ -18582,7 +18582,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D20" s="104">
         <v>1</v>
@@ -18610,7 +18610,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D21" s="104">
         <v>1</v>
@@ -18638,7 +18638,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D22" s="104">
         <v>1</v>
@@ -18697,7 +18697,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D24" s="104">
         <v>1</v>
@@ -18725,7 +18725,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D25" s="104">
         <v>1</v>
@@ -18753,7 +18753,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D26" s="104">
         <v>1</v>
@@ -18781,18 +18781,18 @@
     </row>
     <row r="28" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="78" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="92" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" s="29" t="s">
         <v>281</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>280</v>
       </c>
       <c r="D29" s="82" t="s">
         <v>78</v>
@@ -18852,7 +18852,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D31" s="104">
         <v>1</v>
@@ -18967,7 +18967,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D35" s="104">
         <v>1</v>
@@ -19082,7 +19082,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D39" s="104">
         <v>1</v>
@@ -19197,7 +19197,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D43" s="104">
         <v>1</v>
@@ -19312,7 +19312,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D47" s="104">
         <v>1</v>
@@ -19427,7 +19427,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D51" s="104">
         <v>1</v>
@@ -19515,7 +19515,7 @@
     </row>
     <row r="55" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="78" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
@@ -19523,10 +19523,10 @@
         <v>105</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C56" s="80" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D56" s="82" t="s">
         <v>113</v>
@@ -19552,7 +19552,7 @@
         <v>81</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D57" s="103">
         <v>1</v>
@@ -19574,7 +19574,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D58" s="104">
         <v>10.675000000000001</v>
@@ -19599,7 +19599,7 @@
         <v>89</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D59" s="103">
         <v>1</v>
@@ -19621,7 +19621,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D60" s="104">
         <v>10.675000000000001</v>
@@ -19646,7 +19646,7 @@
         <v>103</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D61" s="103">
         <v>1</v>
@@ -19668,7 +19668,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D62" s="104">
         <v>10.675000000000001</v>
@@ -19694,7 +19694,7 @@
     </row>
     <row r="64" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="78" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
@@ -19702,10 +19702,10 @@
         <v>123</v>
       </c>
       <c r="B65" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C65" s="80" t="s">
         <v>269</v>
-      </c>
-      <c r="C65" s="80" t="s">
-        <v>268</v>
       </c>
       <c r="D65" s="82" t="s">
         <v>78</v>
@@ -20769,7 +20769,7 @@
     </row>
     <row r="103" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="78" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
@@ -20780,7 +20780,7 @@
         <v>125</v>
       </c>
       <c r="C104" s="80" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D104" s="82" t="s">
         <v>78</v>
@@ -20921,13 +20921,13 @@
     </row>
     <row r="110" spans="1:16" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H110" s="106"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B111" s="79"/>
       <c r="C111" s="79"/>
@@ -20939,13 +20939,13 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="92" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B112" s="41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C112" s="41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D112" s="82" t="s">
         <v>78</v>
@@ -20994,7 +20994,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C114" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D114" s="105">
         <f t="shared" ref="D114:H114" si="1">D4*0.8</f>
@@ -21019,7 +21019,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C115" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D115" s="105">
         <f t="shared" ref="D115:H115" si="2">D5*0.8</f>
@@ -21044,7 +21044,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C116" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D116" s="105">
         <f t="shared" ref="D116:H116" si="3">D6*0.8</f>
@@ -21097,7 +21097,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C118" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D118" s="105">
         <f t="shared" ref="D118:H118" si="5">D8*0.8</f>
@@ -21122,7 +21122,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C119" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D119" s="105">
         <f t="shared" ref="D119:H119" si="6">D9*0.8</f>
@@ -21147,7 +21147,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C120" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D120" s="105">
         <f t="shared" ref="D120:H120" si="7">D10*0.8</f>
@@ -21200,7 +21200,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C122" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D122" s="105">
         <f t="shared" ref="D122:H122" si="9">D12*0.8</f>
@@ -21225,7 +21225,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C123" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D123" s="105">
         <f t="shared" ref="D123:H123" si="10">D13*0.8</f>
@@ -21250,7 +21250,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C124" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D124" s="105">
         <f t="shared" ref="D124:H124" si="11">D14*0.8</f>
@@ -21303,7 +21303,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C126" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D126" s="105">
         <f t="shared" ref="D126:H126" si="13">D16*0.8</f>
@@ -21328,7 +21328,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C127" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D127" s="105">
         <f t="shared" ref="D127:H127" si="14">D17*0.8</f>
@@ -21353,7 +21353,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C128" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D128" s="105">
         <f t="shared" ref="D128:H128" si="15">D18*0.8</f>
@@ -21406,7 +21406,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C130" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D130" s="105">
         <f t="shared" ref="D130:H130" si="17">D20*0.8</f>
@@ -21431,7 +21431,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C131" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D131" s="105">
         <f t="shared" ref="D131:H131" si="18">D21*0.8</f>
@@ -21456,7 +21456,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C132" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D132" s="105">
         <f t="shared" ref="D132:H132" si="19">D22*0.8</f>
@@ -21509,7 +21509,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C134" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D134" s="105">
         <f t="shared" ref="D134:H134" si="21">D24*0.8</f>
@@ -21534,7 +21534,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C135" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D135" s="105">
         <f t="shared" ref="D135:H135" si="22">D25*0.8</f>
@@ -21559,7 +21559,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C136" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D136" s="105">
         <f t="shared" ref="D136:H136" si="23">D26*0.8</f>
@@ -21584,7 +21584,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="78" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B138" s="79"/>
       <c r="C138" s="79"/>
@@ -21596,13 +21596,13 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="92" t="s">
+        <v>282</v>
+      </c>
+      <c r="B139" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C139" s="29" t="s">
         <v>281</v>
-      </c>
-      <c r="B139" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="C139" s="29" t="s">
-        <v>280</v>
       </c>
       <c r="D139" s="82" t="s">
         <v>78</v>
@@ -21651,7 +21651,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C141" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D141" s="105">
         <f t="shared" ref="D141:H141" si="25">D31*0.7</f>
@@ -21754,7 +21754,7 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C145" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D145" s="105">
         <f t="shared" ref="D145:H145" si="29">D35*0.7</f>
@@ -21857,7 +21857,7 @@
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C149" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D149" s="105">
         <f t="shared" ref="D149:H149" si="33">D39*0.7</f>
@@ -21960,7 +21960,7 @@
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C153" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D153" s="105">
         <f t="shared" ref="D153:H153" si="37">D43*0.7</f>
@@ -22063,7 +22063,7 @@
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C157" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D157" s="105">
         <f t="shared" ref="D157:H157" si="41">D47*0.7</f>
@@ -22166,7 +22166,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C161" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D161" s="105">
         <f t="shared" ref="D161:H161" si="45">D51*0.7</f>
@@ -22245,7 +22245,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="78" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B165" s="79"/>
       <c r="C165" s="79"/>
@@ -22260,10 +22260,10 @@
         <v>105</v>
       </c>
       <c r="B166" s="29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C166" s="80" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D166" s="82" t="s">
         <v>113</v>
@@ -22285,7 +22285,7 @@
         <v>81</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D167" s="105">
         <f>D57*0.7</f>
@@ -22307,7 +22307,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C168" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D168" s="105">
         <f t="shared" ref="D168:G168" si="49">D58*0.7</f>
@@ -22332,7 +22332,7 @@
         <v>89</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D169" s="105">
         <f t="shared" ref="D169:G169" si="50">D59*0.7</f>
@@ -22354,7 +22354,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C170" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D170" s="105">
         <f t="shared" ref="D170:G170" si="51">D60*0.7</f>
@@ -22379,7 +22379,7 @@
         <v>103</v>
       </c>
       <c r="C171" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D171" s="105">
         <f t="shared" ref="D171:G171" si="52">D61*0.7</f>
@@ -22401,7 +22401,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C172" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D172" s="105">
         <f t="shared" ref="D172:G172" si="53">D62*0.7</f>
@@ -22427,7 +22427,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="78" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B174" s="79"/>
       <c r="C174" s="79"/>
@@ -22442,10 +22442,10 @@
         <v>123</v>
       </c>
       <c r="B175" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C175" s="80" t="s">
         <v>269</v>
-      </c>
-      <c r="C175" s="80" t="s">
-        <v>268</v>
       </c>
       <c r="D175" s="82" t="s">
         <v>78</v>
@@ -23357,7 +23357,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="78" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B213" s="79"/>
       <c r="C213" s="79"/>
@@ -23375,7 +23375,7 @@
         <v>125</v>
       </c>
       <c r="C214" s="80" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D214" s="82" t="s">
         <v>78</v>
@@ -23492,13 +23492,13 @@
     </row>
     <row r="220" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H220" s="106"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B221" s="79"/>
       <c r="C221" s="79"/>
@@ -23511,13 +23511,13 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="92" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B222" s="41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C222" s="41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D222" s="82" t="s">
         <v>78</v>
@@ -23568,7 +23568,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C224" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D224" s="105">
         <f t="shared" ref="D224:H224" si="95">D4*1.2</f>
@@ -23594,7 +23594,7 @@
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C225" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D225" s="105">
         <f t="shared" ref="D225:H225" si="96">D5*1.2</f>
@@ -23620,7 +23620,7 @@
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C226" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D226" s="105">
         <f t="shared" ref="D226:H226" si="97">D6*1.2</f>
@@ -23675,7 +23675,7 @@
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C228" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D228" s="105">
         <f t="shared" ref="D228:H228" si="99">D8*1.2</f>
@@ -23701,7 +23701,7 @@
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C229" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D229" s="105">
         <f t="shared" ref="D229:H229" si="100">D9*1.2</f>
@@ -23727,7 +23727,7 @@
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C230" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D230" s="105">
         <f t="shared" ref="D230:H230" si="101">D10*1.2</f>
@@ -23782,7 +23782,7 @@
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C232" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D232" s="105">
         <f t="shared" ref="D232:H232" si="103">D12*1.2</f>
@@ -23808,7 +23808,7 @@
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C233" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D233" s="105">
         <f t="shared" ref="D233:H233" si="104">D13*1.2</f>
@@ -23834,7 +23834,7 @@
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C234" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D234" s="105">
         <f t="shared" ref="D234:H234" si="105">D14*1.2</f>
@@ -23889,7 +23889,7 @@
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C236" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D236" s="105">
         <f t="shared" ref="D236:H236" si="107">D16*1.2</f>
@@ -23915,7 +23915,7 @@
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C237" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D237" s="105">
         <f t="shared" ref="D237:H237" si="108">D17*1.2</f>
@@ -23941,7 +23941,7 @@
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C238" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D238" s="105">
         <f t="shared" ref="D238:H238" si="109">D18*1.2</f>
@@ -23996,7 +23996,7 @@
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C240" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D240" s="105">
         <f t="shared" ref="D240:H240" si="111">D20*1.2</f>
@@ -24022,7 +24022,7 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C241" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D241" s="105">
         <f t="shared" ref="D241:H241" si="112">D21*1.2</f>
@@ -24048,7 +24048,7 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C242" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D242" s="105">
         <f t="shared" ref="D242:H242" si="113">D22*1.2</f>
@@ -24103,7 +24103,7 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C244" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D244" s="105">
         <f t="shared" ref="D244:H244" si="115">D24*1.2</f>
@@ -24129,7 +24129,7 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C245" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D245" s="105">
         <f t="shared" ref="D245:H245" si="116">D25*1.2</f>
@@ -24155,7 +24155,7 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C246" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D246" s="105">
         <f t="shared" ref="D246:H246" si="117">D26*1.2</f>
@@ -24181,7 +24181,7 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="78" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B248" s="79"/>
       <c r="C248" s="79"/>
@@ -24194,13 +24194,13 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="92" t="s">
+        <v>282</v>
+      </c>
+      <c r="B249" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C249" s="29" t="s">
         <v>281</v>
-      </c>
-      <c r="B249" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="C249" s="29" t="s">
-        <v>280</v>
       </c>
       <c r="D249" s="82" t="s">
         <v>78</v>
@@ -24251,7 +24251,7 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C251" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D251" s="105">
         <f t="shared" ref="D251:H251" si="119">D31*1.2</f>
@@ -24358,7 +24358,7 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C255" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D255" s="105">
         <f t="shared" ref="D255:H255" si="123">D35*1.2</f>
@@ -24465,7 +24465,7 @@
     </row>
     <row r="259" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C259" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D259" s="105">
         <f t="shared" ref="D259:H259" si="127">D39*1.2</f>
@@ -24572,7 +24572,7 @@
     </row>
     <row r="263" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C263" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D263" s="105">
         <f t="shared" ref="D263:H263" si="131">D43*1.2</f>
@@ -24679,7 +24679,7 @@
     </row>
     <row r="267" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C267" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D267" s="105">
         <f t="shared" ref="D267:H267" si="135">D47*1.2</f>
@@ -24786,7 +24786,7 @@
     </row>
     <row r="271" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C271" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D271" s="105">
         <f t="shared" ref="D271:H271" si="139">D51*1.2</f>
@@ -24868,7 +24868,7 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="78" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B275" s="79"/>
       <c r="C275" s="79"/>
@@ -24884,10 +24884,10 @@
         <v>105</v>
       </c>
       <c r="B276" s="29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C276" s="80" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D276" s="82" t="s">
         <v>113</v>
@@ -24909,7 +24909,7 @@
         <v>81</v>
       </c>
       <c r="C277" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D277" s="105">
         <f>D57*1.2</f>
@@ -24931,7 +24931,7 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C278" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D278" s="105">
         <f t="shared" ref="D278:G278" si="143">D58*1.2</f>
@@ -24956,7 +24956,7 @@
         <v>89</v>
       </c>
       <c r="C279" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D279" s="105">
         <f t="shared" ref="D279:G279" si="144">D59*1.2</f>
@@ -24978,7 +24978,7 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C280" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D280" s="105">
         <f t="shared" ref="D280:G280" si="145">D60*1.2</f>
@@ -25003,7 +25003,7 @@
         <v>103</v>
       </c>
       <c r="C281" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D281" s="105">
         <f t="shared" ref="D281:G281" si="146">D61*1.2</f>
@@ -25025,7 +25025,7 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C282" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D282" s="105">
         <f t="shared" ref="D282:G282" si="147">D62*1.2</f>
@@ -25051,7 +25051,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="78" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B284" s="79"/>
       <c r="C284" s="79"/>
@@ -25067,10 +25067,10 @@
         <v>123</v>
       </c>
       <c r="B285" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C285" s="80" t="s">
         <v>269</v>
-      </c>
-      <c r="C285" s="80" t="s">
-        <v>268</v>
       </c>
       <c r="D285" s="82" t="s">
         <v>78</v>
@@ -26019,7 +26019,7 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" s="78" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B323" s="79"/>
       <c r="C323" s="79"/>
@@ -26038,7 +26038,7 @@
         <v>125</v>
       </c>
       <c r="C324" s="80" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D324" s="82" t="s">
         <v>78</v>
@@ -26159,7 +26159,7 @@
       <c r="I328" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="relFfsEJLyq3x1D+39CZGAaR5KFq7fulAMl7D4UKX7BxaIlKIQtGySaY0KrRGGnQ97eCPiY3fAt2kMzLHQKROA==" saltValue="rll9ZQHLJVBcxKW3QItaXw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="T4h18s/FLErNSra2Rss2+62AWG9m+Kt2l9w6IF5WSGC/PFJ59dtpuWZ8HcrSfDGCQuntNq4pygYri78cIqhwDQ==" saltValue="TNkRCaGiHUsGf1mOw4s8Wg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26193,7 +26193,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="78" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26219,7 +26219,7 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="45" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C3" s="104" t="s">
         <v>8</v>
@@ -26240,7 +26240,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29"/>
       <c r="B4" s="72" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C4" s="104">
         <v>1.0249999999999999</v>
@@ -26260,7 +26260,7 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="83" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26353,7 +26353,7 @@
     </row>
     <row r="11" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26383,15 +26383,15 @@
     </row>
     <row r="14" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="96" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C15" s="104">
         <v>1.0249999999999999</v>
@@ -26412,7 +26412,7 @@
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29"/>
       <c r="B16" s="72" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C16" s="104">
         <v>1.0249999999999999</v>
@@ -26435,7 +26435,7 @@
         <v>105</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C17" s="104">
         <v>1</v>
@@ -26456,21 +26456,21 @@
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:7" s="79" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="83" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="E20" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="F20" s="43" t="s">
         <v>71</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -26492,12 +26492,12 @@
     </row>
     <row r="23" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="78" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B24" s="79"/>
       <c r="C24" s="79"/>
@@ -26529,7 +26529,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="45" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C26" s="104" t="s">
         <v>8</v>
@@ -26554,7 +26554,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="29"/>
       <c r="B27" s="72" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C27" s="104">
         <f>C4*0.9</f>
@@ -26579,12 +26579,12 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="83" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" s="72" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C29" s="104">
         <f>C6*0.9</f>
@@ -26609,7 +26609,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="72" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C30" s="104">
         <f t="shared" ref="C30:G31" si="2">C7*0.9</f>
@@ -26634,7 +26634,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" s="72" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C31" s="104">
         <f t="shared" si="2"/>
@@ -26659,7 +26659,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" s="72" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C32" s="104">
         <f t="shared" ref="C32:G32" si="3">C9*0.9</f>
@@ -26692,7 +26692,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="78" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B34" s="79"/>
       <c r="C34" s="79"/>
@@ -26704,7 +26704,7 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="83"/>
       <c r="B35" s="45" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C35" s="104">
         <f>C12*0.9</f>
@@ -26730,7 +26730,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="78" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B37" s="79"/>
       <c r="C37" s="79"/>
@@ -26741,10 +26741,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="96" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B38" s="72" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C38" s="104">
         <f>C15*0.9</f>
@@ -26770,7 +26770,7 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="29"/>
       <c r="B39" s="72" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C39" s="104">
         <f t="shared" ref="C39:G39" si="6">C16*0.9</f>
@@ -26798,7 +26798,7 @@
         <v>105</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C40" s="104">
         <f t="shared" ref="C40:G40" si="7">C17*0.9</f>
@@ -26823,7 +26823,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="78" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B42" s="79"/>
       <c r="C42" s="79"/>
@@ -26836,22 +26836,22 @@
       <c r="A43" s="83"/>
       <c r="B43" s="83"/>
       <c r="C43" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="E43" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="F43" s="43" t="s">
         <v>71</v>
-      </c>
-      <c r="F43" s="43" t="s">
-        <v>72</v>
       </c>
       <c r="G43" s="83"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B44" s="45" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C44" s="104">
         <f>C21*0.9</f>
@@ -26872,12 +26872,12 @@
     </row>
     <row r="46" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="78" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B47" s="79"/>
       <c r="C47" s="79"/>
@@ -26909,7 +26909,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B49" s="45" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C49" s="104" t="s">
         <v>8</v>
@@ -26934,7 +26934,7 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="29"/>
       <c r="B50" s="72" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C50" s="104">
         <f>C4*1.05</f>
@@ -26959,12 +26959,12 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="83" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B52" s="72" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C52" s="104">
         <f>C6*1.05</f>
@@ -26989,7 +26989,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B53" s="72" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C53" s="104">
         <f t="shared" ref="C53:G54" si="11">C7*1.05</f>
@@ -27014,7 +27014,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B54" s="72" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C54" s="104">
         <f t="shared" si="11"/>
@@ -27039,7 +27039,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B55" s="72" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C55" s="104">
         <f t="shared" ref="C55:G55" si="12">C9*1.05</f>
@@ -27072,7 +27072,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="78" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B57" s="79"/>
       <c r="C57" s="79"/>
@@ -27084,7 +27084,7 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="83"/>
       <c r="B58" s="45" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C58" s="104">
         <f>C12*1.1</f>
@@ -27110,7 +27110,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="78" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B60" s="79"/>
       <c r="C60" s="79"/>
@@ -27121,10 +27121,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="96" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B61" s="72" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C61" s="104">
         <f>C15*1.05</f>
@@ -27150,7 +27150,7 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="29"/>
       <c r="B62" s="72" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C62" s="104">
         <f t="shared" ref="C62:G62" si="15">C16*1.05</f>
@@ -27178,7 +27178,7 @@
         <v>105</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C63" s="104">
         <f t="shared" ref="C63:G63" si="16">C17*1.05</f>
@@ -27203,7 +27203,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="78" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B65" s="79"/>
       <c r="C65" s="79"/>
@@ -27216,22 +27216,22 @@
       <c r="A66" s="83"/>
       <c r="B66" s="83"/>
       <c r="C66" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="E66" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E66" s="43" t="s">
+      <c r="F66" s="43" t="s">
         <v>71</v>
-      </c>
-      <c r="F66" s="43" t="s">
-        <v>72</v>
       </c>
       <c r="G66" s="83"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B67" s="45" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C67" s="104">
         <f>C21*1.05</f>
@@ -27251,7 +27251,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Sh/N1o761DlskGssYink5WURGAQ48tXOnHzZqUo1UJAHs+8gsy1PB7rQ2FocD2kLvl8uquOPjTEPG+9vy0vTRA==" saltValue="oVG2CI4ZY3VoUUtUNt1G/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kGvnbDTOHvD70ER78mtitfb+HXd67Qm19lYGy1I1VglU6L0NE1W3Tz89h3ESutpNRFs6dXbquUVGO5VsE/ymbQ==" saltValue="mS9NwedGURg0orjq29KFvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27304,7 +27304,7 @@
         <v>165</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C2" s="104">
         <v>0.21</v>
@@ -27322,7 +27322,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="72"/>
       <c r="B3" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C3" s="104">
         <v>1</v>
@@ -27342,7 +27342,7 @@
         <v>178</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C4" s="104">
         <v>0.15</v>
@@ -27360,7 +27360,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="72"/>
       <c r="B5" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C5" s="104">
         <v>1</v>
@@ -27380,7 +27380,7 @@
         <v>179</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C6" s="104">
         <v>0.15</v>
@@ -27398,7 +27398,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="72"/>
       <c r="B7" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C7" s="104">
         <v>1</v>
@@ -27418,7 +27418,7 @@
         <v>180</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C8" s="104">
         <v>0.35</v>
@@ -27436,7 +27436,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="72"/>
       <c r="B9" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C9" s="104">
         <v>1</v>
@@ -27456,7 +27456,7 @@
         <v>185</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C10" s="104">
         <v>0.35</v>
@@ -27474,7 +27474,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="72"/>
       <c r="B11" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C11" s="104">
         <v>1</v>
@@ -27494,7 +27494,7 @@
         <v>191</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C12" s="104">
         <v>0.23</v>
@@ -27512,7 +27512,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="72"/>
       <c r="B13" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C13" s="104">
         <v>1</v>
@@ -27529,7 +27529,7 @@
     </row>
     <row r="15" spans="1:6" s="106" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27555,7 +27555,7 @@
         <v>165</v>
       </c>
       <c r="B17" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C17" s="104">
         <f>C2*0.9</f>
@@ -27577,7 +27577,7 @@
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="72"/>
       <c r="B18" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C18" s="104">
         <f t="shared" ref="C18:F18" si="1">C3*0.9</f>
@@ -27601,7 +27601,7 @@
         <v>178</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C19" s="104">
         <f t="shared" ref="C19:F19" si="2">C4*0.9</f>
@@ -27623,7 +27623,7 @@
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="72"/>
       <c r="B20" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C20" s="104">
         <f t="shared" ref="C20:F20" si="3">C5*0.9</f>
@@ -27647,7 +27647,7 @@
         <v>179</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C21" s="104">
         <f t="shared" ref="C21:F21" si="4">C6*0.9</f>
@@ -27669,7 +27669,7 @@
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="72"/>
       <c r="B22" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C22" s="104">
         <f t="shared" ref="C22:F22" si="5">C7*0.9</f>
@@ -27693,7 +27693,7 @@
         <v>180</v>
       </c>
       <c r="B23" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C23" s="104">
         <f t="shared" ref="C23:F23" si="6">C8*0.9</f>
@@ -27715,7 +27715,7 @@
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="72"/>
       <c r="B24" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C24" s="104">
         <f t="shared" ref="C24:F24" si="7">C9*0.9</f>
@@ -27739,7 +27739,7 @@
         <v>185</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C25" s="104">
         <f t="shared" ref="C25:F25" si="8">C10*0.9</f>
@@ -27761,7 +27761,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="72"/>
       <c r="B26" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C26" s="104">
         <f t="shared" ref="C26:F26" si="9">C11*0.9</f>
@@ -27785,7 +27785,7 @@
         <v>191</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C27" s="104">
         <f t="shared" ref="C27:F27" si="10">C12*0.9</f>
@@ -27807,7 +27807,7 @@
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="72"/>
       <c r="B28" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C28" s="104">
         <f t="shared" ref="C28:F28" si="11">C13*0.9</f>
@@ -27828,7 +27828,7 @@
     </row>
     <row r="30" spans="1:6" s="106" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27854,7 +27854,7 @@
         <v>165</v>
       </c>
       <c r="B32" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C32" s="104">
         <f>C2*1.05</f>
@@ -27876,7 +27876,7 @@
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="72"/>
       <c r="B33" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C33" s="104">
         <f t="shared" ref="C33:F33" si="13">C3*1.05</f>
@@ -27900,7 +27900,7 @@
         <v>178</v>
       </c>
       <c r="B34" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C34" s="104">
         <f t="shared" ref="C34:F34" si="14">C4*1.05</f>
@@ -27922,7 +27922,7 @@
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="72"/>
       <c r="B35" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C35" s="104">
         <f t="shared" ref="C35:F35" si="15">C5*1.05</f>
@@ -27946,7 +27946,7 @@
         <v>179</v>
       </c>
       <c r="B36" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C36" s="104">
         <f t="shared" ref="C36:F36" si="16">C6*1.05</f>
@@ -27968,7 +27968,7 @@
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="72"/>
       <c r="B37" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C37" s="104">
         <f t="shared" ref="C37:F37" si="17">C7*1.05</f>
@@ -27992,7 +27992,7 @@
         <v>180</v>
       </c>
       <c r="B38" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C38" s="104">
         <f t="shared" ref="C38:F38" si="18">C8*1.05</f>
@@ -28014,7 +28014,7 @@
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="72"/>
       <c r="B39" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C39" s="104">
         <f t="shared" ref="C39:F39" si="19">C9*1.05</f>
@@ -28038,7 +28038,7 @@
         <v>185</v>
       </c>
       <c r="B40" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C40" s="104">
         <f t="shared" ref="C40:F40" si="20">C10*1.05</f>
@@ -28060,7 +28060,7 @@
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="72"/>
       <c r="B41" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C41" s="104">
         <f t="shared" ref="C41:F41" si="21">C11*1.05</f>
@@ -28084,7 +28084,7 @@
         <v>191</v>
       </c>
       <c r="B42" s="72" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C42" s="104">
         <f t="shared" ref="C42:F42" si="22">C12*1.05</f>
@@ -28106,7 +28106,7 @@
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="72"/>
       <c r="B43" s="72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C43" s="104">
         <f t="shared" ref="C43:F43" si="23">C13*1.05</f>
@@ -28126,7 +28126,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mTkU95rtRKQpbNdcx/xmRnVmp6CfHIQtPqmCmEcuxqUreQ7HG9k1XZZqnloDUUoK/puKb4pRbRPIVnJadOMVDQ==" saltValue="nZA8TjU1TrIkRxMaOHZD9w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IMIR6OxJYmLhMGkfUnwMSDD3tBRUOCLX29y5Y/Klc9fnsuv8EYxJHbeftxPYx5crAK1FK9Ur/h12Ehca21zExw==" saltValue="EosxUCZURm6tLgBXd4Y/yw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28173,16 +28173,16 @@
         <v>76</v>
       </c>
       <c r="H1" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="J1" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="K1" s="82" t="s">
         <v>71</v>
-      </c>
-      <c r="K1" s="82" t="s">
-        <v>72</v>
       </c>
       <c r="L1" s="82" t="s">
         <v>113</v>
@@ -28199,7 +28199,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -28776,7 +28776,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B17" s="45"/>
     </row>
@@ -28958,7 +28958,7 @@
     </row>
     <row r="23" spans="1:15" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
@@ -28980,16 +28980,16 @@
         <v>76</v>
       </c>
       <c r="H24" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="I24" s="82" t="s">
+      <c r="J24" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="82" t="s">
+      <c r="K24" s="82" t="s">
         <v>71</v>
-      </c>
-      <c r="K24" s="82" t="s">
-        <v>72</v>
       </c>
       <c r="L24" s="82" t="s">
         <v>113</v>
@@ -29006,7 +29006,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="29" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -29752,7 +29752,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="29" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B40" s="45"/>
     </row>
@@ -29986,7 +29986,7 @@
     </row>
     <row r="46" spans="1:15" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
@@ -30008,16 +30008,16 @@
         <v>76</v>
       </c>
       <c r="H47" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="I47" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="I47" s="82" t="s">
+      <c r="J47" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="82" t="s">
+      <c r="K47" s="82" t="s">
         <v>71</v>
-      </c>
-      <c r="K47" s="82" t="s">
-        <v>72</v>
       </c>
       <c r="L47" s="82" t="s">
         <v>113</v>
@@ -30034,7 +30034,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="29" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -30780,7 +30780,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="29" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B63" s="45"/>
     </row>
@@ -31013,7 +31013,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8HkkZm1T91DJXJsIYUuXMFg+5KUOiVm0SoV2KwUEWXZ/ZZ9GeTnAIfuOeDhZjE4q4qQLDIiQxGFsOaWfI1MZWA==" saltValue="FwLWjP9Xc93SKqWRtRTpgw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1RVyqwEekcutqqzxacZfWvO2CrdxrrVmAj/JXuxE018qdbYy2I6+S12EjR9YADYJzT/sx3uCJCYtwvZiLLs/lw==" saltValue="23j2czucA0DLbE1LZdcZcg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31062,7 +31062,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -31087,7 +31087,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="97"/>
@@ -31118,7 +31118,7 @@
     </row>
     <row r="7" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="106" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -31142,7 +31142,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -31172,7 +31172,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B11" s="45"/>
       <c r="C11" s="97"/>
@@ -31208,7 +31208,7 @@
     </row>
     <row r="14" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="106" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -31232,7 +31232,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -31262,7 +31262,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B18" s="45"/>
       <c r="C18" s="97"/>
@@ -31297,7 +31297,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ghy7F3a28b6BfTtN67DmUhybVkSo7e2ZAffrP6dOGvfh7CdIB5oYGiET7nEDkcSH9OcBFpEHCb4VtDVOhYpCFA==" saltValue="Su1xmwN/OfiovISX6Bc15w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4fTHjrzIWGCvTMVFDnrtqJyBBkJhPlWbFubJDP6ekRHN3H4B4rUuvjkR1+rCG9UIx+ULJBisU5D0pygWKe8pjA==" saltValue="/CzrcoPlhTKfmMVfJ7As0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -31335,7 +31335,7 @@
         <v>163</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C1" s="96" t="s">
         <v>9</v>
@@ -31364,7 +31364,7 @@
         <v>84</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D2" s="104">
         <v>0</v>
@@ -31384,7 +31384,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D3" s="104">
         <v>0</v>
@@ -31404,7 +31404,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D4" s="104">
         <v>0</v>
@@ -31430,7 +31430,7 @@
         <v>207</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D5" s="104">
         <v>0</v>
@@ -31450,7 +31450,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D6" s="104">
         <v>0</v>
@@ -31473,7 +31473,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D7" s="104">
         <v>0</v>
@@ -31493,7 +31493,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D8" s="104">
         <v>0</v>
@@ -31519,7 +31519,7 @@
         <v>207</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D9" s="104">
         <v>0</v>
@@ -31539,7 +31539,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D10" s="104">
         <v>0</v>
@@ -31562,7 +31562,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D11" s="104">
         <v>0</v>
@@ -31582,7 +31582,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D12" s="104">
         <v>0</v>
@@ -31608,7 +31608,7 @@
         <v>207</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D13" s="104">
         <v>0</v>
@@ -31628,7 +31628,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D14" s="104">
         <v>0</v>
@@ -31651,7 +31651,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D15" s="104">
         <v>0</v>
@@ -31671,7 +31671,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D16" s="104">
         <v>0</v>
@@ -31697,7 +31697,7 @@
         <v>207</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D17" s="104">
         <v>0</v>
@@ -31717,7 +31717,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C18" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D18" s="104">
         <v>0</v>
@@ -31740,7 +31740,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D19" s="104">
         <v>0</v>
@@ -31760,7 +31760,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C20" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D20" s="104">
         <v>0</v>
@@ -31786,7 +31786,7 @@
         <v>92</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D21" s="104">
         <v>0.28260869565217389</v>
@@ -31806,7 +31806,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C22" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D22" s="104">
         <v>0.46</v>
@@ -31832,7 +31832,7 @@
         <v>92</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D23" s="104">
         <v>0.28260869565217389</v>
@@ -31852,7 +31852,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C24" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D24" s="104">
         <v>0.46</v>
@@ -31878,7 +31878,7 @@
         <v>92</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D25" s="104">
         <v>0.28260869565217389</v>
@@ -31898,7 +31898,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C26" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D26" s="104">
         <v>0.46</v>
@@ -31924,7 +31924,7 @@
         <v>84</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D27" s="104">
         <v>1</v>
@@ -31944,7 +31944,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C28" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D28" s="104">
         <v>0</v>
@@ -31964,7 +31964,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C29" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D29" s="104">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>84</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D30" s="104">
         <v>1</v>
@@ -32010,7 +32010,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C31" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D31" s="104">
         <v>0</v>
@@ -32030,7 +32030,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C32" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D32" s="104">
         <v>0</v>
@@ -32056,7 +32056,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D33" s="104">
         <v>1</v>
@@ -32076,7 +32076,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D34" s="104">
         <v>0</v>
@@ -32096,7 +32096,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C35" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D35" s="104">
         <v>0</v>
@@ -32122,7 +32122,7 @@
         <v>84</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D36" s="104">
         <v>1</v>
@@ -32142,7 +32142,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D37" s="104">
         <v>0</v>
@@ -32162,7 +32162,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C38" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D38" s="104">
         <v>0</v>
@@ -32188,7 +32188,7 @@
         <v>84</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D39" s="104">
         <v>1</v>
@@ -32208,7 +32208,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D40" s="104">
         <v>0</v>
@@ -32228,7 +32228,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C41" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D41" s="104">
         <v>0</v>
@@ -32254,7 +32254,7 @@
         <v>84</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D42" s="104">
         <v>0.3</v>
@@ -32274,7 +32274,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D43" s="104">
         <v>0.5</v>
@@ -32294,7 +32294,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C44" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D44" s="104">
         <v>0.65</v>
@@ -32317,7 +32317,7 @@
         <v>102</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D45" s="104">
         <v>0.3</v>
@@ -32337,7 +32337,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C46" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D46" s="104">
         <v>0.49</v>
@@ -32357,7 +32357,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D47" s="104">
         <v>0.52</v>
@@ -32383,7 +32383,7 @@
         <v>84</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D48" s="104">
         <v>0.88</v>
@@ -32403,7 +32403,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C49" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D49" s="104">
         <v>0.78409090909090906</v>
@@ -32429,7 +32429,7 @@
         <v>84</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D50" s="104">
         <v>0.88372093023255816</v>
@@ -32449,7 +32449,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C51" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D51" s="104">
         <v>0.86</v>
@@ -32475,7 +32475,7 @@
         <v>96</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D52" s="104">
         <v>0.57999999999999996</v>
@@ -32495,7 +32495,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C53" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D53" s="104">
         <v>0.51</v>
@@ -32515,7 +32515,7 @@
     </row>
     <row r="55" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="110" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B55" s="111"/>
       <c r="C55" s="111"/>
@@ -32525,7 +32525,7 @@
         <v>163</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C56" s="96" t="s">
         <v>9</v>
@@ -32554,7 +32554,7 @@
         <v>84</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D57" s="104">
         <f t="shared" ref="D57:H66" si="0">D2*0.9</f>
@@ -32579,7 +32579,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C58" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D58" s="104">
         <f t="shared" si="0"/>
@@ -32604,7 +32604,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C59" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D59" s="104">
         <f t="shared" si="0"/>
@@ -32635,7 +32635,7 @@
         <v>207</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D60" s="104">
         <f t="shared" si="0"/>
@@ -32660,7 +32660,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C61" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D61" s="104">
         <f t="shared" si="0"/>
@@ -32688,7 +32688,7 @@
         <v>3</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D62" s="104">
         <f t="shared" si="0"/>
@@ -32713,7 +32713,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C63" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D63" s="104">
         <f t="shared" si="0"/>
@@ -32744,7 +32744,7 @@
         <v>207</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D64" s="104">
         <f t="shared" si="0"/>
@@ -32769,7 +32769,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C65" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D65" s="104">
         <f t="shared" si="0"/>
@@ -32797,7 +32797,7 @@
         <v>3</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D66" s="104">
         <f t="shared" si="0"/>
@@ -32822,7 +32822,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C67" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D67" s="104">
         <f t="shared" ref="D67:H67" si="1">D12*0.9</f>
@@ -32853,7 +32853,7 @@
         <v>207</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D68" s="104">
         <f t="shared" ref="D68:H70" si="2">D13*0.9</f>
@@ -32878,7 +32878,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C69" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D69" s="104">
         <f t="shared" si="2"/>
@@ -32906,7 +32906,7 @@
         <v>3</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D70" s="104">
         <f t="shared" si="2"/>
@@ -32931,7 +32931,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C71" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D71" s="104">
         <f t="shared" ref="D71:H71" si="3">D16*0.9</f>
@@ -32962,7 +32962,7 @@
         <v>207</v>
       </c>
       <c r="C72" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D72" s="104">
         <f t="shared" ref="D72:H72" si="4">D17*0.9</f>
@@ -32987,7 +32987,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C73" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D73" s="104">
         <f t="shared" ref="D73:H73" si="5">D18*0.9</f>
@@ -33015,7 +33015,7 @@
         <v>3</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D74" s="104">
         <f t="shared" ref="D74:H74" si="6">D19*0.9</f>
@@ -33040,7 +33040,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C75" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D75" s="104">
         <f t="shared" ref="D75:H75" si="7">D20*0.9</f>
@@ -33071,7 +33071,7 @@
         <v>92</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D76" s="104">
         <f t="shared" ref="D76:H76" si="8">D21*0.9</f>
@@ -33096,7 +33096,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C77" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D77" s="104">
         <f t="shared" ref="D77:H77" si="9">D22*0.9</f>
@@ -33127,7 +33127,7 @@
         <v>92</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D78" s="104">
         <f t="shared" ref="D78:H78" si="10">D23*0.9</f>
@@ -33152,7 +33152,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C79" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D79" s="104">
         <f t="shared" ref="D79:H79" si="11">D24*0.9</f>
@@ -33183,7 +33183,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D80" s="104">
         <f t="shared" ref="D80:H80" si="12">D25*0.9</f>
@@ -33208,7 +33208,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C81" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D81" s="104">
         <f t="shared" ref="D81:H81" si="13">D26*0.9</f>
@@ -33239,7 +33239,7 @@
         <v>84</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D82" s="104">
         <f t="shared" ref="D82:H82" si="14">D27*0.9</f>
@@ -33264,7 +33264,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C83" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D83" s="104">
         <f t="shared" ref="D83:H83" si="15">D28*0.9</f>
@@ -33289,7 +33289,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C84" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D84" s="104">
         <f t="shared" ref="D84:H84" si="16">D29*0.9</f>
@@ -33320,7 +33320,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D85" s="104">
         <f t="shared" ref="D85:H85" si="17">D30*0.9</f>
@@ -33345,7 +33345,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C86" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D86" s="104">
         <f t="shared" ref="D86:H86" si="18">D31*0.9</f>
@@ -33370,7 +33370,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C87" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D87" s="104">
         <f t="shared" ref="D87:H87" si="19">D32*0.9</f>
@@ -33401,7 +33401,7 @@
         <v>84</v>
       </c>
       <c r="C88" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D88" s="104">
         <f t="shared" ref="D88:H88" si="20">D33*0.9</f>
@@ -33426,7 +33426,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C89" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D89" s="104">
         <f t="shared" ref="D89:H89" si="21">D34*0.9</f>
@@ -33451,7 +33451,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C90" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D90" s="104">
         <f t="shared" ref="D90:H90" si="22">D35*0.9</f>
@@ -33482,7 +33482,7 @@
         <v>84</v>
       </c>
       <c r="C91" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D91" s="104">
         <f t="shared" ref="D91:H91" si="23">D36*0.9</f>
@@ -33507,7 +33507,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C92" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D92" s="104">
         <f t="shared" ref="D92:H92" si="24">D37*0.9</f>
@@ -33532,7 +33532,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C93" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D93" s="104">
         <f t="shared" ref="D93:H93" si="25">D38*0.9</f>
@@ -33563,7 +33563,7 @@
         <v>84</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D94" s="104">
         <f t="shared" ref="D94:H94" si="26">D39*0.9</f>
@@ -33588,7 +33588,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C95" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D95" s="104">
         <f t="shared" ref="D95:H95" si="27">D40*0.9</f>
@@ -33613,7 +33613,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C96" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D96" s="104">
         <f t="shared" ref="D96:H96" si="28">D41*0.9</f>
@@ -33644,7 +33644,7 @@
         <v>84</v>
       </c>
       <c r="C97" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D97" s="104">
         <f t="shared" ref="D97:H97" si="29">D42*0.9</f>
@@ -33669,7 +33669,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C98" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D98" s="104">
         <f t="shared" ref="D98:H98" si="30">D43*0.9</f>
@@ -33694,7 +33694,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C99" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D99" s="104">
         <f t="shared" ref="D99:H99" si="31">D44*0.9</f>
@@ -33722,7 +33722,7 @@
         <v>102</v>
       </c>
       <c r="C100" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D100" s="104">
         <f t="shared" ref="D100:H100" si="32">D45*0.9</f>
@@ -33747,7 +33747,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C101" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D101" s="104">
         <f t="shared" ref="D101:H101" si="33">D46*0.9</f>
@@ -33772,7 +33772,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C102" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D102" s="104">
         <f t="shared" ref="D102:H102" si="34">D47*0.9</f>
@@ -33803,7 +33803,7 @@
         <v>84</v>
       </c>
       <c r="C103" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D103" s="104">
         <f t="shared" ref="D103:H103" si="35">D48*0.9</f>
@@ -33828,7 +33828,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C104" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D104" s="104">
         <f t="shared" ref="D104:H104" si="36">D49*0.9</f>
@@ -33859,7 +33859,7 @@
         <v>84</v>
       </c>
       <c r="C105" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D105" s="104">
         <f t="shared" ref="D105:H105" si="37">D50*0.9</f>
@@ -33884,7 +33884,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C106" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D106" s="104">
         <f t="shared" ref="D106:H106" si="38">D51*0.9</f>
@@ -33915,7 +33915,7 @@
         <v>96</v>
       </c>
       <c r="C107" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D107" s="104">
         <f t="shared" ref="D107:H107" si="39">D52*0.9</f>
@@ -33940,7 +33940,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C108" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D108" s="104">
         <f t="shared" ref="D108:H108" si="40">D53*0.9</f>
@@ -33965,7 +33965,7 @@
     </row>
     <row r="110" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="110" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B110" s="111"/>
       <c r="C110" s="111"/>
@@ -33975,7 +33975,7 @@
         <v>163</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C111" s="96" t="s">
         <v>9</v>
@@ -34004,7 +34004,7 @@
         <v>84</v>
       </c>
       <c r="C112" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D112" s="104">
         <f t="shared" ref="D112:H121" si="41">D2*1.05</f>
@@ -34029,7 +34029,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C113" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D113" s="104">
         <f t="shared" si="41"/>
@@ -34054,7 +34054,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C114" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D114" s="104">
         <f t="shared" si="41"/>
@@ -34085,7 +34085,7 @@
         <v>207</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D115" s="104">
         <f t="shared" si="41"/>
@@ -34110,7 +34110,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C116" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D116" s="104">
         <f t="shared" si="41"/>
@@ -34138,7 +34138,7 @@
         <v>3</v>
       </c>
       <c r="C117" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D117" s="104">
         <f t="shared" si="41"/>
@@ -34163,7 +34163,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C118" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D118" s="104">
         <f t="shared" si="41"/>
@@ -34194,7 +34194,7 @@
         <v>207</v>
       </c>
       <c r="C119" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D119" s="104">
         <f t="shared" si="41"/>
@@ -34219,7 +34219,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C120" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D120" s="104">
         <f t="shared" si="41"/>
@@ -34247,7 +34247,7 @@
         <v>3</v>
       </c>
       <c r="C121" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D121" s="104">
         <f t="shared" si="41"/>
@@ -34272,7 +34272,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C122" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D122" s="104">
         <f t="shared" ref="D122:H122" si="42">D12*1.05</f>
@@ -34303,7 +34303,7 @@
         <v>207</v>
       </c>
       <c r="C123" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D123" s="104">
         <f t="shared" ref="D123:H125" si="43">D13*1.05</f>
@@ -34328,7 +34328,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C124" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D124" s="104">
         <f t="shared" si="43"/>
@@ -34356,7 +34356,7 @@
         <v>3</v>
       </c>
       <c r="C125" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D125" s="104">
         <f t="shared" si="43"/>
@@ -34381,7 +34381,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C126" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D126" s="104">
         <f t="shared" ref="D126:H126" si="44">D16*1.05</f>
@@ -34412,7 +34412,7 @@
         <v>207</v>
       </c>
       <c r="C127" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D127" s="104">
         <f t="shared" ref="D127:H127" si="45">D17*1.05</f>
@@ -34437,7 +34437,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C128" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D128" s="104">
         <f t="shared" ref="D128:H128" si="46">D18*1.05</f>
@@ -34465,7 +34465,7 @@
         <v>3</v>
       </c>
       <c r="C129" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D129" s="104">
         <f t="shared" ref="D129:H129" si="47">D19*1.05</f>
@@ -34490,7 +34490,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C130" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D130" s="104">
         <f t="shared" ref="D130:H130" si="48">D20*1.05</f>
@@ -34521,7 +34521,7 @@
         <v>92</v>
       </c>
       <c r="C131" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D131" s="104">
         <f t="shared" ref="D131:H131" si="49">D21*1.05</f>
@@ -34546,7 +34546,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C132" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D132" s="104">
         <f t="shared" ref="D132:H132" si="50">D22*1.05</f>
@@ -34577,7 +34577,7 @@
         <v>92</v>
       </c>
       <c r="C133" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D133" s="104">
         <f t="shared" ref="D133:H133" si="51">D23*1.05</f>
@@ -34602,7 +34602,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C134" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D134" s="104">
         <f t="shared" ref="D134:H134" si="52">D24*1.05</f>
@@ -34633,7 +34633,7 @@
         <v>92</v>
       </c>
       <c r="C135" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D135" s="104">
         <f t="shared" ref="D135:H135" si="53">D25*1.05</f>
@@ -34658,7 +34658,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C136" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D136" s="104">
         <f t="shared" ref="D136:H136" si="54">D26*1.05</f>
@@ -34689,7 +34689,7 @@
         <v>84</v>
       </c>
       <c r="C137" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D137" s="104">
         <f t="shared" ref="D137:H137" si="55">D27*1.05</f>
@@ -34714,7 +34714,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C138" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D138" s="104">
         <f t="shared" ref="D138:H138" si="56">D28*1.05</f>
@@ -34739,7 +34739,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C139" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D139" s="104">
         <f t="shared" ref="D139:H139" si="57">D29*1.05</f>
@@ -34770,7 +34770,7 @@
         <v>84</v>
       </c>
       <c r="C140" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D140" s="104">
         <f t="shared" ref="D140:H140" si="58">D30*1.05</f>
@@ -34795,7 +34795,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C141" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D141" s="104">
         <f t="shared" ref="D141:H141" si="59">D31*1.05</f>
@@ -34820,7 +34820,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C142" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D142" s="104">
         <f t="shared" ref="D142:H142" si="60">D32*1.05</f>
@@ -34851,7 +34851,7 @@
         <v>84</v>
       </c>
       <c r="C143" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D143" s="104">
         <f t="shared" ref="D143:H143" si="61">D33*1.05</f>
@@ -34876,7 +34876,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C144" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D144" s="104">
         <f t="shared" ref="D144:H144" si="62">D34*1.05</f>
@@ -34901,7 +34901,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C145" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D145" s="104">
         <f t="shared" ref="D145:H145" si="63">D35*1.05</f>
@@ -34932,7 +34932,7 @@
         <v>84</v>
       </c>
       <c r="C146" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D146" s="104">
         <f t="shared" ref="D146:H146" si="64">D36*1.05</f>
@@ -34957,7 +34957,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C147" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D147" s="104">
         <f t="shared" ref="D147:H147" si="65">D37*1.05</f>
@@ -34982,7 +34982,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C148" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D148" s="104">
         <f t="shared" ref="D148:H148" si="66">D38*1.05</f>
@@ -35013,7 +35013,7 @@
         <v>84</v>
       </c>
       <c r="C149" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D149" s="104">
         <f t="shared" ref="D149:H149" si="67">D39*1.05</f>
@@ -35038,7 +35038,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C150" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D150" s="104">
         <f t="shared" ref="D150:H150" si="68">D40*1.05</f>
@@ -35063,7 +35063,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C151" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D151" s="104">
         <f t="shared" ref="D151:H151" si="69">D41*1.05</f>
@@ -35094,7 +35094,7 @@
         <v>84</v>
       </c>
       <c r="C152" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D152" s="104">
         <f t="shared" ref="D152:H152" si="70">D42*1.05</f>
@@ -35119,7 +35119,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C153" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D153" s="104">
         <f t="shared" ref="D153:H153" si="71">D43*1.05</f>
@@ -35144,7 +35144,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C154" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D154" s="104">
         <f t="shared" ref="D154:H154" si="72">D44*1.05</f>
@@ -35172,7 +35172,7 @@
         <v>102</v>
       </c>
       <c r="C155" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D155" s="104">
         <f t="shared" ref="D155:H155" si="73">D45*1.05</f>
@@ -35197,7 +35197,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C156" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D156" s="104">
         <f t="shared" ref="D156:H156" si="74">D46*1.05</f>
@@ -35222,7 +35222,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C157" s="39" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D157" s="104">
         <f t="shared" ref="D157:H157" si="75">D47*1.05</f>
@@ -35253,7 +35253,7 @@
         <v>84</v>
       </c>
       <c r="C158" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D158" s="104">
         <f t="shared" ref="D158:H158" si="76">D48*1.05</f>
@@ -35278,7 +35278,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C159" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D159" s="104">
         <f t="shared" ref="D159:H159" si="77">D49*1.05</f>
@@ -35309,7 +35309,7 @@
         <v>84</v>
       </c>
       <c r="C160" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D160" s="104">
         <f t="shared" ref="D160:H160" si="78">D50*1.05</f>
@@ -35334,7 +35334,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C161" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D161" s="104">
         <f t="shared" ref="D161:H161" si="79">D51*1.05</f>
@@ -35365,7 +35365,7 @@
         <v>96</v>
       </c>
       <c r="C162" s="39" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D162" s="104">
         <f t="shared" ref="D162:H162" si="80">D52*1.05</f>
@@ -35390,7 +35390,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C163" s="39" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D163" s="104">
         <f t="shared" ref="D163:H163" si="81">D53*1.05</f>
@@ -35414,7 +35414,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6NjbZn42IG+Grr1ijXFZ0Dh+uSg2gBIe/xPMVpag7Pi3wHIofNSaC7XsHKpQk5xgY19+qjjjQrhtUxhtmXr6Uw==" saltValue="fETcxyb8jRzjnYC++keuKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RIpLaPJbA1gP1FFBnpUh3o/oWcQZR93E5ZGQfNB1bGra8D315IzXEdVOOLmC1/B2yMn5eT2IhiPn95JiSpLenw==" saltValue="qj7oxrcW0xvdbe0NOGt73w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -35448,7 +35448,7 @@
         <v>163</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="29" t="s">
@@ -35473,7 +35473,7 @@
         <v>86</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D2" s="104">
         <v>1</v>
@@ -35491,7 +35491,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D3" s="104">
         <v>0.2</v>
@@ -35515,7 +35515,7 @@
         <v>86</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D4" s="104">
         <v>1</v>
@@ -35533,7 +35533,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C5" s="27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D5" s="104">
         <v>0.59</v>
@@ -35557,7 +35557,7 @@
         <v>86</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D6" s="104">
         <v>1</v>
@@ -35575,7 +35575,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" s="27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D7" s="104">
         <v>0.6</v>
@@ -35593,7 +35593,7 @@
     </row>
     <row r="9" spans="1:8" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="106" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -35601,7 +35601,7 @@
         <v>163</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="29" t="s">
@@ -35625,7 +35625,7 @@
         <v>86</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D11" s="104">
         <f>D2*0.9</f>
@@ -35646,7 +35646,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" s="27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D12" s="104">
         <f t="shared" ref="D12:G12" si="1">D3*0.9</f>
@@ -35673,7 +35673,7 @@
         <v>86</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D13" s="104">
         <f t="shared" ref="D13:G13" si="2">D4*0.9</f>
@@ -35694,7 +35694,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" s="27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D14" s="104">
         <f t="shared" ref="D14:G14" si="3">D5*0.9</f>
@@ -35721,7 +35721,7 @@
         <v>86</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D15" s="104">
         <f t="shared" ref="D15:G15" si="4">D6*0.9</f>
@@ -35742,7 +35742,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" s="27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D16" s="104">
         <f t="shared" ref="D16:G16" si="5">D7*0.9</f>
@@ -35763,7 +35763,7 @@
     </row>
     <row r="18" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="106" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -35771,7 +35771,7 @@
         <v>163</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="29" t="s">
@@ -35795,7 +35795,7 @@
         <v>86</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D20" s="104">
         <f>D2*1.05</f>
@@ -35816,7 +35816,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C21" s="27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D21" s="104">
         <f t="shared" ref="D21:G21" si="7">D3*1.05</f>
@@ -35843,7 +35843,7 @@
         <v>86</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D22" s="104">
         <f t="shared" ref="D22:G22" si="8">D4*1.05</f>
@@ -35864,7 +35864,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C23" s="27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D23" s="104">
         <f t="shared" ref="D23:G23" si="9">D5*1.05</f>
@@ -35891,7 +35891,7 @@
         <v>86</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D24" s="104">
         <f t="shared" ref="D24:G24" si="10">D6*1.05</f>
@@ -35912,7 +35912,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C25" s="27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D25" s="104">
         <f t="shared" ref="D25:G25" si="11">D7*1.05</f>
@@ -35932,7 +35932,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FpZGAItIADGTE06QqgsyE6nV74drP+OmuUowyHc8iSXVEoCEaP4QFzCF1BHzgpYeRjCXLNEf6slnL+0aBsxyQQ==" saltValue="Gr+cKGXeXWijMEtwUVKXdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CDjyz3H84KN9z1EarorrJPWzl2LVu8R4n/tiAAQnbpNWzoKwBT+BuRttK0FsHGld1FbyXgHH69++mPhGXh+C1A==" saltValue="HMHdUQI74rPmkiVspTeU0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -35948,7 +35948,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36075,16 +36075,16 @@
       <c r="B13" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="117" t="s">
+      <c r="D13" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="117" t="s">
+      <c r="E13" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="117" t="s">
+      <c r="F13" s="18" t="s">
         <v>76</v>
       </c>
       <c r="G13" s="19"/>
@@ -36372,7 +36372,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qqKE/dRNAxrQjVW9+/lI0WObZoJPLqq8egw0IhfDumVFyLY96hfrO4WDISqrP3xbWyhv42FsdZyUQ3dTCLL22w==" saltValue="uSO5PorIYAsKtKxVviG5ng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="T5m5iwjuoHXOEqNrRgf/hO1Tepz6cqT9Z/EKQy7LSxY6Olz2D54oGr8MzPbJpOddWRPC546f9qMw0762ePVFfA==" saltValue="ZS2ImwqvrN9jNHY1ZYQ7jg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36668,16 +36668,16 @@
         <v>116</v>
       </c>
       <c r="L13" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="N13" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="N13" s="18" t="s">
+      <c r="O13" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="O13" s="18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -36796,7 +36796,7 @@
       <c r="G17" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mShm6wcPnjRCR+g/V/klQjFLOQWV1yFclZfkHXYUg9kXrDo9joEmQEIFUD8woCu8DQTHSyGCj31nriAAx9umlg==" saltValue="vGqPfAbXc1/5vWnzGaeS0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dXPYWdPLBlpYrDZmzc5mWV/tS6g4PcSkHHdOWhfet3GJC3hphmtKeQqq4kTfV7KqP/B1iBrN76afL1S8Jti9lA==" saltValue="hAklgcvojzw6ldfd894fRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -36933,7 +36933,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2QSAjDxfvy0RyavCaGbOeAzkNMJaUPjkPdXHU7QXgn+bSBYJQda71JC0SQbfWv3xtRAHweQ8SlzM1Qj4MKMbuw==" saltValue="9l41bzkzCnVpWjlwaBPF7A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FiublSlois3ORYQ+7I4Kmrg/CzlhjEA54Z/VbmbqCoCdHMQctwZ+iCRhVcKyzo4Vp9NLuoUcD0QhbPttETsDdg==" saltValue="TwGPhXedFu2Txl3Xmdib3g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37140,7 +37140,7 @@
       <c r="K14" s="115"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ziWl5pXyJkUwVv7bZNt/gR2Y/D9390BJeYWOrNmTe6PYyXT+i2gYj0BpVrVwhGUgFPZXj245HJMAdR7TfD+7Ow==" saltValue="lgFW1ou1s3g4kh8Hh7/90Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rvRd5z/QK1OpyGcneUTbj1P+z0VmfWheG2v3q7IDWltw1VZQwPszBqKJ0QbAUkVgfZBAWV9oEvhPkfi1gkHm+w==" saltValue="R4ujN/+vVz8Yh49DNOph8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37221,7 +37221,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="E/9rPgXTOEO13pfLyDro//BVhOa63xB7tFfM37hv9YnJpvvrxA0vzPU2TYxBlQXO1NZB9qdCTsNuL/xB5lbvPw==" saltValue="wERP6aZK3AMpPrJ4CvYMRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aXJypA+OFTDwDW0Z2KnQrjnthBP0+S9jMLSEM/A3ShKq0dLHZzufTGdaL90R2qNITLhETjOoMtYIg3jIUZ2JgQ==" saltValue="0TUDHJAcdpbSZ2VTC2gUVw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37481,7 +37481,7 @@
       <c r="E21" s="62"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JgeVgsOvENw5wE3c26J4L4MpYkTIsmgJ28MZ7H6g6Vc7k5d141YUy5aZijYS0AgTQJaHXFs1XBykvC4bYnQQQA==" saltValue="w4fqxMWEs9MSysm+8eqjAA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OaRv81IbgM9aR/Yf3MHICpwgMlyaIEJFwd+igOrMQe6uxTfFZJawcpR3rqry8eKWI0CgMVlt22L/cWfDhlGtoQ==" saltValue="CTta7QcBg79EHSa+kQ9A2g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37545,7 +37545,7 @@
       <c r="D3" s="62"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pB9KSv2H+tKsub1HoeZ8Ypi8Tu7+gg3cQL7KP1N8+V37K5jJlz0lGBnpoW6L3iVE3IZSQNvB03b8zvq5LQbTsw==" saltValue="vB8RYix+78bhB+dNBZDksw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dwCcNrYUDTjShpY2a43eXBpFVSdqI4KeILdx/joUl/N4MaxoKBB8YX3MJi3FxV4jvq5b3VqCcIVtUw+l/mZ9Zw==" saltValue="TQFCRvdxtSvdbm4HGPExZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/es/demo_region2_input.xlsx
+++ b/inputs/es/demo_region2_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\es\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{654B1CC4-A85C-46C7-A1E6-2EC3A936AD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8C2FEE5-74EB-4FD1-8126-308579D837AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="6840" windowWidth="31920" windowHeight="14040" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5574,7 +5574,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BaEayyV/HKtRkJEfjcOXKaXHulGdpGWTXu36kMt6hn6yEFfp13BZp8BnEbx/3qJxCKU8nGX5cKZtjzsWmRidqQ==" saltValue="fusTRXG1rbjsO/EvP+ueDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yBEiuLZso+NGCnMl371NiZUZqXY4rJs0j4idySEp9REd6kReeP6rVVQ+xgGb1AU8q6Yf6RwBFvSnDBJzEpBWXQ==" saltValue="TiGmk3ooOSRd1fu7z/1uEw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6503,7 +6503,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="phQEDwHVDQvUoIPnhG5WWVWkaggVLW+Bxr/wEDxmOyQCtFcDjqzwpmka1TNzSN6XDREsWXIvE5roMO6b3feBxw==" saltValue="Iba4fFnLtuJ1RFmdJtsuBw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9syZ0EM/LG/gNHOAOzMkCgehrfnJ363VTDf5Y1cBelEDmm9EfxuSRZJNBnJQvuFG/BxLaFRI03dXsa3Qb3+0aw==" saltValue="gSk+XFEyplwFw0raq4IcOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6667,7 +6667,7 @@
       <c r="C20" s="67"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dpmvQYG4qqkwTcQRVi/cYN+zvBT3ESHzAKgt3Nk1p4Cf2CRu1FXTPwS7Wpvt3rvVkn452JN+sVU81zyxMk14IQ==" saltValue="nDE0j7ijfo3IzHtBl3wkXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xA3LdfTFQTAZEgkL74ET6sfBJRpN9prdmNg+VWRRJo8A/ZwlqkvXjCpJysppExBRqjHVq54aMV1oxK1ZFPMjHQ==" saltValue="YeCMKwM3lKn7n6buWqMS2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6767,7 +6767,7 @@
       <c r="A19" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="d57GO2PWfWs4ffM4Xxg9d5+zfSOsiXwsHsBB4V6NIOgiu+6DFnjzF+y2GC3HCROGLI6Fb+TTgtf3W4PC7jiVtw==" saltValue="IDgmHT5OHbskB8x5KFEZug==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zLHKKpnkWM4+467ARwcYo1zDGUDF9f+hT3BnKG+ibsbpKLRlm4sKwKyKqrlkUNZ+DsApZl5mDI1QDAE44DJOXQ==" saltValue="FXNLH33DY8v8gwL9BtP/Bg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6882,7 +6882,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IawMynxdEUmMDr5853ybsAfjO7Jvil9QRCk+1nWpgAn+r/JtDwK4HEav+CWH1tnLPzf/jRCJcEcpYIlQkeWc4g==" saltValue="1M1a/X7VoxDuBwEbfoWuIA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5lIPClPAd6LMVqF+E4RMVasXYTluFZ4ScUpqIErgH67X9lGMi1KJrL2+A6qBxzvQO0kNpyiWJr1hPoSQvvjedw==" saltValue="09rTiBuiQ2SDegHmC3N5Wg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8643,7 +8643,7 @@
       <c r="B40" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MUVRVyYj2cHGykGk05h7P8eRS/18arpMi+EGwhA/LW9VjAB8vgaDI3dbZ1WbfLnNvupVatkUaOODOngwgNYEhw==" saltValue="GOeQxqw/aYJdhCfsBPVaew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sptgeSNKICelXXFLlqs56er6ahuuHTWx/XFmjZTZl//ErCxJyv0CFFJ4x0FsATa8iEQy5rAELBJOWOxyrE82Nw==" saltValue="WSKP/hPuOTzYN/ytKCkpEw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8683,7 +8683,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GgtwHEC2hKpipNOaQEtDVdSk/KNVegYl7TeMiZp402YSJ+XcyWAfPBkEiSa0nWbdIEN4O5yB9jbrL91d4kDVbA==" saltValue="zG6dlf78EaH2Ipqwf2dj6g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GFq1v4HUlYDbEJbG7be1bKhnEXU7iQKrrWde1xiBmLWE73nrSEAlR1Sah2K9AKslBssZYGX0Gz/KOvNExDKa/A==" saltValue="sHClPcHO0HOkgmimxuxwpA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8888,7 +8888,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Q2eXMaisZ/ciVN4eypwpLe4qTCPjj4A8D0rbz+Oe/wXVHygB/yDRw8Ts9qlY37ady6VE3nvr+PYiI7ZrB/nrXw==" saltValue="VheOyiYQl2wIaRa+klthtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sCn08c8IUDU97mFJtz94xlJtwiskOd9jRUTvGh11mJo4hKf/GMG8XdUqblmENA5npXt4cQsDIXuSAEeIiSMsVg==" saltValue="sSOHsPJx54A9kwCaRb7QHg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10702,7 +10702,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qlRxucWgh+MO/pXQSzKplUBMZOLpO2KBwK4smR40tQbje+ABbr+sGiN1DfikeZdWYKmPQzZ/42r2PzVAHfM9ow==" saltValue="4LqwiopzfFa8+kEr8hxBNg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="USKBvasvla5BObPge5H/oCdTHye1eNj92DnI3Ns2U/yPoIoyL6Fo5AUTx3TD3nqOqmOP8YttUlpbAOfPdX3MaA==" saltValue="xz7pT5ISV+uH/WpXtgQCvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11469,7 +11469,7 @@
       <c r="K39" s="101"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rnGDNzz0cI8mqRJrw4jm5idlIxbw4spP+4Ea7jjoYENKLmhAL+NXuo6PtH+cEKy+q8LkIfGtO58NVjRa1LbqCg==" saltValue="THxS4Cvn+SbVJ2wJ6aTEjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6QDvwRKj1L2f3KsJnOMkvZeiIV9mXoSwW9/z/oKewQ+UctbTmCN1+hh8d1+pOCP/4YdkTO6JYuhOEVF2XiHdeA==" saltValue="n3ahZd1KWLe7sEyF+CUWUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11843,7 +11843,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0X6NxCIzGKfx3HKPLXvjhuWxRd1J4RuoPKw5lt/KJskj1h5U6zrIxbjCP/34pTqwpdAg+emMo5W6GMQa+joqoA==" saltValue="E44Vj0z6S9Dc4asx1flpCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="L+OxaN9pLRPcgbgJut0CdX/3Dbcgg+UCK7baZ5SCoD44YNEpNBtDGIjQU3z31nSXayG9nDbCe25FDEC4Jd/tAg==" saltValue="8wkqEb7KFtK8fE/XcyHOqg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12932,7 +12932,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DmcNiEIYhMC7ps7ZscQPEw34WEDJe7qh8iJ6uEpmOSJUEkjOWNKV0lSJ+knbcvcPPo/xzRclltClDooYYqVPrA==" saltValue="FWp7ToR1+7ZwoTXeNW0taw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="12jt4Px0ZSo1q/GWSTAa2lIRODSaZ+kwAor9ut6jEmLa9odWMZBaPJbIicPiDTBh+lwQ6knORmgK6Yc8Vu30jA==" saltValue="8Dmy86TyUdNfhLJrPfXAEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -16749,7 +16749,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="l2RQeDIlMx4gNtAicCdeF07YD26y3KjXjGyDyWcfCGyMey1tVhYZThLUkL4WtB+nCiaoCoD/hu8na9ZbKJo5BQ==" saltValue="LNUqN7eN0LtPgp4ltt6tww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="y09Uyugi+N/9MI9XWV8MU+I7x54BnHRHcQQxKafD5g6NJsK0ifuSxK3uDxwlGBWG0aiP8AMrD701uVys5hcghA==" saltValue="0BbtdoiVJetlEZlE9tLEcA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -18018,7 +18018,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7tJjj7C2B+irX+kXKxX6YsS1AO02BMhouJ4Ur1s7G/rnO7WTTtprfOUdRXGehpbfu6F3gxX5/narCHgGyGkCHA==" saltValue="u5ib2CNgf0ZuVkCk10ea6g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KjVyz4fv1luWs38OK44CZ+mKit+/ysQg0Esu71ZNe/IOs1liDdMjI/9PjPx9VDFU4kbc1cuLKrn8lFG2vP1H5g==" saltValue="BXsSoTXsvqXinFyb3/v7Bg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26159,7 +26159,7 @@
       <c r="I328" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="T4h18s/FLErNSra2Rss2+62AWG9m+Kt2l9w6IF5WSGC/PFJ59dtpuWZ8HcrSfDGCQuntNq4pygYri78cIqhwDQ==" saltValue="TNkRCaGiHUsGf1mOw4s8Wg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OXn59w07MQd3cKWWeCs2D4x++tL1ZPFIEurTyj1OolGzZGNPxdEPmKZef4TZYgjjKNuHL6zdjerA05Wi4Zf2+w==" saltValue="Umb5EplfV8ftyjCpfT809A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27251,7 +27251,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kGvnbDTOHvD70ER78mtitfb+HXd67Qm19lYGy1I1VglU6L0NE1W3Tz89h3ESutpNRFs6dXbquUVGO5VsE/ymbQ==" saltValue="mS9NwedGURg0orjq29KFvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="G3bSPFs2STF/XxbIBqTz0UXMCsVanmF7DsNI8sSQwT3BUjXlS+elQrXM4eOvxSjotRw7Fvzv76uxmLJ2K0taRQ==" saltValue="w2Nyc6iQwFMnf/Rhp0ydzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28126,7 +28126,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IMIR6OxJYmLhMGkfUnwMSDD3tBRUOCLX29y5Y/Klc9fnsuv8EYxJHbeftxPYx5crAK1FK9Ur/h12Ehca21zExw==" saltValue="EosxUCZURm6tLgBXd4Y/yw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Fq8nimE7GtRV2ZFqaFA59zpsNf5NwWkPFwoMvVqmx+0ZG5XDZjfdm+f+yg4qfhwPj+3/xcNzQdBWhWcpRgbosQ==" saltValue="eSRfmoX9PKca7tW2/rV+7w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31013,7 +31013,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1RVyqwEekcutqqzxacZfWvO2CrdxrrVmAj/JXuxE018qdbYy2I6+S12EjR9YADYJzT/sx3uCJCYtwvZiLLs/lw==" saltValue="23j2czucA0DLbE1LZdcZcg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="i3kZZPogOPqK7TPbOPFBZpPbgj0rrrNkaKrwOWSzfy22CKukKHgG7IMLw8HaQpcvpT+D0O9IGALW329pTDGMmg==" saltValue="38Lx1GwthUB3tUfm3XriRA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31297,7 +31297,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4fTHjrzIWGCvTMVFDnrtqJyBBkJhPlWbFubJDP6ekRHN3H4B4rUuvjkR1+rCG9UIx+ULJBisU5D0pygWKe8pjA==" saltValue="/CzrcoPlhTKfmMVfJ7As0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vBdzZfemFWj+KR+tKKWYZglszfUaXdRC6lz825HVJDaYGO1U9pLn7GRHAPxZQCmn9hXXtNJ88ilZmG32c8DchQ==" saltValue="qQ2p/ESI+0EVR3NZQ3Lcww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -35414,7 +35414,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RIpLaPJbA1gP1FFBnpUh3o/oWcQZR93E5ZGQfNB1bGra8D315IzXEdVOOLmC1/B2yMn5eT2IhiPn95JiSpLenw==" saltValue="qj7oxrcW0xvdbe0NOGt73w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rDItpvfHBa5eP2hfm4tJn9dp8hK7eS/m3EvefHYaP46T2hYWbbSlZJx4z2AD1/nhrbHiWW4BT4JOrQxNMH85ag==" saltValue="AE9p+h+hZPHDWBHVd5AgvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -35932,7 +35932,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CDjyz3H84KN9z1EarorrJPWzl2LVu8R4n/tiAAQnbpNWzoKwBT+BuRttK0FsHGld1FbyXgHH69++mPhGXh+C1A==" saltValue="HMHdUQI74rPmkiVspTeU0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jTAMSLdh6BS5rGoLJPfwKDggZC2EAQx41X1peP0k4cWXPyucS4bb2k5gabQtEeUtHAOUp+q1LZPqGxeHwQJtnA==" saltValue="JbNJz+vyusUogRap9l91Pg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36372,7 +36372,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="T5m5iwjuoHXOEqNrRgf/hO1Tepz6cqT9Z/EKQy7LSxY6Olz2D54oGr8MzPbJpOddWRPC546f9qMw0762ePVFfA==" saltValue="ZS2ImwqvrN9jNHY1ZYQ7jg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RscGG2M0a2mJeyS3u6T1Y0gu1I8s/+mBAMY8Jn6UfbRkY2LdGevXmvyN5dSSYcaFy8oa6YjcVkA+aiXeccsKWw==" saltValue="chHZwoYjIRPo5AnMQOS79A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36796,7 +36796,7 @@
       <c r="G17" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dXPYWdPLBlpYrDZmzc5mWV/tS6g4PcSkHHdOWhfet3GJC3hphmtKeQqq4kTfV7KqP/B1iBrN76afL1S8Jti9lA==" saltValue="hAklgcvojzw6ldfd894fRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8nyHFT3qZs1vBl4nyM6fVQmI/FC6vSfpIknhhJ0DPjUVw+MfJxatKQiyNfidV0C8dot2ZR5ak6B3urUHlUE8ZQ==" saltValue="hFFLNXHu8HbjvvEtLBs6HQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -36933,7 +36933,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FiublSlois3ORYQ+7I4Kmrg/CzlhjEA54Z/VbmbqCoCdHMQctwZ+iCRhVcKyzo4Vp9NLuoUcD0QhbPttETsDdg==" saltValue="TwGPhXedFu2Txl3Xmdib3g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="i9HiJN4iH3+6XQAFM0vYPOXHCNGn1VC3df6Qr83U1HCOVJVtYbtbAts2+3oJERlq4QSTXQXqeQsnER9G66QGgA==" saltValue="83FMu59qmVWYE2BL1M+Ieg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37140,7 +37140,7 @@
       <c r="K14" s="115"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rvRd5z/QK1OpyGcneUTbj1P+z0VmfWheG2v3q7IDWltw1VZQwPszBqKJ0QbAUkVgfZBAWV9oEvhPkfi1gkHm+w==" saltValue="R4ujN/+vVz8Yh49DNOph8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OUJbycK8xGCYfjo5q46XmJyBJutgYfkW24Lo4FsAhBOaPFkGCENy6JU4v6Y1423Zcf3rZXpJXZ3+I6YSMrVYqQ==" saltValue="tgFP8olKAWHlXrp+UtrjAw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37221,7 +37221,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aXJypA+OFTDwDW0Z2KnQrjnthBP0+S9jMLSEM/A3ShKq0dLHZzufTGdaL90R2qNITLhETjOoMtYIg3jIUZ2JgQ==" saltValue="0TUDHJAcdpbSZ2VTC2gUVw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="02m6K16jpPKaS3CXpeldFSaTz/ljg38i0dLJqV3rdQ69+Pehz4+TL7LVGE5MkVi+2I0/1cUXjldKECEGjirQ9g==" saltValue="GE71AFvNEWTEJ5WkHVWsKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37481,7 +37481,7 @@
       <c r="E21" s="62"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OaRv81IbgM9aR/Yf3MHICpwgMlyaIEJFwd+igOrMQe6uxTfFZJawcpR3rqry8eKWI0CgMVlt22L/cWfDhlGtoQ==" saltValue="CTta7QcBg79EHSa+kQ9A2g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="f7KM1RsygN/8nT/LDYhbzv/05slgau0gaCwQigKPhOJuNM0yQepQAYKzNKK63Dit2XbeDo8c6KuFwpn3BoYLeQ==" saltValue="DZP0cs73nX9TWEvG1PP8ig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37545,7 +37545,7 @@
       <c r="D3" s="62"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dwCcNrYUDTjShpY2a43eXBpFVSdqI4KeILdx/joUl/N4MaxoKBB8YX3MJi3FxV4jvq5b3VqCcIVtUw+l/mZ9Zw==" saltValue="TQFCRvdxtSvdbm4HGPExZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uT2RVqM7BPmQdkmISo/yAr9AtukRDTuATTx7geM2A8/3A8veQEEehaJbMtxpYxfKyKa7OrHMPZiQtXs9JoIZcg==" saltValue="LUJjdi+pKho6MVXWJp+edA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/es/demo_region2_input.xlsx
+++ b/inputs/es/demo_region2_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tharindu.wickram\Desktop\Modeling\Nutrition\inputs\es\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18AC7A19-A5A2-42A0-9D86-B9522F8ED727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52AD42AE-1A5C-47A1-823C-E74140644DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3670" windowWidth="19200" windowHeight="6530" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5686,7 +5686,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/69nfDg+HXgksT+EduimjnwaSU4GkBxkQDPcZ2FoGCtPR0Qh2pVS2KOidF7yjc2Z+2WqzTdDR0YnSIVWUOQMuA==" saltValue="B2x54EGjQIH7a66ZJGV0Mw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="evdfmx+CvYhINGwCGkBBEsctfyMq+y+hmIMhdtlZuAibdMKjh1H0VKz7p8AxRrlUACm/wjvjfW2Pi2JwP2ba8Q==" saltValue="2no6u8NewJlWmbzNlAn9ig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6615,7 +6615,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="a7ryRRXd9/UFLY6qLjurIlqFlCGp32G27yVsVtjgWuBV38mzNQCAbeTwxVr7mhTdi7xuKfAzXRm3f1aPACxgVA==" saltValue="aZdTpFTLK8Bfk9G45CgFVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2/ieJMs7Vjs3EuA3G0lr8opZUwKRoMIzDj3+NmXX/Wnma6Db3NzxIEqatvZYz4NPR4yvqwzJgFdr8lr/pGlGHQ==" saltValue="BqBtkCTG2o7IkPvLXoYtDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6779,7 +6779,7 @@
       <c r="C20" s="67"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="760+Lui9AXvT7WcmrfyF8x/lJMEn0ERCkFZARg1O5yHB+G0JFYObFWkxfdZQsnAR6NbIlkxvZqF+PVRB7jnTXw==" saltValue="QSrJ5nGm6bOdOhTyMzTlyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Iv+gK/WyuZeiTYvlG8xi2XjytQmQbb9kvJ44MyIqA5D+akvoMWYyzE3IvFuxCkbtrQdg3ICqPeRAHRCXzh/pdw==" saltValue="6j5/vREhJBlIvz3WY1m4Ig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6879,7 +6879,7 @@
       <c r="A19" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WOwy6Cm8ZL9LjAkad29roiN8xSsGU1b9TeCD6KZivsVjDiQSBjZgr7K474Myf8+NHEYf/kgrpFVXM7JEmukHZw==" saltValue="QjFqpkcTi/wrmaV3rj5E7A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Mpll5Aqn16g6AqIN71cXwUyOjYdincOCR+K+Bef3fhOFhgIY64tADIxb72snbkooUzQ3/vkwOOuQCHP3KbZDgg==" saltValue="57HwZPQRuuQ7p+bRtZJmgw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6994,7 +6994,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6fG/1VzUDnRSrR3JOCKzSsz6PFBk5/xERVvsb1phdPApzqmB3MdfI9EMaKeUyL8+GMdZCpd5oEyX8VzBwHfJbQ==" saltValue="OXoyzNqY22ZAQHbzCRJlhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uv6sFMrL2feNUe6rJLLkHrXMDSGUHmYNegojzDa5T55SAvPbVmifPRsy/flVvaYckxo4Rrw9tK72vjY3ipIcaQ==" saltValue="UyENsi76VkqK2+5Anvaymw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8755,7 +8755,7 @@
       <c r="B40" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/LZADIhEyvadlKZ6BnuOf2psa9INOUUYDvMcxXsL23KNHAz7ThrtS9Hppb0eDgplpgOc4TpUB1szqKrr0ON2Cw==" saltValue="dHcul+7tC+oa7r2XN7ncGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uGE/nDEBpjinbKQ22x/jkviOv6S0UnZlzttbmCimzthBn4EzHd6rM1McIVvh8ShGdtiMBgoH2LRu39nuofo/rA==" saltValue="adC9xfpNqanIsA0pNVwSQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8795,7 +8795,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9HKucGLakHsqdJp36hJcfVdjDh7aIWzkg5xAjhOm5wHsiTzAKBCLEV+HezFd2q0WTP1BBEBO+T1+SojmmbugtA==" saltValue="SpFno4XAwlnBicAHUe+siA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="P7fz9PZY/NdM8v8jcJNA6jmDP/KQoJD0D+g/zVldvSO35bpojwXNZcckrx92Q5HHRMaZISREzltDrL2lwHNrgQ==" saltValue="gucqTOpVXe2Z+Q0Es0nxDA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9000,7 +9000,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Bj2Ru1VHXD6+Fyxfhe4IRK76aR+BZ5zi3W+4mnK3o7A+gmwYgW7ICMnzfZl8vDJUGVXv7o+uHh/CVU0ZlZGSwA==" saltValue="yhUVm0ti7fyCR50bjzvwNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SWsrq9BFS4S37oeCQOm9wCtaW4Zn2PgieCqMmVY4IxBZtiphxwmXjefh1LG+KXXiZFf1Vr1cv2gzf22wX04MQA==" saltValue="5DCJEyYgxedSqht9saEmhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10814,7 +10814,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bdQKOfctaF8hAl5z2JyUPWA1Ffn8yzMtQR7TkibJ34JHPAinmszVyKtTpGyUHsRyMjPGzLKjNEV4GOP+EnudrA==" saltValue="3mC2JE70Gf9erEgfUM4Crw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="x0R2vLSceC4hdJnj7zq7KSgWuY8Grye8ULJ9kCn+k9nWOw0Iw6U3ylKjqyJAvldqjom7CawfIOjGv2SAwSWHiw==" saltValue="fMBAACLr1EAQTCtsv/DZiw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11581,7 +11581,7 @@
       <c r="K39" s="101"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+63QVJOEOM+meIABQw49JtPlqj0Ynd4AK9Ev6GnkzTzGkL4R1PBWutEZoJ5srnmKhcb6N9NX/9xUa369oD5OKw==" saltValue="wp7L4i5863waYfWnuiv81Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YShOXiaH2MwJKu58A1QagrgvseHr029eil93tA5kQYuuSpcqDzvzbfbRQWpmNlZ2zKcMQhQzjdslDBXzgeuHQA==" saltValue="TcKQHbcyxvOgqlLCTliFLg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11955,7 +11955,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zKGbdJM4coK+po6e4ltDMGPjwS7X87iKh9sMYi0eIyQArSY1Wf6WZeSGRe6TFNBEp2lzBCXtoBp1StFuYtnQDg==" saltValue="HiyoeT1zeWH272SMoWQWFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="47tKui3nRfQ8E0yc5Isq1Upz6qVfHHnh6mKK2kDMCOG2OojBHT5fatmZsIcgycBcqfRG1k6kB2v8Uf/vGV/Hvw==" saltValue="f7PJaBaMPwK7555zOwZ1jQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13044,7 +13044,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9vyawTV4oQkYBe7u/c4eajG3B2y+uh0+iXTUTu96DhT1Bz4LRajbu66mFzY3ogf0UQvyJuOMJv0iIZNfVpCVOw==" saltValue="qtmDdMc31/pvNxn+28S6sA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vsUu7rKkbbvchFbaAFgE5GqNdVPCh438EXdl9htbX3166q6aT6DPA9nhdBKwiQ6mrHGKwhMrI7FTbY2gMZz8bA==" saltValue="JflbXHILHXwTP0PDIM2MFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B17:C17 E17:I17 B18:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13063,7 +13063,7 @@
   <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13178,8 +13178,9 @@
         <v>150</v>
       </c>
       <c r="D5" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$C$2),1.56,(1.56-'Distribución de lactancia'!$C$2)/(1-'Distribución de lactancia'!$C$2))</f>
-        <v>4.5</v>
+        <f>IFERROR((MIN(1,1.56*'Distribución de lactancia'!$C$2)/(1-MIN(1,1.56*'Distribución de lactancia'!$C$2))) /
+('Distribución de lactancia'!$C$2/(1-'Distribución de lactancia'!$C$2)), 1.56)</f>
+        <v>1.56</v>
       </c>
       <c r="E5" s="102">
         <v>1</v>
@@ -13200,8 +13201,9 @@
         <v>149</v>
       </c>
       <c r="D6" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$C$2),1.56,(1.56-'Distribución de lactancia'!$C$2)/(1-'Distribución de lactancia'!$C$2))</f>
-        <v>4.5</v>
+        <f>IFERROR((MIN(1,1.56*'Distribución de lactancia'!$C$2)/(1-MIN(1,1.56*'Distribución de lactancia'!$C$2))) /
+('Distribución de lactancia'!$C$2/(1-'Distribución de lactancia'!$C$2)), 1.56)</f>
+        <v>1.56</v>
       </c>
       <c r="E6" s="102">
         <v>1</v>
@@ -13248,8 +13250,9 @@
         <v>1</v>
       </c>
       <c r="E8" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$D$2),1.56,(1.56-'Distribución de lactancia'!$D$2)/(1-'Distribución de lactancia'!$D$2))</f>
-        <v>2.0055204598486145</v>
+        <f>IFERROR((MIN(1,1.56*'Distribución de lactancia'!$D$2)/(1-MIN(1,1.56*'Distribución de lactancia'!$D$2))) /
+('Distribución de lactancia'!$D$2/(1-'Distribución de lactancia'!$D$2)), 1.56)</f>
+        <v>2.8134491663553263</v>
       </c>
       <c r="F8" s="102">
         <v>1</v>
@@ -13270,8 +13273,9 @@
         <v>1</v>
       </c>
       <c r="E9" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$D$2),1.56,(1.56-'Distribución de lactancia'!$D$2)/(1-'Distribución de lactancia'!$D$2))</f>
-        <v>2.0055204598486145</v>
+        <f>IFERROR((MIN(1,1.56*'Distribución de lactancia'!$D$2)/(1-MIN(1,1.56*'Distribución de lactancia'!$D$2))) /
+('Distribución de lactancia'!$D$2/(1-'Distribución de lactancia'!$D$2)), 1.56)</f>
+        <v>2.8134491663553263</v>
       </c>
       <c r="F9" s="102">
         <v>1</v>
@@ -13481,10 +13485,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="102">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G19" s="102">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="H19" s="102">
         <v>1</v>
@@ -13502,10 +13506,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="102">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G20" s="102">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="H20" s="102">
         <v>1</v>
@@ -13523,10 +13527,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G21" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H21" s="102">
         <v>1</v>
@@ -13588,10 +13592,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G24" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H24" s="102">
         <v>1</v>
@@ -13653,10 +13657,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G27" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H27" s="102">
         <v>1</v>
@@ -13676,7 +13680,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="102">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="G28" s="102">
         <v>1</v>
@@ -13697,7 +13701,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="102">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="G29" s="102">
         <v>1</v>
@@ -13718,10 +13722,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G30" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H30" s="102">
         <v>1</v>
@@ -13744,7 +13748,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="102">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="H31" s="102">
         <v>1</v>
@@ -13765,7 +13769,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="102">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="H32" s="102">
         <v>1</v>
@@ -13786,7 +13790,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H33" s="102">
         <v>1</v>
@@ -13806,10 +13810,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="102">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G34" s="102">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="H34" s="102">
         <v>1</v>
@@ -14034,7 +14038,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="102">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="G45" s="102">
         <v>1</v>
@@ -14055,7 +14059,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="102">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="G46" s="102">
         <v>1</v>
@@ -14102,7 +14106,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="102">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="H48" s="102">
         <v>1</v>
@@ -14123,7 +14127,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="102">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="H49" s="102">
         <v>1</v>
@@ -14158,16 +14162,16 @@
         <v>155</v>
       </c>
       <c r="D51" s="102">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="E51" s="102">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="F51" s="102">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="G51" s="102">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="H51" s="102">
         <v>1</v>
@@ -14302,8 +14306,9 @@
         <v>150</v>
       </c>
       <c r="D58" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$C$2),1.37,(1.37-'Distribución de lactancia'!$C$2)/(1-'Distribución de lactancia'!$C$2))</f>
-        <v>3.3125</v>
+        <f>IFERROR((MIN(1,1.37*'Distribución de lactancia'!$C$2)/(1-MIN(1,1.37*'Distribución de lactancia'!$C$2))) /
+('Distribución de lactancia'!$C$2/(1-'Distribución de lactancia'!$C$2)), 1.37)</f>
+        <v>1.37</v>
       </c>
       <c r="E58" s="102">
         <f t="shared" si="1"/>
@@ -14328,8 +14333,9 @@
         <v>149</v>
       </c>
       <c r="D59" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$C$2),1.37,(1.37-'Distribución de lactancia'!$C$2)/(1-'Distribución de lactancia'!$C$2))</f>
-        <v>3.3125</v>
+        <f>IFERROR((MIN(1,1.37*'Distribución de lactancia'!$C$2)/(1-MIN(1,1.37*'Distribución de lactancia'!$C$2))) /
+('Distribución de lactancia'!$C$2/(1-'Distribución de lactancia'!$C$2)), 1.37)</f>
+        <v>1.37</v>
       </c>
       <c r="E59" s="102">
         <f t="shared" si="1"/>
@@ -14386,8 +14392,9 @@
         <v>1</v>
       </c>
       <c r="E61" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$D$2),1.37,(1.37-'Distribución de lactancia'!$D$2)/(1-'Distribución de lactancia'!$D$2))</f>
-        <v>1.6643617323999775</v>
+        <f>IFERROR((MIN(1,1.37*'Distribución de lactancia'!$D$2)/(1-MIN(1,1.37*'Distribución de lactancia'!$D$2))) /
+('Distribución de lactancia'!$D$2/(1-'Distribución de lactancia'!$D$2)), 1.37)</f>
+        <v>1.9415046815127641</v>
       </c>
       <c r="F61" s="102">
         <f t="shared" si="2"/>
@@ -14412,8 +14419,9 @@
         <v>1</v>
       </c>
       <c r="E62" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$D$2),1.37,(1.37-'Distribución de lactancia'!$D$2)/(1-'Distribución de lactancia'!$D$2))</f>
-        <v>1.6643617323999775</v>
+        <f>IFERROR((MIN(1,1.37*'Distribución de lactancia'!$D$2)/(1-MIN(1,1.37*'Distribución de lactancia'!$D$2))) /
+('Distribución de lactancia'!$D$2/(1-'Distribución de lactancia'!$D$2)), 1.37)</f>
+        <v>1.9415046815127641</v>
       </c>
       <c r="F62" s="102">
         <f t="shared" si="2"/>
@@ -14665,11 +14673,11 @@
       </c>
       <c r="F72" s="102">
         <f t="shared" si="3"/>
-        <v>0.88200000000000001</v>
+        <v>1</v>
       </c>
       <c r="G72" s="102">
         <f t="shared" si="3"/>
-        <v>0.88200000000000001</v>
+        <v>1</v>
       </c>
       <c r="H72" s="102">
         <f t="shared" si="3"/>
@@ -14691,11 +14699,11 @@
       </c>
       <c r="F73" s="102">
         <f t="shared" si="4"/>
-        <v>0.88200000000000001</v>
+        <v>1</v>
       </c>
       <c r="G73" s="102">
         <f t="shared" si="4"/>
-        <v>0.88200000000000001</v>
+        <v>1</v>
       </c>
       <c r="H73" s="102">
         <f t="shared" si="4"/>
@@ -14717,11 +14725,11 @@
       </c>
       <c r="F74" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G74" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="H74" s="102">
         <f t="shared" si="4"/>
@@ -14797,11 +14805,11 @@
       </c>
       <c r="F77" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G77" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="H77" s="102">
         <f t="shared" si="4"/>
@@ -14877,11 +14885,11 @@
       </c>
       <c r="F80" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G80" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="H80" s="102">
         <f t="shared" si="4"/>
@@ -14905,7 +14913,7 @@
       </c>
       <c r="F81" s="102">
         <f t="shared" si="4"/>
-        <v>0.70200000000000007</v>
+        <v>1</v>
       </c>
       <c r="G81" s="102">
         <f t="shared" si="4"/>
@@ -14931,7 +14939,7 @@
       </c>
       <c r="F82" s="102">
         <f t="shared" si="4"/>
-        <v>0.70200000000000007</v>
+        <v>1</v>
       </c>
       <c r="G82" s="102">
         <f t="shared" si="4"/>
@@ -14957,11 +14965,11 @@
       </c>
       <c r="F83" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G83" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="H83" s="102">
         <f t="shared" si="4"/>
@@ -14989,7 +14997,7 @@
       </c>
       <c r="G84" s="102">
         <f t="shared" si="4"/>
-        <v>0.70200000000000007</v>
+        <v>1</v>
       </c>
       <c r="H84" s="102">
         <f t="shared" si="4"/>
@@ -15015,7 +15023,7 @@
       </c>
       <c r="G85" s="102">
         <f t="shared" si="4"/>
-        <v>0.70200000000000007</v>
+        <v>1</v>
       </c>
       <c r="H85" s="102">
         <f t="shared" si="4"/>
@@ -15041,7 +15049,7 @@
       </c>
       <c r="G86" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="H86" s="102">
         <f t="shared" si="4"/>
@@ -15065,11 +15073,11 @@
       </c>
       <c r="F87" s="102">
         <f t="shared" si="4"/>
-        <v>0.85499999999999998</v>
+        <v>1</v>
       </c>
       <c r="G87" s="102">
         <f t="shared" si="4"/>
-        <v>0.85499999999999998</v>
+        <v>1</v>
       </c>
       <c r="H87" s="102">
         <f t="shared" si="4"/>
@@ -15094,24 +15102,24 @@
         <v>150</v>
       </c>
       <c r="D89" s="102">
-        <f>D36*0.9</f>
-        <v>0.9</v>
+        <f>IF(D36=1,1,D36*0.9)</f>
+        <v>1</v>
       </c>
       <c r="E89" s="102">
-        <f t="shared" ref="E89:H89" si="5">E36*0.9</f>
-        <v>0.9</v>
+        <f t="shared" ref="E89:H89" si="5">IF(E36=1,1,E36*0.9)</f>
+        <v>1</v>
       </c>
       <c r="F89" s="102">
         <f t="shared" si="5"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G89" s="102">
         <f t="shared" si="5"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H89" s="102">
         <f t="shared" si="5"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -15120,24 +15128,24 @@
         <v>149</v>
       </c>
       <c r="D90" s="102">
-        <f t="shared" ref="D90:D104" si="6">D37*0.9</f>
-        <v>0.9</v>
+        <f t="shared" ref="D90:H104" si="6">IF(D37=1,1,D37*0.9)</f>
+        <v>1</v>
       </c>
       <c r="E90" s="102">
-        <f t="shared" ref="E90:H90" si="7">E37*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F90" s="102">
-        <f t="shared" si="7"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G90" s="102">
-        <f t="shared" si="7"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H90" s="102">
-        <f t="shared" si="7"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -15147,23 +15155,23 @@
       </c>
       <c r="D91" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E91" s="102">
-        <f t="shared" ref="E91:H91" si="8">E38*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F91" s="102">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G91" s="102">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H91" s="102">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -15175,23 +15183,23 @@
       </c>
       <c r="D92" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E92" s="102">
-        <f t="shared" ref="E92:H92" si="9">E39*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F92" s="102">
-        <f t="shared" si="9"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G92" s="102">
-        <f t="shared" si="9"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H92" s="102">
-        <f t="shared" si="9"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -15201,23 +15209,23 @@
       </c>
       <c r="D93" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E93" s="102">
-        <f t="shared" ref="E93:H93" si="10">E40*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F93" s="102">
-        <f t="shared" si="10"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G93" s="102">
-        <f t="shared" si="10"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H93" s="102">
-        <f t="shared" si="10"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -15227,23 +15235,23 @@
       </c>
       <c r="D94" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E94" s="102">
-        <f t="shared" ref="E94:H94" si="11">E41*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F94" s="102">
-        <f t="shared" si="11"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G94" s="102">
-        <f t="shared" si="11"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H94" s="102">
-        <f t="shared" si="11"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -15255,23 +15263,23 @@
       </c>
       <c r="D95" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E95" s="102">
-        <f t="shared" ref="E95:H95" si="12">E42*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F95" s="102">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G95" s="102">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H95" s="102">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -15281,23 +15289,23 @@
       </c>
       <c r="D96" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E96" s="102">
-        <f t="shared" ref="E96:H96" si="13">E43*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F96" s="102">
-        <f t="shared" si="13"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G96" s="102">
-        <f t="shared" si="13"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H96" s="102">
-        <f t="shared" si="13"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -15307,23 +15315,23 @@
       </c>
       <c r="D97" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E97" s="102">
-        <f t="shared" ref="E97:H97" si="14">E44*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F97" s="102">
-        <f t="shared" si="14"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G97" s="102">
-        <f t="shared" si="14"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H97" s="102">
-        <f t="shared" si="14"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -15335,23 +15343,23 @@
       </c>
       <c r="D98" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E98" s="102">
-        <f t="shared" ref="E98:H98" si="15">E45*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F98" s="102">
-        <f t="shared" si="15"/>
-        <v>1.6380000000000001</v>
+        <f>IF(F45=1,1,F45*0.9)</f>
+        <v>1</v>
       </c>
       <c r="G98" s="102">
-        <f t="shared" si="15"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H98" s="102">
-        <f t="shared" si="15"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -15361,23 +15369,23 @@
       </c>
       <c r="D99" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E99" s="102">
-        <f t="shared" ref="E99:H99" si="16">E46*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F99" s="102">
-        <f t="shared" si="16"/>
-        <v>1.6380000000000001</v>
+        <f>IF(F46=1,1,F46*0.9)</f>
+        <v>1</v>
       </c>
       <c r="G99" s="102">
-        <f t="shared" si="16"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H99" s="102">
-        <f t="shared" si="16"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -15387,23 +15395,23 @@
       </c>
       <c r="D100" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E100" s="102">
-        <f t="shared" ref="E100:H100" si="17">E47*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F100" s="102">
-        <f t="shared" si="17"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G100" s="102">
-        <f t="shared" si="17"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H100" s="102">
-        <f t="shared" si="17"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -15415,23 +15423,23 @@
       </c>
       <c r="D101" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E101" s="102">
-        <f t="shared" ref="E101:H101" si="18">E48*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F101" s="102">
-        <f t="shared" si="18"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G101" s="102">
-        <f t="shared" si="18"/>
-        <v>1.6380000000000001</v>
+        <f>IF(G48=1,1,G48*0.9)</f>
+        <v>1</v>
       </c>
       <c r="H101" s="102">
-        <f t="shared" si="18"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -15441,23 +15449,23 @@
       </c>
       <c r="D102" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E102" s="102">
-        <f t="shared" ref="E102:H102" si="19">E49*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F102" s="102">
-        <f t="shared" si="19"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G102" s="102">
-        <f t="shared" si="19"/>
-        <v>1.6380000000000001</v>
+        <f>IF(G49=1,1,G49*0.9)</f>
+        <v>1</v>
       </c>
       <c r="H102" s="102">
-        <f t="shared" si="19"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -15467,23 +15475,23 @@
       </c>
       <c r="D103" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E103" s="102">
-        <f t="shared" ref="E103:H103" si="20">E50*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F103" s="102">
-        <f t="shared" si="20"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G103" s="102">
-        <f t="shared" si="20"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H103" s="102">
-        <f t="shared" si="20"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -15495,23 +15503,23 @@
       </c>
       <c r="D104" s="102">
         <f t="shared" si="6"/>
-        <v>0.94500000000000006</v>
+        <v>1</v>
       </c>
       <c r="E104" s="102">
-        <f t="shared" ref="E104:H104" si="21">E51*0.9</f>
-        <v>0.94500000000000006</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F104" s="102">
-        <f t="shared" si="21"/>
-        <v>0.94500000000000006</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G104" s="102">
-        <f t="shared" si="21"/>
-        <v>0.94500000000000006</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H104" s="102">
-        <f t="shared" si="21"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
@@ -15567,19 +15575,19 @@
         <v>1</v>
       </c>
       <c r="E108" s="102">
-        <f t="shared" ref="E108:H108" si="22">IF(E2=1,1,E2*1.05)</f>
+        <f t="shared" ref="E108:H108" si="7">IF(E2=1,1,E2*1.05)</f>
         <v>1</v>
       </c>
       <c r="F108" s="102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G108" s="102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H108" s="102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -15589,23 +15597,23 @@
         <v>149</v>
       </c>
       <c r="D109" s="102">
-        <f t="shared" ref="D109:H112" si="23">IF(D3=1,1,D3*1.05)</f>
+        <f t="shared" ref="D109:H112" si="8">IF(D3=1,1,D3*1.05)</f>
         <v>1</v>
       </c>
       <c r="E109" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F109" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G109" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H109" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -15615,23 +15623,23 @@
         <v>155</v>
       </c>
       <c r="D110" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E110" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F110" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G110" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H110" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -15643,23 +15651,24 @@
         <v>150</v>
       </c>
       <c r="D111" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$C$2),1.77,(1.77-'Distribución de lactancia'!$C$2)/(1-'Distribución de lactancia'!$C$2))</f>
-        <v>5.8124999999999991</v>
+        <f>IFERROR((MIN(1,1.77*'Distribución de lactancia'!$C$2)/(1-MIN(1,1.77*'Distribución de lactancia'!$C$2))) /
+('Distribución de lactancia'!$C$2/(1-'Distribución de lactancia'!$C$2)), 1.77)</f>
+        <v>1.77</v>
       </c>
       <c r="E111" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F111" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G111" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H111" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -15669,23 +15678,24 @@
         <v>149</v>
       </c>
       <c r="D112" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$C$2),1.77,(1.77-'Distribución de lactancia'!$C$2)/(1-'Distribución de lactancia'!$C$2))</f>
-        <v>5.8124999999999991</v>
+        <f>IFERROR((MIN(1,1.77*'Distribución de lactancia'!$C$2)/(1-MIN(1,1.77*'Distribución de lactancia'!$C$2))) /
+('Distribución de lactancia'!$C$2/(1-'Distribución de lactancia'!$C$2)), 1.77)</f>
+        <v>1.77</v>
       </c>
       <c r="E112" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F112" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G112" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H112" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -15695,23 +15705,23 @@
         <v>155</v>
       </c>
       <c r="D113" s="102">
-        <f t="shared" ref="D113:H123" si="24">IF(D7=1,1,D7*1.05)</f>
+        <f t="shared" ref="D113:H123" si="9">IF(D7=1,1,D7*1.05)</f>
         <v>1</v>
       </c>
       <c r="E113" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F113" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G113" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H113" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15723,23 +15733,24 @@
         <v>150</v>
       </c>
       <c r="D114" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E114" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$D$2),1.77,(1.77-'Distribución de lactancia'!$D$2)/(1-'Distribución de lactancia'!$D$2))</f>
-        <v>2.3825906322918446</v>
+        <f>IFERROR((MIN(1,1.77*'Distribución de lactancia'!$D$2)/(1-MIN(1,1.77*'Distribución de lactancia'!$D$2))) /
+('Distribución de lactancia'!$D$2/(1-'Distribución de lactancia'!$D$2)), 1.77)</f>
+        <v>4.5688105335991329</v>
       </c>
       <c r="F114" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G114" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H114" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15749,23 +15760,24 @@
         <v>149</v>
       </c>
       <c r="D115" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E115" s="102">
-        <f>IF(ISBLANK('Distribución de lactancia'!$D$2),1.77,(1.77-'Distribución de lactancia'!$D$2)/(1-'Distribución de lactancia'!$D$2))</f>
-        <v>2.3825906322918446</v>
+        <f>IFERROR((MIN(1,1.77*'Distribución de lactancia'!$D$2)/(1-MIN(1,1.77*'Distribución de lactancia'!$D$2))) /
+('Distribución de lactancia'!$D$2/(1-'Distribución de lactancia'!$D$2)), 1.77)</f>
+        <v>4.5688105335991329</v>
       </c>
       <c r="F115" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G115" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H115" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15775,23 +15787,23 @@
         <v>155</v>
       </c>
       <c r="D116" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E116" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F116" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G116" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H116" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15803,22 +15815,22 @@
         <v>150</v>
       </c>
       <c r="D117" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E117" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F117" s="102">
         <v>2.11</v>
       </c>
       <c r="G117" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H117" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15828,22 +15840,22 @@
         <v>149</v>
       </c>
       <c r="D118" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E118" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F118" s="102">
         <v>2.11</v>
       </c>
       <c r="G118" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H118" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15853,23 +15865,23 @@
         <v>155</v>
       </c>
       <c r="D119" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E119" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F119" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G119" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H119" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15881,22 +15893,22 @@
         <v>150</v>
       </c>
       <c r="D120" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E120" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F120" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G120" s="102">
         <v>2.11</v>
       </c>
       <c r="H120" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15906,22 +15918,22 @@
         <v>149</v>
       </c>
       <c r="D121" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E121" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F121" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G121" s="102">
         <v>2.11</v>
       </c>
       <c r="H121" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15931,23 +15943,23 @@
         <v>155</v>
       </c>
       <c r="D122" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E122" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F122" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G122" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H122" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15959,23 +15971,23 @@
         <v>155</v>
       </c>
       <c r="D123" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.1025</v>
       </c>
       <c r="E123" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.1025</v>
       </c>
       <c r="F123" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.1025</v>
       </c>
       <c r="G123" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.1025</v>
       </c>
       <c r="H123" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -16001,19 +16013,19 @@
         <v>1</v>
       </c>
       <c r="E125" s="102">
-        <f t="shared" ref="E125:H125" si="25">IF(E19=1,1,E19*1.05)</f>
+        <f t="shared" ref="E125:H125" si="10">IF(E19=1,1,E19*1.05)</f>
         <v>1</v>
       </c>
       <c r="F125" s="102">
-        <f t="shared" si="25"/>
-        <v>1.0289999999999999</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="G125" s="102">
-        <f t="shared" si="25"/>
-        <v>1.0289999999999999</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="H125" s="102">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -16023,23 +16035,23 @@
         <v>149</v>
       </c>
       <c r="D126" s="102">
-        <f t="shared" ref="D126:H140" si="26">IF(D20=1,1,D20*1.05)</f>
+        <f t="shared" ref="D126:H140" si="11">IF(D20=1,1,D20*1.05)</f>
         <v>1</v>
       </c>
       <c r="E126" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F126" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0289999999999999</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G126" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0289999999999999</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H126" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16049,23 +16061,23 @@
         <v>155</v>
       </c>
       <c r="D127" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E127" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F127" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G127" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H127" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16077,23 +16089,23 @@
         <v>150</v>
       </c>
       <c r="D128" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E128" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F128" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G128" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H128" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16103,23 +16115,23 @@
         <v>149</v>
       </c>
       <c r="D129" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E129" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F129" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G129" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H129" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16129,23 +16141,23 @@
         <v>155</v>
       </c>
       <c r="D130" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E130" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F130" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G130" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H130" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16157,23 +16169,23 @@
         <v>150</v>
       </c>
       <c r="D131" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E131" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F131" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G131" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H131" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16183,23 +16195,23 @@
         <v>149</v>
       </c>
       <c r="D132" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E132" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F132" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G132" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H132" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16209,23 +16221,23 @@
         <v>155</v>
       </c>
       <c r="D133" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E133" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F133" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G133" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H133" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16237,23 +16249,23 @@
         <v>150</v>
       </c>
       <c r="D134" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E134" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F134" s="102">
-        <f t="shared" si="26"/>
-        <v>0.81900000000000006</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G134" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H134" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16263,23 +16275,23 @@
         <v>149</v>
       </c>
       <c r="D135" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E135" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F135" s="102">
-        <f t="shared" si="26"/>
-        <v>0.81900000000000006</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G135" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H135" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16289,23 +16301,23 @@
         <v>155</v>
       </c>
       <c r="D136" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E136" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F136" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G136" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H136" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16317,23 +16329,23 @@
         <v>150</v>
       </c>
       <c r="D137" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E137" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F137" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G137" s="102">
-        <f t="shared" si="26"/>
-        <v>0.81900000000000006</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H137" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16343,23 +16355,23 @@
         <v>149</v>
       </c>
       <c r="D138" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E138" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F138" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G138" s="102">
-        <f t="shared" si="26"/>
-        <v>0.81900000000000006</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H138" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16369,23 +16381,23 @@
         <v>155</v>
       </c>
       <c r="D139" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E139" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F139" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G139" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H139" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16397,23 +16409,23 @@
         <v>155</v>
       </c>
       <c r="D140" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E140" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F140" s="102">
-        <f t="shared" si="26"/>
-        <v>0.99749999999999994</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G140" s="102">
-        <f t="shared" si="26"/>
-        <v>0.99749999999999994</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H140" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16435,24 +16447,24 @@
         <v>150</v>
       </c>
       <c r="D142" s="102">
-        <f>D36*1.05</f>
-        <v>1.05</v>
+        <f>IF(D36=1,1,D36*1.05)</f>
+        <v>1</v>
       </c>
       <c r="E142" s="102">
-        <f>E36*1.05</f>
-        <v>1.05</v>
+        <f t="shared" ref="E142:H142" si="12">IF(E36=1,1,E36*1.05)</f>
+        <v>1</v>
       </c>
       <c r="F142" s="102">
-        <f t="shared" ref="F142:H142" si="27">F36*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="G142" s="102">
-        <f t="shared" si="27"/>
-        <v>1.05</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="H142" s="102">
-        <f t="shared" si="27"/>
-        <v>1.05</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -16461,24 +16473,24 @@
         <v>149</v>
       </c>
       <c r="D143" s="102">
-        <f t="shared" ref="D143:H143" si="28">D37*1.05</f>
-        <v>1.05</v>
+        <f t="shared" ref="D143:H157" si="13">IF(D37=1,1,D37*1.05)</f>
+        <v>1</v>
       </c>
       <c r="E143" s="102">
-        <f t="shared" si="28"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F143" s="102">
-        <f t="shared" si="28"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G143" s="102">
-        <f t="shared" si="28"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H143" s="102">
-        <f t="shared" si="28"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -16487,24 +16499,24 @@
         <v>155</v>
       </c>
       <c r="D144" s="102">
-        <f t="shared" ref="D144:H144" si="29">D38*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E144" s="102">
-        <f t="shared" si="29"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F144" s="102">
-        <f t="shared" si="29"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G144" s="102">
-        <f t="shared" si="29"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H144" s="102">
-        <f t="shared" si="29"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
@@ -16515,24 +16527,24 @@
         <v>150</v>
       </c>
       <c r="D145" s="102">
-        <f t="shared" ref="D145:H145" si="30">D39*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E145" s="102">
-        <f t="shared" si="30"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F145" s="102">
-        <f t="shared" si="30"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G145" s="102">
-        <f t="shared" si="30"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H145" s="102">
-        <f t="shared" si="30"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
@@ -16541,24 +16553,24 @@
         <v>149</v>
       </c>
       <c r="D146" s="102">
-        <f t="shared" ref="D146:H146" si="31">D40*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E146" s="102">
-        <f t="shared" si="31"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F146" s="102">
-        <f t="shared" si="31"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G146" s="102">
-        <f t="shared" si="31"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H146" s="102">
-        <f t="shared" si="31"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
@@ -16567,24 +16579,24 @@
         <v>155</v>
       </c>
       <c r="D147" s="102">
-        <f t="shared" ref="D147:H147" si="32">D41*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E147" s="102">
-        <f t="shared" si="32"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F147" s="102">
-        <f t="shared" si="32"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G147" s="102">
-        <f t="shared" si="32"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H147" s="102">
-        <f t="shared" si="32"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
@@ -16595,24 +16607,24 @@
         <v>150</v>
       </c>
       <c r="D148" s="102">
-        <f t="shared" ref="D148:H148" si="33">D42*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E148" s="102">
-        <f t="shared" si="33"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F148" s="102">
-        <f t="shared" si="33"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G148" s="102">
-        <f t="shared" si="33"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H148" s="102">
-        <f t="shared" si="33"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
@@ -16621,24 +16633,24 @@
         <v>149</v>
       </c>
       <c r="D149" s="102">
-        <f t="shared" ref="D149:H149" si="34">D43*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E149" s="102">
-        <f t="shared" si="34"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F149" s="102">
-        <f t="shared" si="34"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G149" s="102">
-        <f t="shared" si="34"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H149" s="102">
-        <f t="shared" si="34"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
@@ -16647,24 +16659,24 @@
         <v>155</v>
       </c>
       <c r="D150" s="102">
-        <f t="shared" ref="D150:H150" si="35">D44*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E150" s="102">
-        <f t="shared" si="35"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F150" s="102">
-        <f t="shared" si="35"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G150" s="102">
-        <f t="shared" si="35"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H150" s="102">
-        <f t="shared" si="35"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
@@ -16675,24 +16687,24 @@
         <v>150</v>
       </c>
       <c r="D151" s="102">
-        <f t="shared" ref="D151:H151" si="36">D45*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E151" s="102">
-        <f t="shared" si="36"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F151" s="102">
-        <f t="shared" si="36"/>
-        <v>1.9110000000000003</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G151" s="102">
-        <f t="shared" si="36"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H151" s="102">
-        <f t="shared" si="36"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
@@ -16701,24 +16713,24 @@
         <v>149</v>
       </c>
       <c r="D152" s="102">
-        <f t="shared" ref="D152:H152" si="37">D46*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E152" s="102">
-        <f t="shared" si="37"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F152" s="102">
-        <f t="shared" si="37"/>
-        <v>1.9110000000000003</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G152" s="102">
-        <f t="shared" si="37"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H152" s="102">
-        <f t="shared" si="37"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
@@ -16727,24 +16739,24 @@
         <v>155</v>
       </c>
       <c r="D153" s="102">
-        <f t="shared" ref="D153:H153" si="38">D47*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E153" s="102">
-        <f t="shared" si="38"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F153" s="102">
-        <f t="shared" si="38"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G153" s="102">
-        <f t="shared" si="38"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H153" s="102">
-        <f t="shared" si="38"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
@@ -16755,24 +16767,24 @@
         <v>150</v>
       </c>
       <c r="D154" s="102">
-        <f t="shared" ref="D154:H154" si="39">D48*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E154" s="102">
-        <f t="shared" si="39"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F154" s="102">
-        <f t="shared" si="39"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G154" s="102">
-        <f t="shared" si="39"/>
-        <v>1.9110000000000003</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H154" s="102">
-        <f t="shared" si="39"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
@@ -16781,24 +16793,24 @@
         <v>149</v>
       </c>
       <c r="D155" s="102">
-        <f t="shared" ref="D155:H155" si="40">D49*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E155" s="102">
-        <f t="shared" si="40"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F155" s="102">
-        <f t="shared" si="40"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G155" s="102">
-        <f t="shared" si="40"/>
-        <v>1.9110000000000003</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H155" s="102">
-        <f t="shared" si="40"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
@@ -16807,24 +16819,24 @@
         <v>155</v>
       </c>
       <c r="D156" s="102">
-        <f t="shared" ref="D156:H156" si="41">D50*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E156" s="102">
-        <f t="shared" si="41"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F156" s="102">
-        <f t="shared" si="41"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G156" s="102">
-        <f t="shared" si="41"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H156" s="102">
-        <f t="shared" si="41"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
@@ -16835,28 +16847,28 @@
         <v>155</v>
       </c>
       <c r="D157" s="102">
-        <f t="shared" ref="D157:H157" si="42">D51*1.05</f>
-        <v>1.1025</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E157" s="102">
-        <f t="shared" si="42"/>
-        <v>1.1025</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F157" s="102">
-        <f t="shared" si="42"/>
-        <v>1.1025</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G157" s="102">
-        <f t="shared" si="42"/>
-        <v>1.1025</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H157" s="102">
-        <f t="shared" si="42"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uYvl30JCaU2F3D6Kor5CtG8aN/f9XAEZ5PbkE3ozQObbmsD2ReRgJXlrvJWbJoGDAd2MFN6+ggp3Y+vuLkCZew==" saltValue="C442G9MgrWLJVW/LNlANvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WWaSaNQRJVkXuMmfqoi6ECKU8zG8b+258fp8BbIYWSptLNeT8je4kPxSJrSqJQoYwz/OwRsupXAWg/+FHX18aA==" saltValue="nKvzRHfRipdBUW8vGQpxcA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -16906,7 +16918,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D158:H158 D89 H104 D90:H103 D104:G104 E89:H89 D142:H157" unlockedFormula="1"/>
+    <ignoredError sqref="D158:H158" unlockedFormula="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -16920,7 +16932,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18125,7 +18137,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IBy2E/C2fR5HfpUskCPF5KAutML11oRQgn5HBtABAaOGLgSjr3+ykQ2oiz3XyOipFfwbAlU6YN1D6Mbhd8kUFQ==" saltValue="3ts7n6HYr6jDnvFZAXt7vQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MuiO5kBUgqoWqqnMysIK8TZyr1MCrEf1QxMUgnec21RFQAhrzNQR7jiYXKOWRssnmv4QBKCC8r3QVbDzxFPe/g==" saltValue="+yKvuYUD+5CdOl2y5C80Ng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18138,8 +18150,8 @@
   </sheetPr>
   <dimension ref="A1:P328"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -19622,7 +19634,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A56" s="92" t="s">
         <v>105</v>
       </c>
@@ -26263,7 +26275,7 @@
       <c r="I328" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BiI40stM7NnwtB7UJpo6+RCXepBtYG4a7tkaYZttbq20hDmX6SZg4ueFbXziHZFL8exddERRr/TQez7QdXUH6w==" saltValue="9neqnidshtpKWNSrjAvFTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FtojD+DpHQFOh0GVr3zKusv6a5COLGoY3Tg9jm9WVy5hTZKBPus5BqWOp43Rr3WF7E/49Vk3J5MqKQbUNymyCg==" saltValue="EXFe1dYw/kpTKtM9vS676w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26378,12 +26390,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.64, (0.64*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.64*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
+        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.64, (0.64*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.64*SUM('Distribución estado nutricional'!$E$4:$E$5)))
+/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
         <v>0.58983967886464039</v>
       </c>
       <c r="F6" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.64, (0.64*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.64*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
-        <v>0.58983967886464039</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!$F$4),0.64, (0.64*SUM('Distribución estado nutricional'!$F$4:$F$5)/(1-0.64*SUM('Distribución estado nutricional'!$F$4:$F$5)))/ (SUM('Distribución estado nutricional'!$F$4:$F$5)/(1-SUM('Distribución estado nutricional'!$F$4:$F$5))))</f>
+        <v>0.52474827695613546</v>
       </c>
       <c r="G6" s="104">
         <v>1</v>
@@ -26404,8 +26417,8 @@
         <v>0.85574238427686589</v>
       </c>
       <c r="F7" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.88, (0.88*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.88*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
-        <v>0.85574238427686589</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!$F$4),0.88, (0.88*SUM('Distribución estado nutricional'!$F$4:$F$5)/(1-0.88*SUM('Distribución estado nutricional'!$F$4:$F$5)))/ (SUM('Distribución estado nutricional'!$F$4:$F$5)/(1-SUM('Distribución estado nutricional'!$F$4:$F$5))))</f>
+        <v>0.81996938552863874</v>
       </c>
       <c r="G7" s="104">
         <v>1</v>
@@ -26426,8 +26439,8 @@
         <v>0.85574238427686589</v>
       </c>
       <c r="F8" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.88, (0.88*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.88*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
-        <v>0.85574238427686589</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!$F$4),0.88, (0.88*SUM('Distribución estado nutricional'!$F$4:$F$5)/(1-0.88*SUM('Distribución estado nutricional'!$F$4:$F$5)))/ (SUM('Distribución estado nutricional'!$F$4:$F$5)/(1-SUM('Distribución estado nutricional'!$F$4:$F$5))))</f>
+        <v>0.81996938552863874</v>
       </c>
       <c r="G8" s="104">
         <v>1</v>
@@ -26705,12 +26718,12 @@
         <v>1</v>
       </c>
       <c r="E29" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.44, (0.44*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.44*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$4),0.44, (0.44*SUM('Distribución estado nutricional'!E$4:E$5)/(1-0.44*SUM('Distribución estado nutricional'!E$4:E$5)))/ (SUM('Distribución estado nutricional'!E$4:E$5)/(1-SUM('Distribución estado nutricional'!E$4:E$5))))</f>
         <v>0.38859461375301474</v>
       </c>
       <c r="F29" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.44, (0.44*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.44*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
-        <v>0.38859461375301474</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$4),0.44, (0.44*SUM('Distribución estado nutricional'!F$4:F$5)/(1-0.44*SUM('Distribución estado nutricional'!F$4:F$5)))/ (SUM('Distribución estado nutricional'!F$4:F$5)/(1-SUM('Distribución estado nutricional'!F$4:F$5))))</f>
+        <v>0.32795428705435947</v>
       </c>
       <c r="G29" s="104">
         <f t="shared" si="2"/>
@@ -26730,12 +26743,12 @@
         <v>1</v>
       </c>
       <c r="E30" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.85, (0.85*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.85*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$4),0.85, (0.85*SUM('Distribución estado nutricional'!E$4:E$5)/(1-0.85*SUM('Distribución estado nutricional'!E$4:E$5)))/ (SUM('Distribución estado nutricional'!E$4:E$5)/(1-SUM('Distribución estado nutricional'!E$4:E$5))))</f>
         <v>0.82091214070727592</v>
       </c>
       <c r="F30" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.85, (0.85*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.85*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
-        <v>0.82091214070727592</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$4),0.85, (0.85*SUM('Distribución estado nutricional'!F$4:F$5)/(1-0.85*SUM('Distribución estado nutricional'!F$4:F$5)))/ (SUM('Distribución estado nutricional'!F$4:F$5)/(1-SUM('Distribución estado nutricional'!F$4:F$5))))</f>
+        <v>0.77873521514816446</v>
       </c>
       <c r="G30" s="104">
         <f t="shared" si="3"/>
@@ -26755,12 +26768,12 @@
         <v>1</v>
       </c>
       <c r="E31" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.85, (0.85*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.85*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$4),0.85, (0.85*SUM('Distribución estado nutricional'!E$4:E$5)/(1-0.85*SUM('Distribución estado nutricional'!E$4:E$5)))/ (SUM('Distribución estado nutricional'!E$4:E$5)/(1-SUM('Distribución estado nutricional'!E$4:E$5))))</f>
         <v>0.82091214070727592</v>
       </c>
       <c r="F31" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.85, (0.85*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.85*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
-        <v>0.82091214070727592</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$4),0.85, (0.85*SUM('Distribución estado nutricional'!F$4:F$5)/(1-0.85*SUM('Distribución estado nutricional'!F$4:F$5)))/ (SUM('Distribución estado nutricional'!F$4:F$5)/(1-SUM('Distribución estado nutricional'!F$4:F$5))))</f>
+        <v>0.77873521514816446</v>
       </c>
       <c r="G31" s="104">
         <f t="shared" si="3"/>
@@ -27082,12 +27095,12 @@
         <v>1</v>
       </c>
       <c r="E52" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.92, (0.92*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.92*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$4),0.92, (0.92*SUM('Distribución estado nutricional'!E$4:E$5)/(1-0.92*SUM('Distribución estado nutricional'!E$4:E$5)))/ (SUM('Distribución estado nutricional'!E$4:E$5)/(1-SUM('Distribución estado nutricional'!E$4:E$5))))</f>
         <v>0.90293638807901733</v>
       </c>
       <c r="F52" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.92, (0.92*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.92*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
-        <v>0.90293638807901733</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$4),0.92, (0.92*SUM('Distribución estado nutricional'!F$4:F$5)/(1-0.92*SUM('Distribución estado nutricional'!F$4:F$5)))/ (SUM('Distribución estado nutricional'!F$4:F$5)/(1-SUM('Distribución estado nutricional'!F$4:F$5))))</f>
+        <v>0.87718696072640712</v>
       </c>
       <c r="G52" s="104">
         <f t="shared" si="8"/>
@@ -27107,12 +27120,12 @@
         <v>1</v>
       </c>
       <c r="E53" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.91, (0.91*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.91*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$4),0.91, (0.91*SUM('Distribución estado nutricional'!E$4:E$5)/(1-0.91*SUM('Distribución estado nutricional'!E$4:E$5)))/ (SUM('Distribución estado nutricional'!E$4:E$5)/(1-SUM('Distribución estado nutricional'!E$4:E$5))))</f>
         <v>0.89105601510511334</v>
       </c>
       <c r="F53" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.91, (0.91*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.91*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
-        <v>0.89105601510511334</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$4),0.91, (0.91*SUM('Distribución estado nutricional'!F$4:F$5)/(1-0.91*SUM('Distribución estado nutricional'!F$4:F$5)))/ (SUM('Distribución estado nutricional'!F$4:F$5)/(1-SUM('Distribución estado nutricional'!F$4:F$5))))</f>
+        <v>0.86263438509246337</v>
       </c>
       <c r="G53" s="104">
         <f t="shared" si="9"/>
@@ -27132,12 +27145,12 @@
         <v>1</v>
       </c>
       <c r="E54" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.91, (0.91*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.91*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$4),0.91, (0.91*SUM('Distribución estado nutricional'!E$4:E$5)/(1-0.91*SUM('Distribución estado nutricional'!E$4:E$5)))/ (SUM('Distribución estado nutricional'!E$4:E$5)/(1-SUM('Distribución estado nutricional'!E$4:E$5))))</f>
         <v>0.89105601510511334</v>
       </c>
       <c r="F54" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!$E$4),0.91, (0.91*SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-0.91*SUM('Distribución estado nutricional'!$E$4:$E$5)))/ (SUM('Distribución estado nutricional'!$E$4:$E$5)/(1-SUM('Distribución estado nutricional'!$E$4:$E$5))))</f>
-        <v>0.89105601510511334</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$4),0.91, (0.91*SUM('Distribución estado nutricional'!F$4:F$5)/(1-0.91*SUM('Distribución estado nutricional'!F$4:F$5)))/ (SUM('Distribución estado nutricional'!F$4:F$5)/(1-SUM('Distribución estado nutricional'!F$4:F$5))))</f>
+        <v>0.86263438509246337</v>
       </c>
       <c r="G54" s="104">
         <f t="shared" si="9"/>
@@ -27355,7 +27368,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NP5RPvhYFdIeLsr6th7jmQBTI6hvAhTuM4oETQ+5A0IB0Cz+/zZ4ep3GeT1mWc6OonAX7Ozog6sF93lbO3m2hQ==" saltValue="roiMbQD+HrLaDh5+UyPaMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+pgpXQyAAy+0FFrvABL11N3Sns9Xt6953eCcCSh5uf63OBllufM6sHhFFQPT1QI8J98ornnq8JBWpVk6PdKdXQ==" saltValue="CJziPvvTCM/I+03O3RPIuw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -27369,8 +27382,8 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27408,10 +27421,10 @@
         <v>322</v>
       </c>
       <c r="C2" s="104">
-        <v>0.71</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D2" s="104">
-        <v>0.71</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E2" s="104">
         <v>0</v>
@@ -27446,10 +27459,10 @@
         <v>322</v>
       </c>
       <c r="C4" s="104">
-        <v>0.39</v>
+        <v>0.61</v>
       </c>
       <c r="D4" s="104">
-        <v>0.39</v>
+        <v>0.61</v>
       </c>
       <c r="E4" s="104">
         <v>0</v>
@@ -27484,10 +27497,10 @@
         <v>322</v>
       </c>
       <c r="C6" s="104">
-        <v>0.39</v>
+        <v>0.61</v>
       </c>
       <c r="D6" s="104">
-        <v>0.39</v>
+        <v>0.61</v>
       </c>
       <c r="E6" s="104">
         <v>0</v>
@@ -27598,12 +27611,12 @@
         <v>322</v>
       </c>
       <c r="C12" s="104">
-        <f>0.93*C4</f>
-        <v>0.36270000000000002</v>
+        <f>1-0.93*0.39</f>
+        <v>0.63729999999999998</v>
       </c>
       <c r="D12" s="104">
-        <f>0.93*D4</f>
-        <v>0.36270000000000002</v>
+        <f>1-0.93*0.39</f>
+        <v>0.63729999999999998</v>
       </c>
       <c r="E12" s="104">
         <v>0</v>
@@ -27661,10 +27674,12 @@
         <v>322</v>
       </c>
       <c r="C17" s="104">
-        <v>0.54</v>
+        <f>1-0.94</f>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="D17" s="104">
-        <v>0.54</v>
+        <f>1-0.94</f>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="E17" s="104">
         <f t="shared" ref="E17:F17" si="0">E2*0.9</f>
@@ -27701,10 +27716,12 @@
         <v>322</v>
       </c>
       <c r="C19" s="104">
-        <v>0.17</v>
+        <f>1-0.86</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D19" s="104">
-        <v>0.17</v>
+        <f>1-0.86</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E19" s="104">
         <f t="shared" ref="E19:F19" si="1">E4*0.9</f>
@@ -27741,10 +27758,12 @@
         <v>322</v>
       </c>
       <c r="C21" s="104">
-        <v>0.17</v>
+        <f>1-0.86</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D21" s="104">
-        <v>0.17</v>
+        <f>1-0.86</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E21" s="104">
         <f t="shared" ref="E21:F21" si="2">E6*0.9</f>
@@ -27781,15 +27800,15 @@
         <v>322</v>
       </c>
       <c r="C23" s="104">
-        <f>C10*0.9</f>
-        <v>0.315</v>
+        <f>1-0.77</f>
+        <v>0.22999999999999998</v>
       </c>
       <c r="D23" s="104">
-        <f t="shared" ref="D23:F23" si="3">D10*0.9</f>
-        <v>0.315</v>
+        <f>1-0.77</f>
+        <v>0.22999999999999998</v>
       </c>
       <c r="E23" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E23:F23" si="3">E10*0.9</f>
         <v>0</v>
       </c>
       <c r="F23" s="104">
@@ -27823,15 +27842,15 @@
         <v>322</v>
       </c>
       <c r="C25" s="104">
-        <f>C10*0.9</f>
-        <v>0.315</v>
+        <f>1-0.77</f>
+        <v>0.22999999999999998</v>
       </c>
       <c r="D25" s="104">
-        <f t="shared" ref="D25:F25" si="4">D10*0.9</f>
-        <v>0.315</v>
+        <f>1-0.77</f>
+        <v>0.22999999999999998</v>
       </c>
       <c r="E25" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E25:F25" si="4">E10*0.9</f>
         <v>0</v>
       </c>
       <c r="F25" s="104">
@@ -27865,12 +27884,12 @@
         <v>322</v>
       </c>
       <c r="C27" s="104">
-        <f>0.93*C19</f>
-        <v>0.15810000000000002</v>
+        <f>1-0.98*0.86</f>
+        <v>0.15720000000000001</v>
       </c>
       <c r="D27" s="104">
-        <f>0.93*D19</f>
-        <v>0.15810000000000002</v>
+        <f>1-0.98*0.86</f>
+        <v>0.15720000000000001</v>
       </c>
       <c r="E27" s="104">
         <f t="shared" ref="E27:F27" si="5">E12*0.9</f>
@@ -27930,10 +27949,12 @@
         <v>322</v>
       </c>
       <c r="C32" s="104">
-        <v>0.94</v>
+        <f>1-0.54</f>
+        <v>0.45999999999999996</v>
       </c>
       <c r="D32" s="104">
-        <v>0.94</v>
+        <f>1-0.54</f>
+        <v>0.45999999999999996</v>
       </c>
       <c r="E32" s="104">
         <f t="shared" ref="E32:F32" si="6">E2*1.1</f>
@@ -27970,10 +27991,12 @@
         <v>322</v>
       </c>
       <c r="C34" s="104">
-        <v>0.86</v>
+        <f>1-0.17</f>
+        <v>0.83</v>
       </c>
       <c r="D34" s="104">
-        <v>0.86</v>
+        <f>1-0.17</f>
+        <v>0.83</v>
       </c>
       <c r="E34" s="104">
         <f t="shared" ref="E34:F34" si="7">E4*1.1</f>
@@ -28010,15 +28033,15 @@
         <v>322</v>
       </c>
       <c r="C36" s="104">
-        <f>C6*1.1</f>
-        <v>0.42900000000000005</v>
+        <f>1-0.17</f>
+        <v>0.83</v>
       </c>
       <c r="D36" s="104">
-        <f t="shared" ref="D36:F36" si="8">D6*1.1</f>
-        <v>0.42900000000000005</v>
+        <f>1-0.17</f>
+        <v>0.83</v>
       </c>
       <c r="E36" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="E36:F36" si="8">E6*1.1</f>
         <v>0</v>
       </c>
       <c r="F36" s="104">
@@ -28052,15 +28075,15 @@
         <v>322</v>
       </c>
       <c r="C38" s="104">
-        <f>C8*1.1</f>
-        <v>0.38500000000000001</v>
+        <f>1-0.55</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="D38" s="104">
-        <f t="shared" ref="D38:F38" si="9">D8*1.1</f>
-        <v>0.38500000000000001</v>
+        <f>1-0.55</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="E38" s="104">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E38:F38" si="9">E8*1.1</f>
         <v>0</v>
       </c>
       <c r="F38" s="104">
@@ -28094,15 +28117,15 @@
         <v>322</v>
       </c>
       <c r="C40" s="104">
-        <f>C10*1.1</f>
-        <v>0.38500000000000001</v>
+        <f>1-0.55</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="D40" s="104">
-        <f t="shared" ref="D40:F40" si="10">D10*1.1</f>
-        <v>0.38500000000000001</v>
+        <f>1-0.55</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="E40" s="104">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="E40:F40" si="10">E10*1.1</f>
         <v>0</v>
       </c>
       <c r="F40" s="104">
@@ -28136,12 +28159,12 @@
         <v>322</v>
       </c>
       <c r="C42" s="104">
-        <f>0.93*C34</f>
-        <v>0.79980000000000007</v>
+        <f>1-0.88*0.17</f>
+        <v>0.85040000000000004</v>
       </c>
       <c r="D42" s="104">
-        <f>0.93*D34</f>
-        <v>0.79980000000000007</v>
+        <f>1-0.88*0.17</f>
+        <v>0.85040000000000004</v>
       </c>
       <c r="E42" s="104">
         <f t="shared" ref="E42:F42" si="11">E12*1.1</f>
@@ -28171,7 +28194,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PkE+cd5JEW/uTAZPjZDw6koAP9/QnZGxI0YBpmeOEwCnHGNbTA/BFBgpb3T9j/NUCuau1r360Pc4ti1yoxBXbg==" saltValue="JbFII+YNNiP0Gtj8jHkAAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+IfzM5xHNq9SXoXC0lnIPtT7bIEJDmP4iIvYt9i5RabVK5wxBGJeicWwGwfCI/uqgliMW3zcKMqwMaogOg0N2g==" saltValue="lmM3z5eHoV/Y5JShf8zKJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -28185,7 +28208,7 @@
   <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -28496,16 +28519,16 @@
         <v>1</v>
       </c>
       <c r="L8" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="M8" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="N8" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="O8" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -28540,16 +28563,16 @@
         <v>1</v>
       </c>
       <c r="L9" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="M9" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="N9" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="O9" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -28760,16 +28783,16 @@
         <v>1</v>
       </c>
       <c r="L14" s="104">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
       <c r="M14" s="104">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
       <c r="N14" s="104">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
       <c r="O14" s="104">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -28783,10 +28806,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="104">
-        <v>0.84</v>
+        <v>0.36</v>
       </c>
       <c r="F15" s="104">
-        <v>0.84</v>
+        <v>0.36</v>
       </c>
       <c r="G15" s="104">
         <v>1</v>
@@ -29100,15 +29123,13 @@
         <v>169</v>
       </c>
       <c r="C26" s="104">
-        <f>IF(C3=1,1,C3*0.9)</f>
-        <v>0.47700000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="D26" s="104">
-        <f t="shared" ref="D26:O26" si="0">IF(D3=1,1,D3*0.9)</f>
-        <v>0.47700000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="E26" s="104">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E26:O26" si="0">IF(E3=1,1,E3*0.9)</f>
         <v>1</v>
       </c>
       <c r="F26" s="104">
@@ -29157,7 +29178,7 @@
         <v>174</v>
       </c>
       <c r="C27" s="104">
-        <f t="shared" ref="C27:O38" si="1">IF(C4=1,1,C4*0.9)</f>
+        <f t="shared" ref="C27:O34" si="1">IF(C4=1,1,C4*0.9)</f>
         <v>1</v>
       </c>
       <c r="D27" s="104">
@@ -29177,20 +29198,16 @@
         <v>1</v>
       </c>
       <c r="H27" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I27" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J27" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K27" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L27" s="104">
         <f t="shared" si="1"/>
@@ -29234,20 +29251,16 @@
         <v>1</v>
       </c>
       <c r="H28" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I28" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J28" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K28" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L28" s="104">
         <f t="shared" si="1"/>
@@ -29291,20 +29304,16 @@
         <v>1</v>
       </c>
       <c r="H29" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I29" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J29" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K29" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L29" s="104">
         <f t="shared" si="1"/>
@@ -29348,20 +29357,16 @@
         <v>1</v>
       </c>
       <c r="H30" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I30" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J30" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K30" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L30" s="104">
         <f t="shared" si="1"/>
@@ -29421,20 +29426,16 @@
         <v>1</v>
       </c>
       <c r="L31" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
       <c r="M31" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
       <c r="N31" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
       <c r="O31" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -29478,20 +29479,16 @@
         <v>1</v>
       </c>
       <c r="L32" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
       <c r="M32" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
       <c r="N32" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
       <c r="O32" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -29535,20 +29532,16 @@
         <v>1</v>
       </c>
       <c r="L33" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="M33" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="N33" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="O33" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -29564,15 +29557,12 @@
         <v>1</v>
       </c>
       <c r="E34" s="104">
-        <f t="shared" si="1"/>
-        <v>0.621</v>
+        <v>0.62</v>
       </c>
       <c r="F34" s="104">
-        <f t="shared" si="1"/>
-        <v>0.621</v>
+        <v>0.62</v>
       </c>
       <c r="G34" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H34" s="104">
@@ -29613,56 +29603,43 @@
         <v>185</v>
       </c>
       <c r="C35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="D35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="E35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="F35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="G35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="H35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="I35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="J35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="K35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="L35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="M35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="N35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="O35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -29670,55 +29647,52 @@
         <v>190</v>
       </c>
       <c r="C36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C36:O38" si="2">IF(C13=1,1,C13*0.9)</f>
         <v>1</v>
       </c>
       <c r="D36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E36" s="104">
-        <f t="shared" si="1"/>
-        <v>0.621</v>
+        <v>0.62</v>
       </c>
       <c r="F36" s="104">
-        <f t="shared" si="1"/>
-        <v>0.621</v>
+        <v>0.62</v>
       </c>
       <c r="G36" s="104">
-        <f t="shared" si="1"/>
-        <v>0.621</v>
+        <v>0.62</v>
       </c>
       <c r="H36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -29727,56 +29701,56 @@
         <v>191</v>
       </c>
       <c r="C37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L37" s="104">
-        <f t="shared" si="1"/>
-        <v>0.29700000000000004</v>
+        <f>L32</f>
+        <v>0.38</v>
       </c>
       <c r="M37" s="104">
-        <f t="shared" si="1"/>
-        <v>0.29700000000000004</v>
+        <f t="shared" ref="M37:O37" si="3">M32</f>
+        <v>0.38</v>
       </c>
       <c r="N37" s="104">
-        <f t="shared" si="1"/>
-        <v>0.29700000000000004</v>
+        <f t="shared" si="3"/>
+        <v>0.38</v>
       </c>
       <c r="O37" s="104">
-        <f t="shared" si="1"/>
-        <v>0.29700000000000004</v>
+        <f t="shared" si="3"/>
+        <v>0.38</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -29784,55 +29758,53 @@
         <v>204</v>
       </c>
       <c r="C38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E38" s="104">
-        <f t="shared" si="1"/>
-        <v>0.75600000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="F38" s="104">
-        <f t="shared" si="1"/>
-        <v>0.75600000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="G38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -29847,55 +29819,55 @@
         <v>171</v>
       </c>
       <c r="C41" s="104">
-        <f>IF(C18=1,1,C18*0.9)</f>
+        <f t="shared" ref="C41:O44" si="4">IF(C18=1,1,C18*0.9)</f>
         <v>1</v>
       </c>
       <c r="D41" s="104">
-        <f t="shared" ref="D41:O41" si="2">IF(D18=1,1,D18*0.9)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -29904,11 +29876,11 @@
         <v>172</v>
       </c>
       <c r="C42" s="104">
-        <f t="shared" ref="C42:O44" si="3">IF(C19=1,1,C19*0.9)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D42" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E42" s="104">
@@ -29972,55 +29944,55 @@
         <v>173</v>
       </c>
       <c r="C43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -30029,11 +30001,11 @@
         <v>181</v>
       </c>
       <c r="C44" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D44" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E44" s="104">
@@ -30150,55 +30122,53 @@
         <v>169</v>
       </c>
       <c r="C49" s="104">
-        <f>IF(C3=1,1,C3*1.05)</f>
-        <v>0.55650000000000011</v>
+        <v>0.7</v>
       </c>
       <c r="D49" s="104">
-        <f t="shared" ref="D49:O49" si="4">IF(D3=1,1,D3*1.05)</f>
-        <v>0.55650000000000011</v>
+        <v>0.7</v>
       </c>
       <c r="E49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E49:O49" si="5">IF(E3=1,1,E3*1.05)</f>
         <v>1</v>
       </c>
       <c r="F49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -30207,55 +30177,51 @@
         <v>174</v>
       </c>
       <c r="C50" s="104">
-        <f t="shared" ref="C50:O61" si="5">IF(C4=1,1,C4*1.05)</f>
+        <f t="shared" ref="C50:O57" si="6">IF(C4=1,1,C4*1.05)</f>
         <v>1</v>
       </c>
       <c r="D50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H50" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="I50" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="J50" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="K50" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="L50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -30264,55 +30230,51 @@
         <v>175</v>
       </c>
       <c r="C51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H51" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="I51" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="J51" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="K51" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="L51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -30321,55 +30283,51 @@
         <v>176</v>
       </c>
       <c r="C52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H52" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="I52" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="J52" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="K52" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="L52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -30378,55 +30336,51 @@
         <v>177</v>
       </c>
       <c r="C53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H53" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="I53" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="J53" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="K53" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="L53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -30435,56 +30389,52 @@
         <v>178</v>
       </c>
       <c r="C54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L54" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="M54" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="N54" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="O54" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -30492,56 +30442,52 @@
         <v>179</v>
       </c>
       <c r="C55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L55" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="M55" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="N55" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="O55" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -30549,56 +30495,52 @@
         <v>180</v>
       </c>
       <c r="C56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L56" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="M56" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="N56" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="O56" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -30606,55 +30548,53 @@
         <v>184</v>
       </c>
       <c r="C57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E57" s="104">
-        <f t="shared" si="5"/>
-        <v>0.72449999999999992</v>
+        <v>0.77</v>
       </c>
       <c r="F57" s="104">
-        <f t="shared" si="5"/>
-        <v>0.72449999999999992</v>
+        <v>0.77</v>
       </c>
       <c r="G57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -30663,56 +30603,43 @@
         <v>185</v>
       </c>
       <c r="C58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="D58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="E58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="F58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="G58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="H58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="I58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="J58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="K58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="L58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="M58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="N58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="O58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -30720,55 +30647,52 @@
         <v>190</v>
       </c>
       <c r="C59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C59:O61" si="7">IF(C13=1,1,C13*1.05)</f>
         <v>1</v>
       </c>
       <c r="D59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E59" s="104">
-        <f t="shared" si="5"/>
-        <v>0.72449999999999992</v>
+        <v>0.77</v>
       </c>
       <c r="F59" s="104">
-        <f t="shared" si="5"/>
-        <v>0.72449999999999992</v>
+        <v>0.77</v>
       </c>
       <c r="G59" s="104">
-        <f t="shared" si="5"/>
-        <v>0.72449999999999992</v>
+        <v>0.77</v>
       </c>
       <c r="H59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -30777,56 +30701,56 @@
         <v>191</v>
       </c>
       <c r="C60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L60" s="104">
-        <f t="shared" si="5"/>
-        <v>0.34650000000000003</v>
+        <f>L54</f>
+        <v>0.7</v>
       </c>
       <c r="M60" s="104">
-        <f t="shared" si="5"/>
-        <v>0.34650000000000003</v>
+        <f t="shared" ref="M60:O60" si="8">M54</f>
+        <v>0.7</v>
       </c>
       <c r="N60" s="104">
-        <f t="shared" si="5"/>
-        <v>0.34650000000000003</v>
+        <f t="shared" si="8"/>
+        <v>0.7</v>
       </c>
       <c r="O60" s="104">
-        <f t="shared" si="5"/>
-        <v>0.34650000000000003</v>
+        <f t="shared" si="8"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -30834,55 +30758,53 @@
         <v>204</v>
       </c>
       <c r="C61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E61" s="104">
-        <f t="shared" si="5"/>
-        <v>0.88200000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="F61" s="104">
-        <f t="shared" si="5"/>
-        <v>0.88200000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="G61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -30897,55 +30819,55 @@
         <v>171</v>
       </c>
       <c r="C64" s="104">
-        <f>IF(C18=1,1,C18*1.05)</f>
+        <f t="shared" ref="C64:O67" si="9">IF(C18=1,1,C18*1.05)</f>
         <v>1</v>
       </c>
       <c r="D64" s="104">
-        <f t="shared" ref="D64:O64" si="6">IF(D18=1,1,D18*1.05)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="L64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -30954,11 +30876,11 @@
         <v>172</v>
       </c>
       <c r="C65" s="104">
-        <f t="shared" ref="C65:O67" si="7">IF(C19=1,1,C19*1.05)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D65" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E65" s="104">
@@ -31022,55 +30944,55 @@
         <v>173</v>
       </c>
       <c r="C66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="L66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -31079,11 +31001,11 @@
         <v>181</v>
       </c>
       <c r="C67" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D67" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E67" s="104">
@@ -31143,7 +31065,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rW9/CS49nJFMV3ml7E+2vEfVEw87jO3Qk2GAcSBYneof8uh8gYX4wr8f4DDZit8MD2pq+LNm870QCPA2O/7VMg==" saltValue="E8noobyRTL2fsaK1MvJyEg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="K0NyhrHJNrC6ItpQxnlEvSSTu1SoIvhbtBLYZyIVIr0SWpK+km/b3zFxVHgTGv5uwuQfMf0pF62vo+LX3H6S6g==" saltValue="/EaAPYH9uMAHHlPQUjr63Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -31200,24 +31122,24 @@
         <v>1</v>
       </c>
       <c r="D3" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!D$11),0.86,(0.86*'Distribución estado nutricional'!D$11/(1-0.86*'Distribución estado nutricional'!D$11))
+        <f>IF(ISBLANK('Distribución estado nutricional'!D$11),(1/1.33),((1/1.33)*'Distribución estado nutricional'!D$11/(1-(1/1.33)*'Distribución estado nutricional'!D$11))
 / ('Distribución estado nutricional'!D$11/(1-'Distribución estado nutricional'!D$11)))</f>
-        <v>0.85501242750621365</v>
+        <v>0.74418604651162779</v>
       </c>
       <c r="E3" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!E$11),0.86,(0.86*'Distribución estado nutricional'!E$11/(1-0.86*'Distribución estado nutricional'!E$11))
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$11),(1/1.33),((1/1.33)*'Distribución estado nutricional'!E$11/(1-(1/1.33)*'Distribución estado nutricional'!E$11))
 / ('Distribución estado nutricional'!E$11/(1-'Distribución estado nutricional'!E$11)))</f>
-        <v>0.85808073922946126</v>
+        <v>0.74891097206376045</v>
       </c>
       <c r="F3" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!F$11),0.86,(0.86*'Distribución estado nutricional'!F$11/(1-0.86*'Distribución estado nutricional'!F$11))
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$11),(1/1.33),((1/1.33)*'Distribución estado nutricional'!F$11/(1-(1/1.33)*'Distribución estado nutricional'!F$11))
 / ('Distribución estado nutricional'!F$11/(1-'Distribución estado nutricional'!F$11)))</f>
-        <v>0.85877386651825993</v>
+        <v>0.74998192742905989</v>
       </c>
       <c r="G3" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!G$11),0.86,(0.86*'Distribución estado nutricional'!G$11/(1-0.86*'Distribución estado nutricional'!G$11))
+        <f>IF(ISBLANK('Distribución estado nutricional'!G$11),(1/1.33),((1/1.33)*'Distribución estado nutricional'!G$11/(1-(1/1.33)*'Distribución estado nutricional'!G$11))
 / ('Distribución estado nutricional'!G$11/(1-'Distribución estado nutricional'!G$11)))</f>
-        <v>0.85911132126749401</v>
+        <v>0.75050381305965674</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
@@ -31239,24 +31161,24 @@
         <v>1</v>
       </c>
       <c r="D5" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!D$10),0.86,(0.86*'Distribución estado nutricional'!D$10/(1-0.86*'Distribución estado nutricional'!D$10))
+        <f>IF(ISBLANK('Distribución estado nutricional'!D$10),(1/1.33),((1/1.33)*'Distribución estado nutricional'!D$10/(1-(1/1.33)*'Distribución estado nutricional'!D$10))
 / ('Distribución estado nutricional'!D$10/(1-'Distribución estado nutricional'!D$10)))</f>
-        <v>0.85318176097990694</v>
+        <v>0.74137931034482751</v>
       </c>
       <c r="E5" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!E$10),0.86,(0.86*'Distribución estado nutricional'!E$10/(1-0.86*'Distribución estado nutricional'!E$10))
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$10),(1/1.33),((1/1.33)*'Distribución estado nutricional'!E$10/(1-(1/1.33)*'Distribución estado nutricional'!E$10))
 / ('Distribución estado nutricional'!E$10/(1-'Distribución estado nutricional'!E$10)))</f>
-        <v>0.85317877313988577</v>
+        <v>0.74137473695379219</v>
       </c>
       <c r="F5" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!F$10),0.86,(0.86*'Distribución estado nutricional'!F$10/(1-0.86*'Distribución estado nutricional'!F$10))
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$10),(1/1.33),((1/1.33)*'Distribución estado nutricional'!F$10/(1-(1/1.33)*'Distribución estado nutricional'!F$10))
 / ('Distribución estado nutricional'!F$10/(1-'Distribución estado nutricional'!F$10)))</f>
-        <v>0.8546826900993596</v>
+        <v>0.74367982247882258</v>
       </c>
       <c r="G5" s="104">
-        <f>IF(ISBLANK('Distribución estado nutricional'!G$10),0.86,(0.86*'Distribución estado nutricional'!G$10/(1-0.86*'Distribución estado nutricional'!G$10))
+        <f>IF(ISBLANK('Distribución estado nutricional'!G$10),(1/1.33),((1/1.33)*'Distribución estado nutricional'!G$10/(1-(1/1.33)*'Distribución estado nutricional'!G$10))
 / ('Distribución estado nutricional'!G$10/(1-'Distribución estado nutricional'!G$10)))</f>
-        <v>0.85725874437876104</v>
+        <v>0.74764262641695323</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -31293,24 +31215,27 @@
         <v>164</v>
       </c>
       <c r="C10" s="104">
-        <f>C3*0.9</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D10" s="104">
-        <f t="shared" ref="D10:G10" si="0">D3*0.9</f>
-        <v>0.76951118475559233</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!D$11),(1/1.54),((1/1.54)*'Distribución estado nutricional'!D$11/(1-(1/1.54)*'Distribución estado nutricional'!D$11))
+/ ('Distribución estado nutricional'!D$11/(1-'Distribución estado nutricional'!D$11)))</f>
+        <v>0.64</v>
       </c>
       <c r="E10" s="104">
-        <f t="shared" si="0"/>
-        <v>0.77227266530651517</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$11),(1/1.54),((1/1.54)*'Distribución estado nutricional'!E$11/(1-(1/1.54)*'Distribución estado nutricional'!E$11))
+/ ('Distribución estado nutricional'!E$11/(1-'Distribución estado nutricional'!E$11)))</f>
+        <v>0.64573318763423793</v>
       </c>
       <c r="F10" s="104">
-        <f t="shared" si="0"/>
-        <v>0.77289647986643395</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$11),(1/1.54),((1/1.54)*'Distribución estado nutricional'!F$11/(1-(1/1.54)*'Distribución estado nutricional'!F$11))
+/ ('Distribución estado nutricional'!F$11/(1-'Distribución estado nutricional'!F$11)))</f>
+        <v>0.64703681148148418</v>
       </c>
       <c r="G10" s="104">
-        <f t="shared" si="0"/>
-        <v>0.77320018914074462</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!G$11),(1/1.54),((1/1.54)*'Distribución estado nutricional'!G$11/(1-(1/1.54)*'Distribución estado nutricional'!G$11))
+/ ('Distribución estado nutricional'!G$11/(1-'Distribución estado nutricional'!G$11)))</f>
+        <v>0.64767263413148468</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
@@ -31329,24 +31254,27 @@
         <v>162</v>
       </c>
       <c r="C12" s="104">
-        <f>C5*0.9</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D12" s="104">
-        <f t="shared" ref="D12:G12" si="1">D5*0.9</f>
-        <v>0.76786358488191631</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!D$10),(1/1.54),((1/1.54)*'Distribución estado nutricional'!D$10/(1-(1/1.54)*'Distribución estado nutricional'!D$10))
+/ ('Distribución estado nutricional'!D$10/(1-'Distribución estado nutricional'!D$10)))</f>
+        <v>0.63660834454912518</v>
       </c>
       <c r="E12" s="104">
-        <f t="shared" si="1"/>
-        <v>0.76786089582589723</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$10),(1/1.54),((1/1.54)*'Distribución estado nutricional'!E$10/(1-(1/1.54)*'Distribución estado nutricional'!E$10))
+/ ('Distribución estado nutricional'!E$10/(1-'Distribución estado nutricional'!E$10)))</f>
+        <v>0.63660282656050271</v>
       </c>
       <c r="F12" s="104">
-        <f t="shared" si="1"/>
-        <v>0.76921442108942362</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$10),(1/1.54),((1/1.54)*'Distribución estado nutricional'!F$10/(1-(1/1.54)*'Distribución estado nutricional'!F$10))
+/ ('Distribución estado nutricional'!F$10/(1-'Distribución estado nutricional'!F$10)))</f>
+        <v>0.6393875097491748</v>
       </c>
       <c r="G12" s="104">
-        <f t="shared" si="1"/>
-        <v>0.77153286994088499</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!G$10),(1/1.54),((1/1.54)*'Distribución estado nutricional'!G$10/(1-(1/1.54)*'Distribución estado nutricional'!G$10))
+/ ('Distribución estado nutricional'!G$10/(1-'Distribución estado nutricional'!G$10)))</f>
+        <v>0.64419127013395971</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -31383,24 +31311,27 @@
         <v>164</v>
       </c>
       <c r="C17" s="104">
-        <f>C3*1.05</f>
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="D17" s="104">
-        <f t="shared" ref="D17:G17" si="2">D3*1.05</f>
-        <v>0.89776304888152436</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!D$11),(1/1.16),((1/1.16)*'Distribución estado nutricional'!D$11/(1-(1/1.16)*'Distribución estado nutricional'!D$11))
+/ ('Distribución estado nutricional'!D$11/(1-'Distribución estado nutricional'!D$11)))</f>
+        <v>0.85714285714285721</v>
       </c>
       <c r="E17" s="104">
-        <f t="shared" si="2"/>
-        <v>0.90098477619093431</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$11),(1/1.16),((1/1.16)*'Distribución estado nutricional'!E$11/(1-(1/1.16)*'Distribución estado nutricional'!E$11))
+/ ('Distribución estado nutricional'!E$11/(1-'Distribución estado nutricional'!E$11)))</f>
+        <v>0.86017345661971134</v>
       </c>
       <c r="F17" s="104">
-        <f t="shared" si="2"/>
-        <v>0.90171255984417298</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$11),(1/1.16),((1/1.16)*'Distribución estado nutricional'!F$11/(1-(1/1.16)*'Distribución estado nutricional'!F$11))
+/ ('Distribución estado nutricional'!F$11/(1-'Distribución estado nutricional'!F$11)))</f>
+        <v>0.86085802051335469</v>
       </c>
       <c r="G17" s="104">
-        <f t="shared" si="2"/>
-        <v>0.90206688733086871</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!G$11),(1/1.16),((1/1.16)*'Distribución estado nutricional'!G$11/(1-(1/1.16)*'Distribución estado nutricional'!G$11))
+/ ('Distribución estado nutricional'!G$11/(1-'Distribución estado nutricional'!G$11)))</f>
+        <v>0.86119130020042822</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
@@ -31419,28 +31350,31 @@
         <v>162</v>
       </c>
       <c r="C19" s="104">
-        <f>C5*1.05</f>
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="D19" s="104">
-        <f t="shared" ref="D19:G19" si="3">D5*1.05</f>
-        <v>0.89584084902890238</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!D$10),(1/1.16),((1/1.16)*'Distribución estado nutricional'!D$10/(1-(1/1.16)*'Distribución estado nutricional'!D$10))
+/ ('Distribución estado nutricional'!D$10/(1-'Distribución estado nutricional'!D$10)))</f>
+        <v>0.85533453887884281</v>
       </c>
       <c r="E19" s="104">
-        <f t="shared" si="3"/>
-        <v>0.8958377117968801</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!E$10),(1/1.16),((1/1.16)*'Distribución estado nutricional'!E$10/(1-(1/1.16)*'Distribución estado nutricional'!E$10))
+/ ('Distribución estado nutricional'!E$10/(1-'Distribución estado nutricional'!E$10)))</f>
+        <v>0.85533158742052517</v>
       </c>
       <c r="F19" s="104">
-        <f t="shared" si="3"/>
-        <v>0.89741682460432759</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!F$10),(1/1.16),((1/1.16)*'Distribución estado nutricional'!F$10/(1-(1/1.16)*'Distribución estado nutricional'!F$10))
+/ ('Distribución estado nutricional'!F$10/(1-'Distribución estado nutricional'!F$10)))</f>
+        <v>0.85681715347913645</v>
       </c>
       <c r="G19" s="104">
-        <f t="shared" si="3"/>
-        <v>0.90012168159769912</v>
+        <f>IF(ISBLANK('Distribución estado nutricional'!G$10),(1/1.16),((1/1.16)*'Distribución estado nutricional'!G$10/(1-(1/1.16)*'Distribución estado nutricional'!G$10))
+/ ('Distribución estado nutricional'!G$10/(1-'Distribución estado nutricional'!G$10)))</f>
+        <v>0.8593615961490525</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VwrgFU5W73LqdQTRBwqLKdbf1MY9o589CWhB56RQln+RF8Fc7WEfmTuHAhFOpxHc9coITmEC7arcdkzz13jhwQ==" saltValue="5peJfZpNjlPhDBnzKf8goA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="417DDiAa9SFyGdkbWutKfxln3ayF8MKmRF85bId4TfFSdDUdVuv+Q0Xblv+nsW/mQJbJtRL9weW1VukFfynSUA==" saltValue="ibnQjBtlsd8hc/g7hnKqBg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -31453,8 +31387,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -31533,13 +31467,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="104">
-        <v>0.88</v>
+        <v>0.12</v>
       </c>
       <c r="G3" s="104">
-        <v>0.88</v>
+        <v>0.12</v>
       </c>
       <c r="H3" s="104">
-        <v>0.88</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -31553,13 +31487,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="104">
-        <v>0.85</v>
+        <v>0.15</v>
       </c>
       <c r="G4" s="104">
-        <v>0.85</v>
+        <v>0.15</v>
       </c>
       <c r="H4" s="104">
-        <v>0.85</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -31777,10 +31711,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="104">
-        <v>0.69</v>
+        <v>0.31</v>
       </c>
       <c r="G14" s="104">
-        <v>0.69</v>
+        <v>0.31</v>
       </c>
       <c r="H14" s="104">
         <v>0</v>
@@ -31820,10 +31754,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="104">
-        <v>0.86</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G16" s="104">
-        <v>0.86</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H16" s="104">
         <v>0</v>
@@ -31866,13 +31800,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="104">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
       <c r="G18" s="104">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
       <c r="H18" s="104">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -31909,13 +31843,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="104">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G20" s="104">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H20" s="104">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -32417,19 +32351,19 @@
         <v>339</v>
       </c>
       <c r="D43" s="104">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="E43" s="104">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F43" s="104">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="G43" s="104">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H43" s="104">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -32437,19 +32371,19 @@
         <v>338</v>
       </c>
       <c r="D44" s="104">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="E44" s="104">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="F44" s="104">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="G44" s="104">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="H44" s="104">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -32460,19 +32394,19 @@
         <v>337</v>
       </c>
       <c r="D45" s="104">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E45" s="104">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F45" s="104">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G45" s="104">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H45" s="104">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -32526,19 +32460,19 @@
         <v>337</v>
       </c>
       <c r="D48" s="104">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="E48" s="104">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="F48" s="104">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G48" s="104">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="H48" s="104">
-        <v>0.88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -32546,19 +32480,19 @@
         <v>339</v>
       </c>
       <c r="D49" s="104">
-        <v>0.78409090909090906</v>
+        <v>0.69</v>
       </c>
       <c r="E49" s="104">
-        <v>0.78409090909090906</v>
+        <v>0.69</v>
       </c>
       <c r="F49" s="104">
-        <v>0.78409090909090906</v>
+        <v>0.69</v>
       </c>
       <c r="G49" s="104">
-        <v>0.78409090909090906</v>
+        <v>0.69</v>
       </c>
       <c r="H49" s="104">
-        <v>0.78409090909090906</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -32618,10 +32552,10 @@
         <v>337</v>
       </c>
       <c r="D52" s="104">
-        <v>0.57999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E52" s="104">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="F52" s="104">
         <v>0</v>
@@ -32641,7 +32575,7 @@
         <v>0.51</v>
       </c>
       <c r="E53" s="104">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="F53" s="104">
         <v>0</v>
@@ -32722,7 +32656,7 @@
         <v>339</v>
       </c>
       <c r="D58" s="104">
-        <f t="shared" ref="D58:H73" si="1">IF($C3="Affected fraction",D3,IF(D3=1,1,D3*0.9))</f>
+        <f t="shared" ref="D58:E59" si="1">IF($C3="Affected fraction",D3,IF(D3=1,1,D3*0.9))</f>
         <v>0</v>
       </c>
       <c r="E58" s="104">
@@ -32730,13 +32664,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="104">
-        <v>0.79</v>
+        <v>0.02</v>
       </c>
       <c r="G58" s="104">
-        <v>0.79</v>
+        <v>0.02</v>
       </c>
       <c r="H58" s="104">
-        <v>0.79</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -32752,13 +32686,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="104">
-        <v>0.82</v>
+        <v>0.13</v>
       </c>
       <c r="G59" s="104">
-        <v>0.82</v>
+        <v>0.13</v>
       </c>
       <c r="H59" s="104">
-        <v>0.82</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -32772,23 +32706,18 @@
         <v>337</v>
       </c>
       <c r="D60" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E60" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F60" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G60" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H60" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32797,23 +32726,18 @@
         <v>338</v>
       </c>
       <c r="D61" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E61" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F61" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G61" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H61" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32825,23 +32749,18 @@
         <v>337</v>
       </c>
       <c r="D62" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E62" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F62" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G62" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H62" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32850,23 +32769,18 @@
         <v>338</v>
       </c>
       <c r="D63" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E63" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F63" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G63" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H63" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32881,23 +32795,18 @@
         <v>337</v>
       </c>
       <c r="D64" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E64" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F64" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G64" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H64" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32906,23 +32815,18 @@
         <v>338</v>
       </c>
       <c r="D65" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E65" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F65" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G65" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H65" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32934,23 +32838,18 @@
         <v>337</v>
       </c>
       <c r="D66" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E66" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F66" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G66" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H66" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32959,23 +32858,18 @@
         <v>338</v>
       </c>
       <c r="D67" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E67" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F67" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G67" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H67" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32990,23 +32884,18 @@
         <v>337</v>
       </c>
       <c r="D68" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E68" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F68" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G68" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H68" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -33015,7 +32904,7 @@
         <v>338</v>
       </c>
       <c r="D69" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D69:H77" si="2">IF($C14="Affected fraction",D14,IF(D14=1,1,D14*0.9))</f>
         <v>0</v>
       </c>
       <c r="E69" s="104">
@@ -33023,13 +32912,13 @@
         <v>0</v>
       </c>
       <c r="F69" s="104">
-        <v>0.55000000000000004</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G69" s="104">
-        <v>0.55000000000000004</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H69" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33041,23 +32930,23 @@
         <v>337</v>
       </c>
       <c r="D70" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E70" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F70" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G70" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H70" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33066,21 +32955,21 @@
         <v>338</v>
       </c>
       <c r="D71" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E71" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F71" s="104">
-        <v>0.8</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G71" s="104">
-        <v>0.8</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H71" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33095,23 +32984,23 @@
         <v>337</v>
       </c>
       <c r="D72" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E72" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F72" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G72" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H72" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -33120,24 +33009,21 @@
         <v>338</v>
       </c>
       <c r="D73" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E73" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F73" s="104">
-        <f t="shared" si="1"/>
-        <v>0.28800000000000003</v>
+        <v>0.39</v>
       </c>
       <c r="G73" s="104">
-        <f t="shared" si="1"/>
-        <v>0.28800000000000003</v>
+        <v>0.39</v>
       </c>
       <c r="H73" s="104">
-        <f t="shared" si="1"/>
-        <v>0.28800000000000003</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -33148,7 +33034,7 @@
         <v>337</v>
       </c>
       <c r="D74" s="104">
-        <f t="shared" ref="D74:H89" si="2">IF($C19="Affected fraction",D19,IF(D19=1,1,D19*0.9))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E74" s="104">
@@ -33181,16 +33067,13 @@
         <v>0</v>
       </c>
       <c r="F75" s="104">
-        <f t="shared" si="2"/>
-        <v>0.36000000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="G75" s="104">
-        <f t="shared" si="2"/>
-        <v>0.36000000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="H75" s="104">
-        <f t="shared" si="2"/>
-        <v>0.36000000000000004</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -33229,8 +33112,7 @@
         <v>339</v>
       </c>
       <c r="D77" s="104">
-        <f t="shared" si="2"/>
-        <v>0.11700000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E77" s="104">
         <f t="shared" si="2"/>
@@ -33260,23 +33142,23 @@
         <v>337</v>
       </c>
       <c r="D78" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D78:H79" si="3">IF($C23="Affected fraction",D23,IF(D23=1,1,D23*0.9))</f>
         <v>1</v>
       </c>
       <c r="E78" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F78" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G78" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H78" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33285,23 +33167,22 @@
         <v>339</v>
       </c>
       <c r="D79" s="104">
-        <f t="shared" si="2"/>
-        <v>0.11700000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E79" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F79" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G79" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H79" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33316,23 +33197,23 @@
         <v>337</v>
       </c>
       <c r="D80" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D80:H81" si="4">IF($C25="Affected fraction",D25,IF(D25=1,1,D25*0.9))</f>
         <v>1</v>
       </c>
       <c r="E80" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F80" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G80" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H80" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -33341,23 +33222,22 @@
         <v>339</v>
       </c>
       <c r="D81" s="104">
-        <f t="shared" si="2"/>
-        <v>0.11700000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E81" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F81" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G81" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H81" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -33372,23 +33252,18 @@
         <v>337</v>
       </c>
       <c r="D82" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E82" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F82" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G82" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H82" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -33397,23 +33272,18 @@
         <v>339</v>
       </c>
       <c r="D83" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E83" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F83" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G83" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H83" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33422,23 +33292,18 @@
         <v>338</v>
       </c>
       <c r="D84" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E84" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F84" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G84" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H84" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33453,23 +33318,18 @@
         <v>337</v>
       </c>
       <c r="D85" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E85" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F85" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G85" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H85" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -33478,23 +33338,18 @@
         <v>339</v>
       </c>
       <c r="D86" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E86" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F86" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G86" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H86" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33503,23 +33358,18 @@
         <v>338</v>
       </c>
       <c r="D87" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E87" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F87" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G87" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H87" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33534,23 +33384,18 @@
         <v>337</v>
       </c>
       <c r="D88" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E88" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F88" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G88" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H88" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -33559,23 +33404,18 @@
         <v>339</v>
       </c>
       <c r="D89" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E89" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F89" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G89" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H89" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33584,23 +33424,18 @@
         <v>338</v>
       </c>
       <c r="D90" s="104">
-        <f t="shared" ref="D90:H105" si="3">IF($C35="Affected fraction",D35,IF(D35=1,1,D35*0.9))</f>
         <v>0</v>
       </c>
       <c r="E90" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F90" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G90" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H90" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33615,23 +33450,18 @@
         <v>337</v>
       </c>
       <c r="D91" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E91" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F91" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G91" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H91" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -33640,23 +33470,18 @@
         <v>339</v>
       </c>
       <c r="D92" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E92" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F92" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G92" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H92" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33665,23 +33490,18 @@
         <v>338</v>
       </c>
       <c r="D93" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E93" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F93" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G93" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H93" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33696,23 +33516,18 @@
         <v>337</v>
       </c>
       <c r="D94" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E94" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F94" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G94" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H94" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -33721,23 +33536,18 @@
         <v>339</v>
       </c>
       <c r="D95" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E95" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F95" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G95" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H95" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33746,23 +33556,18 @@
         <v>338</v>
       </c>
       <c r="D96" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E96" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F96" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G96" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H96" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33777,23 +33582,23 @@
         <v>337</v>
       </c>
       <c r="D97" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D97:H97" si="5">IF($C42="Affected fraction",D42,IF(D42=1,1,D42*0.9))</f>
         <v>0</v>
       </c>
       <c r="E97" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F97" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G97" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H97" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -33802,24 +33607,19 @@
         <v>339</v>
       </c>
       <c r="D98" s="104">
-        <f t="shared" si="3"/>
-        <v>0.85499999999999998</v>
+        <v>0</v>
       </c>
       <c r="E98" s="104">
-        <f t="shared" si="3"/>
-        <v>0.85499999999999998</v>
+        <v>0</v>
       </c>
       <c r="F98" s="104">
-        <f t="shared" si="3"/>
-        <v>0.85499999999999998</v>
+        <v>0</v>
       </c>
       <c r="G98" s="104">
-        <f t="shared" si="3"/>
-        <v>0.85499999999999998</v>
+        <v>0</v>
       </c>
       <c r="H98" s="104">
-        <f t="shared" si="3"/>
-        <v>0.85499999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -33827,24 +33627,19 @@
         <v>338</v>
       </c>
       <c r="D99" s="104">
-        <f t="shared" si="3"/>
-        <v>0.81900000000000006</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E99" s="104">
-        <f t="shared" si="3"/>
-        <v>0.81900000000000006</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F99" s="104">
-        <f t="shared" si="3"/>
-        <v>0.81900000000000006</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G99" s="104">
-        <f t="shared" si="3"/>
-        <v>0.81900000000000006</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H99" s="104">
-        <f t="shared" si="3"/>
-        <v>0.81900000000000006</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -33855,24 +33650,19 @@
         <v>337</v>
       </c>
       <c r="D100" s="104">
-        <f t="shared" si="3"/>
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="E100" s="104">
-        <f t="shared" si="3"/>
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="F100" s="104">
-        <f t="shared" si="3"/>
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="G100" s="104">
-        <f t="shared" si="3"/>
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="H100" s="104">
-        <f t="shared" si="3"/>
-        <v>0.27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -33880,23 +33670,18 @@
         <v>339</v>
       </c>
       <c r="D101" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E101" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F101" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G101" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H101" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33905,23 +33690,18 @@
         <v>338</v>
       </c>
       <c r="D102" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E102" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F102" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G102" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H102" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33936,24 +33716,19 @@
         <v>337</v>
       </c>
       <c r="D103" s="104">
-        <f t="shared" si="3"/>
-        <v>0.79200000000000004</v>
+        <v>1</v>
       </c>
       <c r="E103" s="104">
-        <f t="shared" si="3"/>
-        <v>0.79200000000000004</v>
+        <v>1</v>
       </c>
       <c r="F103" s="104">
-        <f t="shared" si="3"/>
-        <v>0.79200000000000004</v>
+        <v>1</v>
       </c>
       <c r="G103" s="104">
-        <f t="shared" si="3"/>
-        <v>0.79200000000000004</v>
+        <v>1</v>
       </c>
       <c r="H103" s="104">
-        <f t="shared" si="3"/>
-        <v>0.79200000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -33961,24 +33736,19 @@
         <v>339</v>
       </c>
       <c r="D104" s="104">
-        <f t="shared" si="3"/>
-        <v>0.70568181818181819</v>
+        <v>0.51</v>
       </c>
       <c r="E104" s="104">
-        <f t="shared" si="3"/>
-        <v>0.70568181818181819</v>
+        <v>0.51</v>
       </c>
       <c r="F104" s="104">
-        <f t="shared" si="3"/>
-        <v>0.70568181818181819</v>
+        <v>0.51</v>
       </c>
       <c r="G104" s="104">
-        <f t="shared" si="3"/>
-        <v>0.70568181818181819</v>
+        <v>0.51</v>
       </c>
       <c r="H104" s="104">
-        <f t="shared" si="3"/>
-        <v>0.70568181818181819</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -33992,23 +33762,18 @@
         <v>337</v>
       </c>
       <c r="D105" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E105" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F105" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G105" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H105" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -34017,24 +33782,19 @@
         <v>339</v>
       </c>
       <c r="D106" s="104">
-        <f t="shared" ref="D106:H108" si="4">IF($C51="Affected fraction",D51,IF(D51=1,1,D51*0.9))</f>
-        <v>0.68400000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="E106" s="104">
-        <f t="shared" si="4"/>
-        <v>0.68400000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="F106" s="104">
-        <f t="shared" si="4"/>
-        <v>0.68400000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="G106" s="104">
-        <f t="shared" si="4"/>
-        <v>0.68400000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="H106" s="104">
-        <f t="shared" si="4"/>
-        <v>0.68400000000000005</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -34048,23 +33808,18 @@
         <v>337</v>
       </c>
       <c r="D107" s="104">
-        <f t="shared" si="4"/>
-        <v>0.52200000000000002</v>
+        <v>1</v>
       </c>
       <c r="E107" s="104">
-        <f t="shared" si="4"/>
-        <v>0.52200000000000002</v>
+        <v>0</v>
       </c>
       <c r="F107" s="104">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G107" s="104">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H107" s="104">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -34073,23 +33828,18 @@
         <v>339</v>
       </c>
       <c r="D108" s="104">
-        <f t="shared" si="4"/>
-        <v>0.45900000000000002</v>
+        <v>0.18</v>
       </c>
       <c r="E108" s="104">
-        <f t="shared" si="4"/>
-        <v>0.45900000000000002</v>
+        <v>0</v>
       </c>
       <c r="F108" s="104">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G108" s="104">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H108" s="104">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -34141,19 +33891,19 @@
         <v>0</v>
       </c>
       <c r="E112" s="104">
-        <f t="shared" ref="E112:H112" si="5">IF($C2="Affected fraction",E2,IF(E2=1,1,E2*1.05))</f>
+        <f t="shared" ref="E112" si="6">IF($C2="Affected fraction",E2,IF(E2=1,1,E2*1.05))</f>
         <v>0</v>
       </c>
       <c r="F112" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F112:H112" si="7">IF($C57="Affected fraction",F57,IF(F57=1,1,F57*0.9))</f>
         <v>1</v>
       </c>
       <c r="G112" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H112" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -34162,21 +33912,21 @@
         <v>339</v>
       </c>
       <c r="D113" s="104">
-        <f t="shared" ref="D113:H128" si="6">IF($C3="Affected fraction",D3,IF(D3=1,1,D3*1.05))</f>
+        <f t="shared" ref="D113:E114" si="8">IF($C3="Affected fraction",D3,IF(D3=1,1,D3*1.05))</f>
         <v>0</v>
       </c>
       <c r="E113" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F113" s="104">
-        <v>0.98</v>
+        <v>0.21</v>
       </c>
       <c r="G113" s="104">
-        <v>0.98</v>
+        <v>0.21</v>
       </c>
       <c r="H113" s="104">
-        <v>0.98</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -34184,21 +33934,21 @@
         <v>338</v>
       </c>
       <c r="D114" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E114" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F114" s="104">
-        <v>0.87</v>
+        <v>0.18</v>
       </c>
       <c r="G114" s="104">
-        <v>0.87</v>
+        <v>0.18</v>
       </c>
       <c r="H114" s="104">
-        <v>0.87</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -34212,23 +33962,18 @@
         <v>337</v>
       </c>
       <c r="D115" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E115" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F115" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G115" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H115" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34237,23 +33982,18 @@
         <v>338</v>
       </c>
       <c r="D116" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E116" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F116" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G116" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H116" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34265,23 +34005,18 @@
         <v>337</v>
       </c>
       <c r="D117" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E117" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F117" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G117" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H117" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34290,23 +34025,18 @@
         <v>338</v>
       </c>
       <c r="D118" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E118" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F118" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G118" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H118" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34321,23 +34051,18 @@
         <v>337</v>
       </c>
       <c r="D119" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E119" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F119" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G119" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H119" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34346,23 +34071,18 @@
         <v>338</v>
       </c>
       <c r="D120" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E120" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F120" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G120" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H120" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34374,23 +34094,18 @@
         <v>337</v>
       </c>
       <c r="D121" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E121" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F121" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G121" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H121" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34399,23 +34114,18 @@
         <v>338</v>
       </c>
       <c r="D122" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E122" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F122" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G122" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H122" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34430,23 +34140,18 @@
         <v>337</v>
       </c>
       <c r="D123" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E123" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F123" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G123" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H123" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34455,21 +34160,21 @@
         <v>338</v>
       </c>
       <c r="D124" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D124:H136" si="9">IF($C14="Affected fraction",D14,IF(D14=1,1,D14*1.05))</f>
         <v>0</v>
       </c>
       <c r="E124" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F124" s="104">
-        <v>0.86</v>
+        <v>0.45</v>
       </c>
       <c r="G124" s="104">
-        <v>0.86</v>
+        <v>0.45</v>
       </c>
       <c r="H124" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34481,23 +34186,23 @@
         <v>337</v>
       </c>
       <c r="D125" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E125" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F125" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G125" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H125" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34506,21 +34211,21 @@
         <v>338</v>
       </c>
       <c r="D126" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E126" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F126" s="104">
-        <v>0.93</v>
+        <v>0.2</v>
       </c>
       <c r="G126" s="104">
-        <v>0.93</v>
+        <v>0.2</v>
       </c>
       <c r="H126" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34535,23 +34240,23 @@
         <v>337</v>
       </c>
       <c r="D127" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E127" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F127" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G127" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H127" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -34560,24 +34265,21 @@
         <v>338</v>
       </c>
       <c r="D128" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E128" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F128" s="104">
-        <f t="shared" si="6"/>
-        <v>0.33600000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G128" s="104">
-        <f t="shared" si="6"/>
-        <v>0.33600000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="H128" s="104">
-        <f t="shared" si="6"/>
-        <v>0.33600000000000002</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -34588,23 +34290,23 @@
         <v>337</v>
       </c>
       <c r="D129" s="104">
-        <f t="shared" ref="D129:H144" si="7">IF($C19="Affected fraction",D19,IF(D19=1,1,D19*1.05))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E129" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F129" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F129:H129" si="10">IF($C74="Affected fraction",F74,IF(F74=1,1,F74*0.9))</f>
         <v>1</v>
       </c>
       <c r="G129" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H129" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -34613,24 +34315,21 @@
         <v>338</v>
       </c>
       <c r="D130" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E130" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F130" s="104">
-        <f t="shared" si="7"/>
-        <v>0.42000000000000004</v>
+        <v>0.77</v>
       </c>
       <c r="G130" s="104">
-        <f t="shared" si="7"/>
-        <v>0.42000000000000004</v>
+        <v>0.77</v>
       </c>
       <c r="H130" s="104">
-        <f t="shared" si="7"/>
-        <v>0.42000000000000004</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -34644,23 +34343,23 @@
         <v>337</v>
       </c>
       <c r="D131" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D131" si="11">IF($C76="Affected fraction",D76,IF(D76=1,1,D76*0.9))</f>
         <v>1</v>
       </c>
       <c r="E131" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F131" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G131" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H131" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34669,23 +34368,22 @@
         <v>339</v>
       </c>
       <c r="D132" s="104">
-        <f t="shared" si="7"/>
-        <v>0.13650000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="E132" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F132" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G132" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H132" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34700,23 +34398,23 @@
         <v>337</v>
       </c>
       <c r="D133" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D133" si="12">IF($C78="Affected fraction",D78,IF(D78=1,1,D78*0.9))</f>
         <v>1</v>
       </c>
       <c r="E133" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F133" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G133" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H133" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34725,23 +34423,22 @@
         <v>339</v>
       </c>
       <c r="D134" s="104">
-        <f t="shared" si="7"/>
-        <v>0.13650000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="E134" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F134" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G134" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H134" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34756,23 +34453,23 @@
         <v>337</v>
       </c>
       <c r="D135" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D135" si="13">IF($C80="Affected fraction",D80,IF(D80=1,1,D80*0.9))</f>
         <v>1</v>
       </c>
       <c r="E135" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F135" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G135" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H135" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34781,23 +34478,22 @@
         <v>339</v>
       </c>
       <c r="D136" s="104">
-        <f t="shared" si="7"/>
-        <v>0.13650000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="E136" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F136" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G136" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H136" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34812,23 +34508,18 @@
         <v>337</v>
       </c>
       <c r="D137" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E137" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F137" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G137" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H137" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -34837,23 +34528,18 @@
         <v>339</v>
       </c>
       <c r="D138" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E138" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F138" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G138" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H138" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -34862,23 +34548,18 @@
         <v>338</v>
       </c>
       <c r="D139" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E139" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F139" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G139" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H139" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -34893,23 +34574,18 @@
         <v>337</v>
       </c>
       <c r="D140" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E140" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F140" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G140" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H140" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -34918,23 +34594,18 @@
         <v>339</v>
       </c>
       <c r="D141" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E141" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F141" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G141" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H141" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -34943,23 +34614,18 @@
         <v>338</v>
       </c>
       <c r="D142" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E142" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F142" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G142" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H142" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -34974,23 +34640,18 @@
         <v>337</v>
       </c>
       <c r="D143" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E143" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F143" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G143" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H143" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -34999,23 +34660,18 @@
         <v>339</v>
       </c>
       <c r="D144" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E144" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F144" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G144" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H144" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -35024,23 +34680,18 @@
         <v>338</v>
       </c>
       <c r="D145" s="104">
-        <f t="shared" ref="D145:H160" si="8">IF($C35="Affected fraction",D35,IF(D35=1,1,D35*1.05))</f>
         <v>0</v>
       </c>
       <c r="E145" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F145" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G145" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H145" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35055,23 +34706,18 @@
         <v>337</v>
       </c>
       <c r="D146" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E146" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F146" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G146" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H146" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -35080,23 +34726,18 @@
         <v>339</v>
       </c>
       <c r="D147" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E147" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F147" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G147" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H147" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35105,23 +34746,18 @@
         <v>338</v>
       </c>
       <c r="D148" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E148" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F148" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G148" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H148" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35136,23 +34772,18 @@
         <v>337</v>
       </c>
       <c r="D149" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E149" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F149" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G149" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H149" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -35161,23 +34792,18 @@
         <v>339</v>
       </c>
       <c r="D150" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E150" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F150" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G150" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H150" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35186,23 +34812,18 @@
         <v>338</v>
       </c>
       <c r="D151" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E151" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F151" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G151" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H151" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35217,23 +34838,23 @@
         <v>337</v>
       </c>
       <c r="D152" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D152:H153" si="14">IF($C97="Affected fraction",D97,IF(D97=1,1,D97*0.9))</f>
         <v>0</v>
       </c>
       <c r="E152" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F152" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="G152" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H152" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -35242,24 +34863,24 @@
         <v>339</v>
       </c>
       <c r="D153" s="104">
-        <f t="shared" si="8"/>
-        <v>0.99749999999999994</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="E153" s="104">
-        <f t="shared" si="8"/>
-        <v>0.99749999999999994</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="F153" s="104">
-        <f t="shared" si="8"/>
-        <v>0.99749999999999994</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="G153" s="104">
-        <f t="shared" si="8"/>
-        <v>0.99749999999999994</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="H153" s="104">
-        <f t="shared" si="8"/>
-        <v>0.99749999999999994</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -35267,24 +34888,19 @@
         <v>338</v>
       </c>
       <c r="D154" s="104">
-        <f t="shared" si="8"/>
-        <v>0.95550000000000013</v>
+        <v>0.1</v>
       </c>
       <c r="E154" s="104">
-        <f t="shared" si="8"/>
-        <v>0.95550000000000013</v>
+        <v>0.1</v>
       </c>
       <c r="F154" s="104">
-        <f t="shared" si="8"/>
-        <v>0.95550000000000013</v>
+        <v>0.1</v>
       </c>
       <c r="G154" s="104">
-        <f t="shared" si="8"/>
-        <v>0.95550000000000013</v>
+        <v>0.1</v>
       </c>
       <c r="H154" s="104">
-        <f t="shared" si="8"/>
-        <v>0.95550000000000013</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -35295,24 +34911,19 @@
         <v>337</v>
       </c>
       <c r="D155" s="104">
-        <f t="shared" si="8"/>
-        <v>0.315</v>
+        <v>0</v>
       </c>
       <c r="E155" s="104">
-        <f t="shared" si="8"/>
-        <v>0.315</v>
+        <v>1</v>
       </c>
       <c r="F155" s="104">
-        <f t="shared" si="8"/>
-        <v>0.315</v>
+        <v>1</v>
       </c>
       <c r="G155" s="104">
-        <f t="shared" si="8"/>
-        <v>0.315</v>
+        <v>1</v>
       </c>
       <c r="H155" s="104">
-        <f t="shared" si="8"/>
-        <v>0.315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -35320,23 +34931,18 @@
         <v>339</v>
       </c>
       <c r="D156" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E156" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F156" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G156" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H156" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35345,23 +34951,18 @@
         <v>338</v>
       </c>
       <c r="D157" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E157" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F157" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G157" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H157" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35376,24 +34977,19 @@
         <v>337</v>
       </c>
       <c r="D158" s="104">
-        <f t="shared" si="8"/>
-        <v>0.92400000000000004</v>
+        <v>1</v>
       </c>
       <c r="E158" s="104">
-        <f t="shared" si="8"/>
-        <v>0.92400000000000004</v>
+        <v>1</v>
       </c>
       <c r="F158" s="104">
-        <f t="shared" si="8"/>
-        <v>0.92400000000000004</v>
+        <v>1</v>
       </c>
       <c r="G158" s="104">
-        <f t="shared" si="8"/>
-        <v>0.92400000000000004</v>
+        <v>1</v>
       </c>
       <c r="H158" s="104">
-        <f t="shared" si="8"/>
-        <v>0.92400000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -35401,24 +34997,19 @@
         <v>339</v>
       </c>
       <c r="D159" s="104">
-        <f t="shared" si="8"/>
-        <v>0.8232954545454545</v>
+        <v>0.8</v>
       </c>
       <c r="E159" s="104">
-        <f t="shared" si="8"/>
-        <v>0.8232954545454545</v>
+        <v>0.8</v>
       </c>
       <c r="F159" s="104">
-        <f t="shared" si="8"/>
-        <v>0.8232954545454545</v>
+        <v>0.8</v>
       </c>
       <c r="G159" s="104">
-        <f t="shared" si="8"/>
-        <v>0.8232954545454545</v>
+        <v>0.8</v>
       </c>
       <c r="H159" s="104">
-        <f t="shared" si="8"/>
-        <v>0.8232954545454545</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -35432,23 +35023,18 @@
         <v>337</v>
       </c>
       <c r="D160" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E160" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F160" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G160" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H160" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -35457,24 +35043,19 @@
         <v>339</v>
       </c>
       <c r="D161" s="104">
-        <f t="shared" ref="D161:H163" si="9">IF($C51="Affected fraction",D51,IF(D51=1,1,D51*1.05))</f>
-        <v>0.79800000000000004</v>
+        <v>0.85</v>
       </c>
       <c r="E161" s="104">
-        <f t="shared" si="9"/>
-        <v>0.79800000000000004</v>
+        <v>0.85</v>
       </c>
       <c r="F161" s="104">
-        <f t="shared" si="9"/>
-        <v>0.79800000000000004</v>
+        <v>0.85</v>
       </c>
       <c r="G161" s="104">
-        <f t="shared" si="9"/>
-        <v>0.79800000000000004</v>
+        <v>0.85</v>
       </c>
       <c r="H161" s="104">
-        <f t="shared" si="9"/>
-        <v>0.79800000000000004</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -35488,23 +35069,18 @@
         <v>337</v>
       </c>
       <c r="D162" s="104">
-        <f t="shared" si="9"/>
-        <v>0.60899999999999999</v>
+        <v>1</v>
       </c>
       <c r="E162" s="104">
-        <f t="shared" si="9"/>
-        <v>0.60899999999999999</v>
+        <v>0</v>
       </c>
       <c r="F162" s="104">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G162" s="104">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H162" s="104">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -35513,28 +35089,23 @@
         <v>339</v>
       </c>
       <c r="D163" s="104">
-        <f t="shared" si="9"/>
-        <v>0.53550000000000009</v>
+        <v>0.71</v>
       </c>
       <c r="E163" s="104">
-        <f t="shared" si="9"/>
-        <v>0.53550000000000009</v>
+        <v>0</v>
       </c>
       <c r="F163" s="104">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G163" s="104">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H163" s="104">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="u6g/zY9HN4rLa78AQeOHGXKbpT9konpPHbLFh1V73dTCXjstKHSK7xA/8PdHr4EbwHJnr8KtKvwnI6Muv0KZGA==" saltValue="lITncf/Cn4Y7EWw8ltTZ4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="x0aNx8NoxpMoN54WaPMQRQ9ICWrLz67hkH/zr47J35ND0WKrgHW8z+4YRTngNPFLVE6Nj6Fdmfo0I9YeQOBUpg==" saltValue="I54REg3zGd7DGcP1DnTaMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -35548,7 +35119,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -35611,16 +35182,16 @@
         <v>339</v>
       </c>
       <c r="D3" s="104">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="E3" s="104">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="F3" s="104">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="G3" s="104">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="H3" s="31"/>
     </row>
@@ -35695,16 +35266,16 @@
         <v>339</v>
       </c>
       <c r="D7" s="104">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="E7" s="104">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F7" s="104">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="G7" s="104">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="H7" s="31"/>
     </row>
@@ -35766,20 +35337,16 @@
         <v>339</v>
       </c>
       <c r="D12" s="104">
-        <f t="shared" ref="D12:G16" si="1">IF($C3="Affected fraction",D3,IF(D3=1,1,D3*0.9))</f>
-        <v>0.15300000000000002</v>
+        <v>0</v>
       </c>
       <c r="E12" s="104">
-        <f t="shared" si="1"/>
-        <v>0.15300000000000002</v>
+        <v>0</v>
       </c>
       <c r="F12" s="104">
-        <f t="shared" si="1"/>
-        <v>0.15300000000000002</v>
+        <v>0</v>
       </c>
       <c r="G12" s="104">
-        <f t="shared" si="1"/>
-        <v>0.15300000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -35793,7 +35360,7 @@
         <v>337</v>
       </c>
       <c r="D13" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D13:G16" si="1">IF($C4="Affected fraction",D4,IF(D4=1,1,D4*0.9))</f>
         <v>1</v>
       </c>
       <c r="E13" s="104">
@@ -35863,19 +35430,19 @@
       </c>
       <c r="D16" s="104">
         <f t="shared" si="1"/>
-        <v>0.54</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="E16" s="104">
         <f t="shared" si="1"/>
-        <v>0.54</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="F16" s="104">
         <f t="shared" si="1"/>
-        <v>0.54</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="G16" s="104">
         <f t="shared" si="1"/>
-        <v>0.54</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -35936,20 +35503,16 @@
         <v>339</v>
       </c>
       <c r="D21" s="104">
-        <f t="shared" ref="D21:G25" si="3">IF($C3="Affected fraction",D3,IF(D3=1,1,D3*1.05))</f>
-        <v>0.17850000000000002</v>
+        <v>0.98</v>
       </c>
       <c r="E21" s="104">
-        <f t="shared" si="3"/>
-        <v>0.17850000000000002</v>
+        <v>0.98</v>
       </c>
       <c r="F21" s="104">
-        <f t="shared" si="3"/>
-        <v>0.17850000000000002</v>
+        <v>0.98</v>
       </c>
       <c r="G21" s="104">
-        <f t="shared" si="3"/>
-        <v>0.17850000000000002</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -35963,7 +35526,7 @@
         <v>337</v>
       </c>
       <c r="D22" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D22:G22" si="3">IF($C4="Affected fraction",D4,IF(D4=1,1,D4*1.05))</f>
         <v>1</v>
       </c>
       <c r="E22" s="104">
@@ -35984,20 +35547,20 @@
         <v>339</v>
       </c>
       <c r="D23" s="104">
-        <f t="shared" si="3"/>
-        <v>0.61949999999999994</v>
+        <f>IF($C5="Affected fraction",D5,IF(D5=1,1,D5*1.1))</f>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E23" s="104">
-        <f t="shared" si="3"/>
-        <v>0.61949999999999994</v>
+        <f t="shared" ref="E23:G23" si="4">IF($C5="Affected fraction",E5,IF(E5=1,1,E5*1.1))</f>
+        <v>0.64900000000000002</v>
       </c>
       <c r="F23" s="104">
-        <f t="shared" si="3"/>
-        <v>0.61949999999999994</v>
+        <f t="shared" si="4"/>
+        <v>0.64900000000000002</v>
       </c>
       <c r="G23" s="104">
-        <f t="shared" si="3"/>
-        <v>0.61949999999999994</v>
+        <f t="shared" si="4"/>
+        <v>0.64900000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -36011,19 +35574,19 @@
         <v>337</v>
       </c>
       <c r="D24" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D24:G24" si="5">IF($C6="Affected fraction",D6,IF(D6=1,1,D6*1.05))</f>
         <v>1</v>
       </c>
       <c r="E24" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F24" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G24" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -36032,24 +35595,24 @@
         <v>339</v>
       </c>
       <c r="D25" s="104">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
+        <f>IF($C7="Affected fraction",D7,IF(D7=1,1,D7*1.1))</f>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E25" s="104">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
+        <f t="shared" ref="E25:G25" si="6">IF($C7="Affected fraction",E7,IF(E7=1,1,E7*1.1))</f>
+        <v>0.64900000000000002</v>
       </c>
       <c r="F25" s="104">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
+        <f t="shared" si="6"/>
+        <v>0.64900000000000002</v>
       </c>
       <c r="G25" s="104">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
+        <f t="shared" si="6"/>
+        <v>0.64900000000000002</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pekW22ejBnO8PV9m4zAU6rzwpyJQZoe67sHke8qJXThigrB7m6s/LXCDMT9ndQtl1qNv7SAy0S6D4aF3Kb9iWQ==" saltValue="UDf/ckL4Xo4m1kg1WYIDqg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="stcYa2/J+u/hAgbcvS+5VdMWEHv534t0qktXgP54rcj4e4JUZirkUr3sAmuo79YSsgBJL7BWxHTzuIKCtCUYlw==" saltValue="zMEutHueLY33hujKSt1laQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -36486,7 +36049,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="V1ri1MUvHS7d51Q5N5Z15JTO5yBYkOY61XK3GFPCIwuYov6wVBuHseDvl+x/eWjRbZo0zJVdR8D9Tuu/fqicFA==" saltValue="3GcVlKS5+0Yu+Y3sDFztVg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7J0w7GBLTev0y9Txe2kOHmi/ZL8IUbO+usO+XX1euBoTHdlXNHvpm3QkN/qA1W7aCbwlCxIiyY9HRA+a8lcvoA==" saltValue="oD3JbQWZ8IWZoHrrf+YulA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36910,7 +36473,7 @@
       <c r="G17" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8fEV74gxqZ7RVP5DAPGh7R5/II67Xp7gyq2EbmhhXQ9uGM1qO10gfLuhqLCIU+IauWC4MSKbmbm2pD+JFjR+7A==" saltValue="QmwcrJQByVDqWYvpu5fz1w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ESqjiICeGuUgREnJxeuCChb0POb5xCKXE79FtAbqyjbdWBmh02eZ16RcFwmVQObsJ/il7rSWuPFwQgcgjBYQzQ==" saltValue="PE4XRLL4onCzF+NixFjxlQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37047,7 +36610,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5WydJZiGlpoGKmWZUpzLCtdPU6HmSELSSxRZnNDHs5CRQ2izV+WIKZtCxQ3ov/TiWga3D6htJKipGQDF8P1upw==" saltValue="jOKc6W3sFVgl66LOTguefA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vP8nXi92t3x22xF9GSMxYwPPIo+70ELcZXuHRyeer9kkdbO/Z0Dx+en/FhyrFxCC+ozNBW+Vmq4RT75sZGA7TA==" saltValue="pUnWj06qpPHVwud3BMqrew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37254,7 +36817,7 @@
       <c r="K14" s="115"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uL0biqxVS56TzVRdOLv18JQVVZoZJBsnrZpLQm9/PrpyxH3YBuoQQ8NeY2Zx1XFRpW6t3zUU2TtPhQmQ7M/bLw==" saltValue="S00He1rhHxniwbC7/+bQwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CebyoPvW1AJFKT32JUDipsKHItegB5t0m3xKBGNw7yHdqfwbGGJPfRIrOHlZCvgfNN0wdV8WKXNjEgLjf4Wd3Q==" saltValue="pM2rRZxlgyDYIJcfwCk2Uw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37335,7 +36898,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1DfJzp2hdUzzoPS4THnrtSTzMT+mKsQFY580S7i7SVUXyxW/8DKQbrr9sN51wB4xj93hBOqUh8rnADgeDZ280A==" saltValue="pKjGbeuCYhKBKWXOm004vQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Osc+y24M817SMK0hjI1+fY9xP58nhH6RXuR86c46SIbGQjhiKUnMBdW4aPsftSD/uVv34JUrVpcFEnooE5amKQ==" saltValue="Bl9SNwJAtUFMDI1XlxOSag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37595,7 +37158,7 @@
       <c r="E21" s="62"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6MPGwG4m7lEliazPJTpEgb58rjbgU5f29LeucJ5byBS4uXRnhq4kmx+9wLYvrKL8LPsgU3a43KAajUQm++dxxg==" saltValue="D9i5Yx+jvUpdWiAqPabLCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0vPGimrxB+17e+TR47qXSirtb3BBw7hxry8zDDdJppjtXMxRYseJCXpA+5xNLAidceV6dKSw0lUB530XhwBlkA==" saltValue="t2Dv5RrDMyMqCKY4x1rV5A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37659,7 +37222,7 @@
       <c r="D3" s="62"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vFKiG3knZRsNpepqlvnTHnp7NQ8R9OKMvzW1kpd5/LgjDCxLRJpohCawTn8oUVFQBXt32STjxlPfkg4O18Wplg==" saltValue="QXIQuj0RVsoqPSfg1rQmKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FLEA8x8yD/aiDoHO1IADPGlE8M9Flfk2dPSrZ0GBq7ykn3+BafvtFELjvGkTcWJyU77c8B52d5K4vSwVALeC/w==" saltValue="pGNaIbznwH8yQbfThllgig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>